--- a/BackTest/2020-01-21 BackTest TMTG.xlsx
+++ b/BackTest/2020-01-21 BackTest TMTG.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -12628,7 +12628,7 @@
         <v>-86142.76958526322</v>
       </c>
       <c r="H371" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -12892,7 +12892,7 @@
         <v>1098232.191763425</v>
       </c>
       <c r="H379" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -12958,7 +12958,7 @@
         <v>1497760.691763425</v>
       </c>
       <c r="H381" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -12991,7 +12991,7 @@
         <v>1497760.691763425</v>
       </c>
       <c r="H382" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -13024,7 +13024,7 @@
         <v>1069129.838763426</v>
       </c>
       <c r="H383" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -13057,7 +13057,7 @@
         <v>1416014.446763426</v>
       </c>
       <c r="H384" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -13090,7 +13090,7 @@
         <v>1053512.979763426</v>
       </c>
       <c r="H385" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -13123,7 +13123,7 @@
         <v>1028085.595763426</v>
       </c>
       <c r="H386" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -13156,7 +13156,7 @@
         <v>1093213.824763426</v>
       </c>
       <c r="H387" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -13189,7 +13189,7 @@
         <v>1185389.375763426</v>
       </c>
       <c r="H388" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -13222,7 +13222,7 @@
         <v>1316654.379763426</v>
       </c>
       <c r="H389" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -13255,7 +13255,7 @@
         <v>960174.6967634256</v>
       </c>
       <c r="H390" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -13288,7 +13288,7 @@
         <v>928843.3927634256</v>
       </c>
       <c r="H391" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -13321,7 +13321,7 @@
         <v>878262.9927634256</v>
       </c>
       <c r="H392" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -13354,7 +13354,7 @@
         <v>967679.6037634256</v>
       </c>
       <c r="H393" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -13387,7 +13387,7 @@
         <v>1080774.608763426</v>
       </c>
       <c r="H394" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -13420,7 +13420,7 @@
         <v>935912.7997634256</v>
       </c>
       <c r="H395" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -13453,7 +13453,7 @@
         <v>883369.2087634256</v>
       </c>
       <c r="H396" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -13486,7 +13486,7 @@
         <v>979435.3857634256</v>
       </c>
       <c r="H397" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -13519,7 +13519,7 @@
         <v>836322.0827634255</v>
       </c>
       <c r="H398" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -13552,7 +13552,7 @@
         <v>1015105.263763426</v>
       </c>
       <c r="H399" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -13585,7 +13585,7 @@
         <v>1219771.392763426</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -13618,7 +13618,7 @@
         <v>1254895.786763426</v>
       </c>
       <c r="H401" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -13651,7 +13651,7 @@
         <v>1315278.002763426</v>
       </c>
       <c r="H402" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -13684,7 +13684,7 @@
         <v>1133151.304763426</v>
       </c>
       <c r="H403" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -13717,7 +13717,7 @@
         <v>994074.8057634255</v>
       </c>
       <c r="H404" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -13750,7 +13750,7 @@
         <v>1777831.133363425</v>
       </c>
       <c r="H405" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -14179,7 +14179,7 @@
         <v>1809826.283041043</v>
       </c>
       <c r="H418" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -14212,7 +14212,7 @@
         <v>1884526.748041043</v>
       </c>
       <c r="H419" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -14245,7 +14245,7 @@
         <v>1755925.758041043</v>
       </c>
       <c r="H420" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -14278,7 +14278,7 @@
         <v>2050726.598641043</v>
       </c>
       <c r="H421" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -14311,7 +14311,7 @@
         <v>2050726.598641043</v>
       </c>
       <c r="H422" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -14344,7 +14344,7 @@
         <v>2331469.469641043</v>
       </c>
       <c r="H423" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -14377,7 +14377,7 @@
         <v>2756210.119641043</v>
       </c>
       <c r="H424" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -14410,7 +14410,7 @@
         <v>3189263.672641043</v>
       </c>
       <c r="H425" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -14443,7 +14443,7 @@
         <v>3252599.216641043</v>
       </c>
       <c r="H426" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -14476,7 +14476,7 @@
         <v>3410572.682641043</v>
       </c>
       <c r="H427" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -14509,7 +14509,7 @@
         <v>4353317.492641043</v>
       </c>
       <c r="H428" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -14542,7 +14542,7 @@
         <v>3644826.428641043</v>
       </c>
       <c r="H429" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -14575,7 +14575,7 @@
         <v>3181953.050441043</v>
       </c>
       <c r="H430" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -14608,7 +14608,7 @@
         <v>3181953.050441043</v>
       </c>
       <c r="H431" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -14641,7 +14641,7 @@
         <v>3062674.367441042</v>
       </c>
       <c r="H432" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -14674,7 +14674,7 @@
         <v>3242728.077441042</v>
       </c>
       <c r="H433" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -14707,7 +14707,7 @@
         <v>3242728.077441042</v>
       </c>
       <c r="H434" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -15070,7 +15070,7 @@
         <v>3378115.349941042</v>
       </c>
       <c r="H445" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -15103,7 +15103,7 @@
         <v>3332205.579941042</v>
       </c>
       <c r="H446" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -15136,7 +15136,7 @@
         <v>3225786.465941042</v>
       </c>
       <c r="H447" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -15169,7 +15169,7 @@
         <v>3385245.027941042</v>
       </c>
       <c r="H448" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -15202,7 +15202,7 @@
         <v>2917114.439941042</v>
       </c>
       <c r="H449" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -15235,7 +15235,7 @@
         <v>2917114.439941042</v>
       </c>
       <c r="H450" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -15268,7 +15268,7 @@
         <v>2883859.523941041</v>
       </c>
       <c r="H451" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -15301,7 +15301,7 @@
         <v>2773525.289941041</v>
       </c>
       <c r="H452" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -15334,7 +15334,7 @@
         <v>3156462.200541041</v>
       </c>
       <c r="H453" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -15367,7 +15367,7 @@
         <v>3329609.724541042</v>
       </c>
       <c r="H454" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -15400,7 +15400,7 @@
         <v>3329609.724541042</v>
       </c>
       <c r="H455" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -15433,7 +15433,7 @@
         <v>3329609.724541042</v>
       </c>
       <c r="H456" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -15466,7 +15466,7 @@
         <v>3329609.724541042</v>
       </c>
       <c r="H457" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -15499,7 +15499,7 @@
         <v>3763566.335541042</v>
       </c>
       <c r="H458" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -15532,7 +15532,7 @@
         <v>4197059.750541042</v>
       </c>
       <c r="H459" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
@@ -15565,7 +15565,7 @@
         <v>3763454.379541042</v>
       </c>
       <c r="H460" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -15664,7 +15664,7 @@
         <v>3513389.935541042</v>
       </c>
       <c r="H463" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -15697,7 +15697,7 @@
         <v>3209211.960541042</v>
       </c>
       <c r="H464" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -15796,7 +15796,7 @@
         <v>4018251.491141042</v>
       </c>
       <c r="H467" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -16159,7 +16159,7 @@
         <v>3366437.075492164</v>
       </c>
       <c r="H478" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -16192,7 +16192,7 @@
         <v>3229821.467492164</v>
       </c>
       <c r="H479" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -16225,7 +16225,7 @@
         <v>3437489.770492163</v>
       </c>
       <c r="H480" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -16258,7 +16258,7 @@
         <v>3168280.219492164</v>
       </c>
       <c r="H481" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -16291,7 +16291,7 @@
         <v>3189258.976492164</v>
       </c>
       <c r="H482" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
@@ -16324,7 +16324,7 @@
         <v>3003977.491492164</v>
       </c>
       <c r="H483" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
@@ -16357,7 +16357,7 @@
         <v>2847240.917492164</v>
       </c>
       <c r="H484" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
@@ -16390,7 +16390,7 @@
         <v>2847240.917492164</v>
       </c>
       <c r="H485" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
@@ -16423,7 +16423,7 @@
         <v>2847240.917492164</v>
       </c>
       <c r="H486" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
@@ -16456,7 +16456,7 @@
         <v>2863492.933492164</v>
       </c>
       <c r="H487" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -16489,7 +16489,7 @@
         <v>2946148.633492164</v>
       </c>
       <c r="H488" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -16522,7 +16522,7 @@
         <v>3072077.769492164</v>
       </c>
       <c r="H489" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -16555,7 +16555,7 @@
         <v>2736532.173492164</v>
       </c>
       <c r="H490" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -16588,7 +16588,7 @@
         <v>2537067.099492164</v>
       </c>
       <c r="H491" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -16621,7 +16621,7 @@
         <v>2573839.881492164</v>
       </c>
       <c r="H492" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -16654,7 +16654,7 @@
         <v>2643167.089492164</v>
       </c>
       <c r="H493" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -16687,7 +16687,7 @@
         <v>2524461.550492164</v>
       </c>
       <c r="H494" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -16720,7 +16720,7 @@
         <v>2689954.874492164</v>
       </c>
       <c r="H495" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -16753,7 +16753,7 @@
         <v>2487259.357492164</v>
       </c>
       <c r="H496" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -16786,7 +16786,7 @@
         <v>2175874.292492164</v>
       </c>
       <c r="H497" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -16819,7 +16819,7 @@
         <v>2175874.292492164</v>
       </c>
       <c r="H498" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -17248,7 +17248,7 @@
         <v>2548100.285492164</v>
       </c>
       <c r="H511" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -17281,7 +17281,7 @@
         <v>2570146.704492164</v>
       </c>
       <c r="H512" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -17314,7 +17314,7 @@
         <v>2632340.481492165</v>
       </c>
       <c r="H513" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -17347,7 +17347,7 @@
         <v>2742459.336492165</v>
       </c>
       <c r="H514" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -17380,7 +17380,7 @@
         <v>2882204.113492165</v>
       </c>
       <c r="H515" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -17413,7 +17413,7 @@
         <v>2514786.968492165</v>
       </c>
       <c r="H516" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -17446,7 +17446,7 @@
         <v>2379224.938492165</v>
       </c>
       <c r="H517" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -17479,7 +17479,7 @@
         <v>854255.201492165</v>
       </c>
       <c r="H518" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -17512,7 +17512,7 @@
         <v>854255.201492165</v>
       </c>
       <c r="H519" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -17545,7 +17545,7 @@
         <v>822537.3807432873</v>
       </c>
       <c r="H520" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -17578,7 +17578,7 @@
         <v>822537.3807432873</v>
       </c>
       <c r="H521" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -17611,7 +17611,7 @@
         <v>822537.3807432873</v>
       </c>
       <c r="H522" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -17644,7 +17644,7 @@
         <v>822537.3807432873</v>
       </c>
       <c r="H523" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -17809,7 +17809,7 @@
         <v>86520.99614328728</v>
       </c>
       <c r="H528" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -17842,7 +17842,7 @@
         <v>124386.8577432873</v>
       </c>
       <c r="H529" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -17875,7 +17875,7 @@
         <v>27152.24074328729</v>
       </c>
       <c r="H530" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -17908,7 +17908,7 @@
         <v>-55095.04625671271</v>
       </c>
       <c r="H531" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -17941,7 +17941,7 @@
         <v>-172191.1922567127</v>
       </c>
       <c r="H532" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -17974,7 +17974,7 @@
         <v>-156821.7712567127</v>
       </c>
       <c r="H533" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -18007,7 +18007,7 @@
         <v>-190320.7642567127</v>
       </c>
       <c r="H534" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -18040,7 +18040,7 @@
         <v>-279543.0482567127</v>
       </c>
       <c r="H535" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -18073,7 +18073,7 @@
         <v>4969.924743287324</v>
       </c>
       <c r="H536" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -18106,7 +18106,7 @@
         <v>192609.1727432873</v>
       </c>
       <c r="H537" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -18139,7 +18139,7 @@
         <v>173862.3227432873</v>
       </c>
       <c r="H538" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -18172,7 +18172,7 @@
         <v>136563.9397432873</v>
       </c>
       <c r="H539" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -18205,7 +18205,7 @@
         <v>136563.9397432873</v>
       </c>
       <c r="H540" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -18238,7 +18238,7 @@
         <v>136563.9397432873</v>
       </c>
       <c r="H541" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -18271,7 +18271,7 @@
         <v>136563.9397432873</v>
       </c>
       <c r="H542" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -21406,7 +21406,7 @@
         <v>-1122332.689949746</v>
       </c>
       <c r="H637" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
@@ -21439,7 +21439,7 @@
         <v>-1129868.445949747</v>
       </c>
       <c r="H638" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
@@ -21472,7 +21472,7 @@
         <v>-1139923.428949747</v>
       </c>
       <c r="H639" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
@@ -21505,7 +21505,7 @@
         <v>-1140400.520949746</v>
       </c>
       <c r="H640" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
@@ -21538,7 +21538,7 @@
         <v>-1133050.569949747</v>
       </c>
       <c r="H641" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
@@ -21571,7 +21571,7 @@
         <v>-733050.5699497466</v>
       </c>
       <c r="H642" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
@@ -21604,7 +21604,7 @@
         <v>-745343.4159497466</v>
       </c>
       <c r="H643" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
@@ -21637,7 +21637,7 @@
         <v>-730494.0319497467</v>
       </c>
       <c r="H644" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
@@ -21670,7 +21670,7 @@
         <v>-735208.7699497467</v>
       </c>
       <c r="H645" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
@@ -21703,7 +21703,7 @@
         <v>-745064.4899497466</v>
       </c>
       <c r="H646" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
@@ -21736,7 +21736,7 @@
         <v>-729264.2119497466</v>
       </c>
       <c r="H647" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
@@ -21769,7 +21769,7 @@
         <v>-730626.9179497466</v>
       </c>
       <c r="H648" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
@@ -21802,7 +21802,7 @@
         <v>-410017.5841465398</v>
       </c>
       <c r="H649" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
@@ -21835,7 +21835,7 @@
         <v>-384225.9791465398</v>
       </c>
       <c r="H650" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr"/>
@@ -21868,7 +21868,7 @@
         <v>-418430.9431465398</v>
       </c>
       <c r="H651" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
@@ -21901,7 +21901,7 @@
         <v>-412602.2351465398</v>
       </c>
       <c r="H652" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
@@ -21934,7 +21934,7 @@
         <v>-428204.0111465398</v>
       </c>
       <c r="H653" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
@@ -21967,7 +21967,7 @@
         <v>-401844.3011465398</v>
       </c>
       <c r="H654" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
@@ -22000,7 +22000,7 @@
         <v>-404594.0381465398</v>
       </c>
       <c r="H655" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
@@ -22033,7 +22033,7 @@
         <v>-456113.9457433331</v>
       </c>
       <c r="H656" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
@@ -22066,7 +22066,7 @@
         <v>-463704.9287433331</v>
       </c>
       <c r="H657" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
@@ -22099,7 +22099,7 @@
         <v>-481431.8447433331</v>
       </c>
       <c r="H658" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
@@ -22132,7 +22132,7 @@
         <v>-460468.3257433331</v>
       </c>
       <c r="H659" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
@@ -22165,7 +22165,7 @@
         <v>-453510.1877433331</v>
       </c>
       <c r="H660" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
@@ -22198,7 +22198,7 @@
         <v>-466245.0137433331</v>
       </c>
       <c r="H661" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
@@ -22231,7 +22231,7 @@
         <v>-517165.2362433331</v>
       </c>
       <c r="H662" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
@@ -22264,7 +22264,7 @@
         <v>-519582.5672433331</v>
       </c>
       <c r="H663" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
@@ -22297,7 +22297,7 @@
         <v>-526568.3592433331</v>
       </c>
       <c r="H664" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
@@ -22396,7 +22396,7 @@
         <v>-48464.2740433331</v>
       </c>
       <c r="H667" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
@@ -22429,7 +22429,7 @@
         <v>-30208.4700433331</v>
       </c>
       <c r="H668" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
@@ -22462,7 +22462,7 @@
         <v>-5547.0850433331</v>
       </c>
       <c r="H669" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
@@ -22495,7 +22495,7 @@
         <v>-11461.8390433331</v>
       </c>
       <c r="H670" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
@@ -22528,7 +22528,7 @@
         <v>-52575.2696433331</v>
       </c>
       <c r="H671" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
@@ -22660,7 +22660,7 @@
         <v>-94113.1826433331</v>
       </c>
       <c r="H675" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
@@ -22693,7 +22693,7 @@
         <v>-116521.7966433331</v>
       </c>
       <c r="H676" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
@@ -22726,7 +22726,7 @@
         <v>-87399.4766433331</v>
       </c>
       <c r="H677" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
@@ -22759,7 +22759,7 @@
         <v>-97060.93664333309</v>
       </c>
       <c r="H678" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
@@ -23089,7 +23089,7 @@
         <v>-9936.337343333085</v>
       </c>
       <c r="H688" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I688" t="inlineStr"/>
       <c r="J688" t="inlineStr"/>
@@ -23122,7 +23122,7 @@
         <v>4212.966656666915</v>
       </c>
       <c r="H689" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I689" t="inlineStr"/>
       <c r="J689" t="inlineStr"/>
@@ -23155,7 +23155,7 @@
         <v>-22406.94034333308</v>
       </c>
       <c r="H690" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I690" t="inlineStr"/>
       <c r="J690" t="inlineStr"/>
@@ -23188,7 +23188,7 @@
         <v>17238.47065666692</v>
       </c>
       <c r="H691" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I691" t="inlineStr"/>
       <c r="J691" t="inlineStr"/>
@@ -23221,7 +23221,7 @@
         <v>73934.73865666692</v>
       </c>
       <c r="H692" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I692" t="inlineStr"/>
       <c r="J692" t="inlineStr"/>
@@ -23254,7 +23254,7 @@
         <v>77511.41565666691</v>
       </c>
       <c r="H693" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I693" t="inlineStr"/>
       <c r="J693" t="inlineStr"/>
@@ -23287,7 +23287,7 @@
         <v>62348.10665666691</v>
       </c>
       <c r="H694" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I694" t="inlineStr"/>
       <c r="J694" t="inlineStr"/>
@@ -23320,7 +23320,7 @@
         <v>-25319580.66254333</v>
       </c>
       <c r="H695" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I695" t="inlineStr"/>
       <c r="J695" t="inlineStr"/>
@@ -23353,7 +23353,7 @@
         <v>-26073991.16214333</v>
       </c>
       <c r="H696" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="inlineStr"/>
@@ -25102,14 +25102,10 @@
         <v>-26080539.89974334</v>
       </c>
       <c r="H749" t="n">
-        <v>2</v>
-      </c>
-      <c r="I749" t="n">
-        <v>3.828</v>
-      </c>
-      <c r="J749" t="n">
-        <v>3.828</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I749" t="inlineStr"/>
+      <c r="J749" t="inlineStr"/>
       <c r="K749" t="inlineStr"/>
       <c r="L749" t="n">
         <v>1</v>
@@ -25139,19 +25135,11 @@
         <v>-26079828.25574334</v>
       </c>
       <c r="H750" t="n">
-        <v>2</v>
-      </c>
-      <c r="I750" t="n">
-        <v>3.831</v>
-      </c>
-      <c r="J750" t="n">
-        <v>3.828</v>
-      </c>
-      <c r="K750" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I750" t="inlineStr"/>
+      <c r="J750" t="inlineStr"/>
+      <c r="K750" t="inlineStr"/>
       <c r="L750" t="n">
         <v>1</v>
       </c>
@@ -25180,19 +25168,11 @@
         <v>-26082265.39874334</v>
       </c>
       <c r="H751" t="n">
-        <v>2</v>
-      </c>
-      <c r="I751" t="n">
-        <v>3.834</v>
-      </c>
-      <c r="J751" t="n">
-        <v>3.828</v>
-      </c>
-      <c r="K751" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I751" t="inlineStr"/>
+      <c r="J751" t="inlineStr"/>
+      <c r="K751" t="inlineStr"/>
       <c r="L751" t="n">
         <v>1</v>
       </c>
@@ -25221,7 +25201,7 @@
         <v>-26078172.01174334</v>
       </c>
       <c r="H752" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I752" t="n">
         <v>3.829</v>
@@ -25258,7 +25238,7 @@
         <v>-26078810.68674334</v>
       </c>
       <c r="H753" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I753" t="n">
         <v>3.833</v>
@@ -25299,7 +25279,7 @@
         <v>-26081215.58674334</v>
       </c>
       <c r="H754" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I754" t="n">
         <v>3.829</v>
@@ -25340,7 +25320,7 @@
         <v>-26085237.10474334</v>
       </c>
       <c r="H755" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I755" t="n">
         <v>3.824</v>
@@ -25377,7 +25357,7 @@
         <v>-26085237.10474334</v>
       </c>
       <c r="H756" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I756" t="n">
         <v>3.821</v>
@@ -25418,7 +25398,7 @@
         <v>-26082691.60174334</v>
       </c>
       <c r="H757" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I757" t="n">
         <v>3.821</v>
@@ -25459,11 +25439,19 @@
         <v>-26071925.12004334</v>
       </c>
       <c r="H758" t="n">
-        <v>0</v>
-      </c>
-      <c r="I758" t="inlineStr"/>
-      <c r="J758" t="inlineStr"/>
-      <c r="K758" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I758" t="n">
+        <v>3.841</v>
+      </c>
+      <c r="J758" t="n">
+        <v>3.824</v>
+      </c>
+      <c r="K758" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L758" t="n">
         <v>1</v>
       </c>
@@ -25492,11 +25480,19 @@
         <v>-26072774.26704334</v>
       </c>
       <c r="H759" t="n">
-        <v>0</v>
-      </c>
-      <c r="I759" t="inlineStr"/>
-      <c r="J759" t="inlineStr"/>
-      <c r="K759" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I759" t="n">
+        <v>3.867</v>
+      </c>
+      <c r="J759" t="n">
+        <v>3.824</v>
+      </c>
+      <c r="K759" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L759" t="n">
         <v>1</v>
       </c>
@@ -25525,11 +25521,19 @@
         <v>-26075044.51604334</v>
       </c>
       <c r="H760" t="n">
-        <v>0</v>
-      </c>
-      <c r="I760" t="inlineStr"/>
-      <c r="J760" t="inlineStr"/>
-      <c r="K760" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I760" t="n">
+        <v>3.866</v>
+      </c>
+      <c r="J760" t="n">
+        <v>3.824</v>
+      </c>
+      <c r="K760" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L760" t="n">
         <v>1</v>
       </c>
@@ -25558,11 +25562,19 @@
         <v>-26071906.57904334</v>
       </c>
       <c r="H761" t="n">
-        <v>0</v>
-      </c>
-      <c r="I761" t="inlineStr"/>
-      <c r="J761" t="inlineStr"/>
-      <c r="K761" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I761" t="n">
+        <v>3.864</v>
+      </c>
+      <c r="J761" t="n">
+        <v>3.824</v>
+      </c>
+      <c r="K761" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L761" t="n">
         <v>1</v>
       </c>
@@ -25591,11 +25603,19 @@
         <v>-26070585.32704334</v>
       </c>
       <c r="H762" t="n">
-        <v>0</v>
-      </c>
-      <c r="I762" t="inlineStr"/>
-      <c r="J762" t="inlineStr"/>
-      <c r="K762" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I762" t="n">
+        <v>3.865</v>
+      </c>
+      <c r="J762" t="n">
+        <v>3.824</v>
+      </c>
+      <c r="K762" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L762" t="n">
         <v>1</v>
       </c>
@@ -25624,11 +25644,19 @@
         <v>-26072824.29704334</v>
       </c>
       <c r="H763" t="n">
-        <v>0</v>
-      </c>
-      <c r="I763" t="inlineStr"/>
-      <c r="J763" t="inlineStr"/>
-      <c r="K763" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I763" t="n">
+        <v>3.866</v>
+      </c>
+      <c r="J763" t="n">
+        <v>3.824</v>
+      </c>
+      <c r="K763" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L763" t="n">
         <v>1</v>
       </c>
@@ -25657,11 +25685,19 @@
         <v>-26066805.02204334</v>
       </c>
       <c r="H764" t="n">
-        <v>0</v>
-      </c>
-      <c r="I764" t="inlineStr"/>
-      <c r="J764" t="inlineStr"/>
-      <c r="K764" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I764" t="n">
+        <v>3.864</v>
+      </c>
+      <c r="J764" t="n">
+        <v>3.824</v>
+      </c>
+      <c r="K764" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L764" t="n">
         <v>1</v>
       </c>
@@ -25690,11 +25726,19 @@
         <v>-25835444.45017382</v>
       </c>
       <c r="H765" t="n">
-        <v>0</v>
-      </c>
-      <c r="I765" t="inlineStr"/>
-      <c r="J765" t="inlineStr"/>
-      <c r="K765" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I765" t="n">
+        <v>3.865</v>
+      </c>
+      <c r="J765" t="n">
+        <v>3.824</v>
+      </c>
+      <c r="K765" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L765" t="n">
         <v>1</v>
       </c>
@@ -25723,11 +25767,19 @@
         <v>-25836025.02417382</v>
       </c>
       <c r="H766" t="n">
-        <v>0</v>
-      </c>
-      <c r="I766" t="inlineStr"/>
-      <c r="J766" t="inlineStr"/>
-      <c r="K766" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I766" t="n">
+        <v>3.868</v>
+      </c>
+      <c r="J766" t="n">
+        <v>3.824</v>
+      </c>
+      <c r="K766" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L766" t="n">
         <v>1</v>
       </c>
@@ -25756,11 +25808,19 @@
         <v>-25833418.10767382</v>
       </c>
       <c r="H767" t="n">
-        <v>0</v>
-      </c>
-      <c r="I767" t="inlineStr"/>
-      <c r="J767" t="inlineStr"/>
-      <c r="K767" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I767" t="n">
+        <v>3.863</v>
+      </c>
+      <c r="J767" t="n">
+        <v>3.824</v>
+      </c>
+      <c r="K767" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L767" t="n">
         <v>1</v>
       </c>
@@ -25789,11 +25849,19 @@
         <v>-25833418.10767382</v>
       </c>
       <c r="H768" t="n">
-        <v>0</v>
-      </c>
-      <c r="I768" t="inlineStr"/>
-      <c r="J768" t="inlineStr"/>
-      <c r="K768" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I768" t="n">
+        <v>3.879</v>
+      </c>
+      <c r="J768" t="n">
+        <v>3.824</v>
+      </c>
+      <c r="K768" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L768" t="n">
         <v>1</v>
       </c>
@@ -25822,11 +25890,19 @@
         <v>-25834018.64967382</v>
       </c>
       <c r="H769" t="n">
-        <v>0</v>
-      </c>
-      <c r="I769" t="inlineStr"/>
-      <c r="J769" t="inlineStr"/>
-      <c r="K769" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I769" t="n">
+        <v>3.879</v>
+      </c>
+      <c r="J769" t="n">
+        <v>3.824</v>
+      </c>
+      <c r="K769" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L769" t="n">
         <v>1</v>
       </c>
@@ -25855,11 +25931,19 @@
         <v>-25835300.81967383</v>
       </c>
       <c r="H770" t="n">
-        <v>0</v>
-      </c>
-      <c r="I770" t="inlineStr"/>
-      <c r="J770" t="inlineStr"/>
-      <c r="K770" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I770" t="n">
+        <v>3.876</v>
+      </c>
+      <c r="J770" t="n">
+        <v>3.824</v>
+      </c>
+      <c r="K770" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L770" t="n">
         <v>1</v>
       </c>
@@ -25888,11 +25972,19 @@
         <v>-25838117.73267382</v>
       </c>
       <c r="H771" t="n">
-        <v>0</v>
-      </c>
-      <c r="I771" t="inlineStr"/>
-      <c r="J771" t="inlineStr"/>
-      <c r="K771" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I771" t="n">
+        <v>3.873</v>
+      </c>
+      <c r="J771" t="n">
+        <v>3.824</v>
+      </c>
+      <c r="K771" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L771" t="n">
         <v>1</v>
       </c>
@@ -25921,11 +26013,19 @@
         <v>-25854884.31017382</v>
       </c>
       <c r="H772" t="n">
-        <v>0</v>
-      </c>
-      <c r="I772" t="inlineStr"/>
-      <c r="J772" t="inlineStr"/>
-      <c r="K772" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I772" t="n">
+        <v>3.871</v>
+      </c>
+      <c r="J772" t="n">
+        <v>3.824</v>
+      </c>
+      <c r="K772" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L772" t="n">
         <v>1</v>
       </c>
@@ -25954,11 +26054,19 @@
         <v>-25854438.41517382</v>
       </c>
       <c r="H773" t="n">
-        <v>0</v>
-      </c>
-      <c r="I773" t="inlineStr"/>
-      <c r="J773" t="inlineStr"/>
-      <c r="K773" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I773" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="J773" t="n">
+        <v>3.824</v>
+      </c>
+      <c r="K773" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L773" t="n">
         <v>1</v>
       </c>
@@ -25987,11 +26095,19 @@
         <v>-25852477.77017383</v>
       </c>
       <c r="H774" t="n">
-        <v>0</v>
-      </c>
-      <c r="I774" t="inlineStr"/>
-      <c r="J774" t="inlineStr"/>
-      <c r="K774" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I774" t="n">
+        <v>3.861</v>
+      </c>
+      <c r="J774" t="n">
+        <v>3.824</v>
+      </c>
+      <c r="K774" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L774" t="n">
         <v>1</v>
       </c>
@@ -26020,11 +26136,19 @@
         <v>-25846588.73117382</v>
       </c>
       <c r="H775" t="n">
-        <v>0</v>
-      </c>
-      <c r="I775" t="inlineStr"/>
-      <c r="J775" t="inlineStr"/>
-      <c r="K775" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I775" t="n">
+        <v>3.862</v>
+      </c>
+      <c r="J775" t="n">
+        <v>3.824</v>
+      </c>
+      <c r="K775" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L775" t="n">
         <v>1</v>
       </c>
@@ -26053,11 +26177,19 @@
         <v>-25847096.75217383</v>
       </c>
       <c r="H776" t="n">
-        <v>0</v>
-      </c>
-      <c r="I776" t="inlineStr"/>
-      <c r="J776" t="inlineStr"/>
-      <c r="K776" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I776" t="n">
+        <v>3.863</v>
+      </c>
+      <c r="J776" t="n">
+        <v>3.824</v>
+      </c>
+      <c r="K776" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L776" t="n">
         <v>1</v>
       </c>
@@ -26086,11 +26218,19 @@
         <v>-25920051.93537383</v>
       </c>
       <c r="H777" t="n">
-        <v>0</v>
-      </c>
-      <c r="I777" t="inlineStr"/>
-      <c r="J777" t="inlineStr"/>
-      <c r="K777" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I777" t="n">
+        <v>3.861</v>
+      </c>
+      <c r="J777" t="n">
+        <v>3.824</v>
+      </c>
+      <c r="K777" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L777" t="n">
         <v>1</v>
       </c>
@@ -26119,11 +26259,19 @@
         <v>-25920051.93537383</v>
       </c>
       <c r="H778" t="n">
-        <v>0</v>
-      </c>
-      <c r="I778" t="inlineStr"/>
-      <c r="J778" t="inlineStr"/>
-      <c r="K778" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I778" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="J778" t="n">
+        <v>3.824</v>
+      </c>
+      <c r="K778" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L778" t="n">
         <v>1</v>
       </c>
@@ -26152,11 +26300,19 @@
         <v>-25917969.02037383</v>
       </c>
       <c r="H779" t="n">
-        <v>0</v>
-      </c>
-      <c r="I779" t="inlineStr"/>
-      <c r="J779" t="inlineStr"/>
-      <c r="K779" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I779" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="J779" t="n">
+        <v>3.824</v>
+      </c>
+      <c r="K779" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L779" t="n">
         <v>1</v>
       </c>
@@ -26185,11 +26341,19 @@
         <v>-25800877.13747383</v>
       </c>
       <c r="H780" t="n">
-        <v>0</v>
-      </c>
-      <c r="I780" t="inlineStr"/>
-      <c r="J780" t="inlineStr"/>
-      <c r="K780" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I780" t="n">
+        <v>3.861</v>
+      </c>
+      <c r="J780" t="n">
+        <v>3.824</v>
+      </c>
+      <c r="K780" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L780" t="n">
         <v>1</v>
       </c>
@@ -26218,11 +26382,19 @@
         <v>-25802364.16947383</v>
       </c>
       <c r="H781" t="n">
-        <v>0</v>
-      </c>
-      <c r="I781" t="inlineStr"/>
-      <c r="J781" t="inlineStr"/>
-      <c r="K781" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I781" t="n">
+        <v>3.896</v>
+      </c>
+      <c r="J781" t="n">
+        <v>3.824</v>
+      </c>
+      <c r="K781" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L781" t="n">
         <v>1</v>
       </c>
@@ -26251,11 +26423,19 @@
         <v>-25722608.49487383</v>
       </c>
       <c r="H782" t="n">
-        <v>0</v>
-      </c>
-      <c r="I782" t="inlineStr"/>
-      <c r="J782" t="inlineStr"/>
-      <c r="K782" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I782" t="n">
+        <v>3.895</v>
+      </c>
+      <c r="J782" t="n">
+        <v>3.824</v>
+      </c>
+      <c r="K782" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L782" t="n">
         <v>1</v>
       </c>
@@ -26284,11 +26464,19 @@
         <v>-25726266.69987383</v>
       </c>
       <c r="H783" t="n">
-        <v>0</v>
-      </c>
-      <c r="I783" t="inlineStr"/>
-      <c r="J783" t="inlineStr"/>
-      <c r="K783" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I783" t="n">
+        <v>3.897</v>
+      </c>
+      <c r="J783" t="n">
+        <v>3.824</v>
+      </c>
+      <c r="K783" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L783" t="n">
         <v>1</v>
       </c>
@@ -26317,11 +26505,19 @@
         <v>-25726701.80787383</v>
       </c>
       <c r="H784" t="n">
-        <v>0</v>
-      </c>
-      <c r="I784" t="inlineStr"/>
-      <c r="J784" t="inlineStr"/>
-      <c r="K784" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I784" t="n">
+        <v>3.895</v>
+      </c>
+      <c r="J784" t="n">
+        <v>3.824</v>
+      </c>
+      <c r="K784" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L784" t="n">
         <v>1</v>
       </c>
@@ -26350,11 +26546,19 @@
         <v>-25728288.81087383</v>
       </c>
       <c r="H785" t="n">
-        <v>0</v>
-      </c>
-      <c r="I785" t="inlineStr"/>
-      <c r="J785" t="inlineStr"/>
-      <c r="K785" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I785" t="n">
+        <v>3.892</v>
+      </c>
+      <c r="J785" t="n">
+        <v>3.824</v>
+      </c>
+      <c r="K785" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L785" t="n">
         <v>1</v>
       </c>
@@ -26386,8 +26590,14 @@
         <v>0</v>
       </c>
       <c r="I786" t="inlineStr"/>
-      <c r="J786" t="inlineStr"/>
-      <c r="K786" t="inlineStr"/>
+      <c r="J786" t="n">
+        <v>3.824</v>
+      </c>
+      <c r="K786" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L786" t="n">
         <v>1</v>
       </c>
@@ -26419,8 +26629,14 @@
         <v>0</v>
       </c>
       <c r="I787" t="inlineStr"/>
-      <c r="J787" t="inlineStr"/>
-      <c r="K787" t="inlineStr"/>
+      <c r="J787" t="n">
+        <v>3.824</v>
+      </c>
+      <c r="K787" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L787" t="n">
         <v>1</v>
       </c>
@@ -26452,8 +26668,14 @@
         <v>0</v>
       </c>
       <c r="I788" t="inlineStr"/>
-      <c r="J788" t="inlineStr"/>
-      <c r="K788" t="inlineStr"/>
+      <c r="J788" t="n">
+        <v>3.824</v>
+      </c>
+      <c r="K788" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L788" t="n">
         <v>1</v>
       </c>
@@ -26485,8 +26707,14 @@
         <v>0</v>
       </c>
       <c r="I789" t="inlineStr"/>
-      <c r="J789" t="inlineStr"/>
-      <c r="K789" t="inlineStr"/>
+      <c r="J789" t="n">
+        <v>3.824</v>
+      </c>
+      <c r="K789" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L789" t="n">
         <v>1</v>
       </c>
@@ -26518,8 +26746,14 @@
         <v>0</v>
       </c>
       <c r="I790" t="inlineStr"/>
-      <c r="J790" t="inlineStr"/>
-      <c r="K790" t="inlineStr"/>
+      <c r="J790" t="n">
+        <v>3.824</v>
+      </c>
+      <c r="K790" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L790" t="n">
         <v>1</v>
       </c>
@@ -26551,8 +26785,14 @@
         <v>0</v>
       </c>
       <c r="I791" t="inlineStr"/>
-      <c r="J791" t="inlineStr"/>
-      <c r="K791" t="inlineStr"/>
+      <c r="J791" t="n">
+        <v>3.824</v>
+      </c>
+      <c r="K791" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L791" t="n">
         <v>1</v>
       </c>
@@ -26584,8 +26824,14 @@
         <v>0</v>
       </c>
       <c r="I792" t="inlineStr"/>
-      <c r="J792" t="inlineStr"/>
-      <c r="K792" t="inlineStr"/>
+      <c r="J792" t="n">
+        <v>3.824</v>
+      </c>
+      <c r="K792" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L792" t="n">
         <v>1</v>
       </c>
@@ -26617,8 +26863,14 @@
         <v>0</v>
       </c>
       <c r="I793" t="inlineStr"/>
-      <c r="J793" t="inlineStr"/>
-      <c r="K793" t="inlineStr"/>
+      <c r="J793" t="n">
+        <v>3.824</v>
+      </c>
+      <c r="K793" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L793" t="n">
         <v>1</v>
       </c>
@@ -26650,8 +26902,14 @@
         <v>0</v>
       </c>
       <c r="I794" t="inlineStr"/>
-      <c r="J794" t="inlineStr"/>
-      <c r="K794" t="inlineStr"/>
+      <c r="J794" t="n">
+        <v>3.824</v>
+      </c>
+      <c r="K794" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L794" t="n">
         <v>1</v>
       </c>
@@ -26683,8 +26941,14 @@
         <v>0</v>
       </c>
       <c r="I795" t="inlineStr"/>
-      <c r="J795" t="inlineStr"/>
-      <c r="K795" t="inlineStr"/>
+      <c r="J795" t="n">
+        <v>3.824</v>
+      </c>
+      <c r="K795" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L795" t="n">
         <v>1</v>
       </c>
@@ -26716,8 +26980,14 @@
         <v>0</v>
       </c>
       <c r="I796" t="inlineStr"/>
-      <c r="J796" t="inlineStr"/>
-      <c r="K796" t="inlineStr"/>
+      <c r="J796" t="n">
+        <v>3.824</v>
+      </c>
+      <c r="K796" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L796" t="n">
         <v>1</v>
       </c>
@@ -26749,8 +27019,14 @@
         <v>0</v>
       </c>
       <c r="I797" t="inlineStr"/>
-      <c r="J797" t="inlineStr"/>
-      <c r="K797" t="inlineStr"/>
+      <c r="J797" t="n">
+        <v>3.824</v>
+      </c>
+      <c r="K797" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L797" t="n">
         <v>1</v>
       </c>
@@ -26782,8 +27058,14 @@
         <v>0</v>
       </c>
       <c r="I798" t="inlineStr"/>
-      <c r="J798" t="inlineStr"/>
-      <c r="K798" t="inlineStr"/>
+      <c r="J798" t="n">
+        <v>3.824</v>
+      </c>
+      <c r="K798" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L798" t="n">
         <v>1</v>
       </c>
@@ -26815,8 +27097,14 @@
         <v>0</v>
       </c>
       <c r="I799" t="inlineStr"/>
-      <c r="J799" t="inlineStr"/>
-      <c r="K799" t="inlineStr"/>
+      <c r="J799" t="n">
+        <v>3.824</v>
+      </c>
+      <c r="K799" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L799" t="n">
         <v>1</v>
       </c>
@@ -26848,8 +27136,14 @@
         <v>0</v>
       </c>
       <c r="I800" t="inlineStr"/>
-      <c r="J800" t="inlineStr"/>
-      <c r="K800" t="inlineStr"/>
+      <c r="J800" t="n">
+        <v>3.824</v>
+      </c>
+      <c r="K800" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L800" t="n">
         <v>1</v>
       </c>
@@ -26881,8 +27175,14 @@
         <v>0</v>
       </c>
       <c r="I801" t="inlineStr"/>
-      <c r="J801" t="inlineStr"/>
-      <c r="K801" t="inlineStr"/>
+      <c r="J801" t="n">
+        <v>3.824</v>
+      </c>
+      <c r="K801" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L801" t="n">
         <v>1</v>
       </c>
@@ -26914,8 +27214,14 @@
         <v>0</v>
       </c>
       <c r="I802" t="inlineStr"/>
-      <c r="J802" t="inlineStr"/>
-      <c r="K802" t="inlineStr"/>
+      <c r="J802" t="n">
+        <v>3.824</v>
+      </c>
+      <c r="K802" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L802" t="n">
         <v>1</v>
       </c>
@@ -26947,8 +27253,14 @@
         <v>0</v>
       </c>
       <c r="I803" t="inlineStr"/>
-      <c r="J803" t="inlineStr"/>
-      <c r="K803" t="inlineStr"/>
+      <c r="J803" t="n">
+        <v>3.824</v>
+      </c>
+      <c r="K803" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L803" t="n">
         <v>1</v>
       </c>
@@ -26980,8 +27292,14 @@
         <v>0</v>
       </c>
       <c r="I804" t="inlineStr"/>
-      <c r="J804" t="inlineStr"/>
-      <c r="K804" t="inlineStr"/>
+      <c r="J804" t="n">
+        <v>3.824</v>
+      </c>
+      <c r="K804" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L804" t="n">
         <v>1</v>
       </c>
@@ -27013,8 +27331,14 @@
         <v>0</v>
       </c>
       <c r="I805" t="inlineStr"/>
-      <c r="J805" t="inlineStr"/>
-      <c r="K805" t="inlineStr"/>
+      <c r="J805" t="n">
+        <v>3.824</v>
+      </c>
+      <c r="K805" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L805" t="n">
         <v>1</v>
       </c>
@@ -27046,8 +27370,14 @@
         <v>0</v>
       </c>
       <c r="I806" t="inlineStr"/>
-      <c r="J806" t="inlineStr"/>
-      <c r="K806" t="inlineStr"/>
+      <c r="J806" t="n">
+        <v>3.824</v>
+      </c>
+      <c r="K806" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L806" t="n">
         <v>1</v>
       </c>
@@ -27079,8 +27409,14 @@
         <v>0</v>
       </c>
       <c r="I807" t="inlineStr"/>
-      <c r="J807" t="inlineStr"/>
-      <c r="K807" t="inlineStr"/>
+      <c r="J807" t="n">
+        <v>3.824</v>
+      </c>
+      <c r="K807" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L807" t="n">
         <v>1</v>
       </c>
@@ -27112,8 +27448,14 @@
         <v>0</v>
       </c>
       <c r="I808" t="inlineStr"/>
-      <c r="J808" t="inlineStr"/>
-      <c r="K808" t="inlineStr"/>
+      <c r="J808" t="n">
+        <v>3.824</v>
+      </c>
+      <c r="K808" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L808" t="n">
         <v>1</v>
       </c>
@@ -27145,8 +27487,14 @@
         <v>0</v>
       </c>
       <c r="I809" t="inlineStr"/>
-      <c r="J809" t="inlineStr"/>
-      <c r="K809" t="inlineStr"/>
+      <c r="J809" t="n">
+        <v>3.824</v>
+      </c>
+      <c r="K809" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L809" t="n">
         <v>1</v>
       </c>
@@ -27178,8 +27526,14 @@
         <v>0</v>
       </c>
       <c r="I810" t="inlineStr"/>
-      <c r="J810" t="inlineStr"/>
-      <c r="K810" t="inlineStr"/>
+      <c r="J810" t="n">
+        <v>3.824</v>
+      </c>
+      <c r="K810" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L810" t="n">
         <v>1</v>
       </c>
@@ -27211,8 +27565,14 @@
         <v>0</v>
       </c>
       <c r="I811" t="inlineStr"/>
-      <c r="J811" t="inlineStr"/>
-      <c r="K811" t="inlineStr"/>
+      <c r="J811" t="n">
+        <v>3.824</v>
+      </c>
+      <c r="K811" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L811" t="n">
         <v>1</v>
       </c>
@@ -27244,8 +27604,14 @@
         <v>0</v>
       </c>
       <c r="I812" t="inlineStr"/>
-      <c r="J812" t="inlineStr"/>
-      <c r="K812" t="inlineStr"/>
+      <c r="J812" t="n">
+        <v>3.824</v>
+      </c>
+      <c r="K812" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L812" t="n">
         <v>1</v>
       </c>
@@ -27277,8 +27643,14 @@
         <v>0</v>
       </c>
       <c r="I813" t="inlineStr"/>
-      <c r="J813" t="inlineStr"/>
-      <c r="K813" t="inlineStr"/>
+      <c r="J813" t="n">
+        <v>3.824</v>
+      </c>
+      <c r="K813" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L813" t="n">
         <v>1</v>
       </c>
@@ -27310,8 +27682,14 @@
         <v>0</v>
       </c>
       <c r="I814" t="inlineStr"/>
-      <c r="J814" t="inlineStr"/>
-      <c r="K814" t="inlineStr"/>
+      <c r="J814" t="n">
+        <v>3.824</v>
+      </c>
+      <c r="K814" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L814" t="n">
         <v>1</v>
       </c>
@@ -27343,8 +27721,14 @@
         <v>0</v>
       </c>
       <c r="I815" t="inlineStr"/>
-      <c r="J815" t="inlineStr"/>
-      <c r="K815" t="inlineStr"/>
+      <c r="J815" t="n">
+        <v>3.824</v>
+      </c>
+      <c r="K815" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L815" t="n">
         <v>1</v>
       </c>
@@ -27376,8 +27760,14 @@
         <v>0</v>
       </c>
       <c r="I816" t="inlineStr"/>
-      <c r="J816" t="inlineStr"/>
-      <c r="K816" t="inlineStr"/>
+      <c r="J816" t="n">
+        <v>3.824</v>
+      </c>
+      <c r="K816" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L816" t="n">
         <v>1</v>
       </c>
@@ -27409,8 +27799,14 @@
         <v>0</v>
       </c>
       <c r="I817" t="inlineStr"/>
-      <c r="J817" t="inlineStr"/>
-      <c r="K817" t="inlineStr"/>
+      <c r="J817" t="n">
+        <v>3.824</v>
+      </c>
+      <c r="K817" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L817" t="n">
         <v>1</v>
       </c>
@@ -27442,8 +27838,14 @@
         <v>0</v>
       </c>
       <c r="I818" t="inlineStr"/>
-      <c r="J818" t="inlineStr"/>
-      <c r="K818" t="inlineStr"/>
+      <c r="J818" t="n">
+        <v>3.824</v>
+      </c>
+      <c r="K818" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L818" t="n">
         <v>1</v>
       </c>
@@ -27475,8 +27877,14 @@
         <v>0</v>
       </c>
       <c r="I819" t="inlineStr"/>
-      <c r="J819" t="inlineStr"/>
-      <c r="K819" t="inlineStr"/>
+      <c r="J819" t="n">
+        <v>3.824</v>
+      </c>
+      <c r="K819" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L819" t="n">
         <v>1</v>
       </c>
@@ -27508,8 +27916,14 @@
         <v>0</v>
       </c>
       <c r="I820" t="inlineStr"/>
-      <c r="J820" t="inlineStr"/>
-      <c r="K820" t="inlineStr"/>
+      <c r="J820" t="n">
+        <v>3.824</v>
+      </c>
+      <c r="K820" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L820" t="n">
         <v>1</v>
       </c>
@@ -27541,8 +27955,14 @@
         <v>0</v>
       </c>
       <c r="I821" t="inlineStr"/>
-      <c r="J821" t="inlineStr"/>
-      <c r="K821" t="inlineStr"/>
+      <c r="J821" t="n">
+        <v>3.824</v>
+      </c>
+      <c r="K821" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L821" t="n">
         <v>1</v>
       </c>
@@ -27574,8 +27994,14 @@
         <v>0</v>
       </c>
       <c r="I822" t="inlineStr"/>
-      <c r="J822" t="inlineStr"/>
-      <c r="K822" t="inlineStr"/>
+      <c r="J822" t="n">
+        <v>3.824</v>
+      </c>
+      <c r="K822" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L822" t="n">
         <v>1</v>
       </c>
@@ -27607,8 +28033,14 @@
         <v>0</v>
       </c>
       <c r="I823" t="inlineStr"/>
-      <c r="J823" t="inlineStr"/>
-      <c r="K823" t="inlineStr"/>
+      <c r="J823" t="n">
+        <v>3.824</v>
+      </c>
+      <c r="K823" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L823" t="n">
         <v>1</v>
       </c>
@@ -27640,8 +28072,14 @@
         <v>0</v>
       </c>
       <c r="I824" t="inlineStr"/>
-      <c r="J824" t="inlineStr"/>
-      <c r="K824" t="inlineStr"/>
+      <c r="J824" t="n">
+        <v>3.824</v>
+      </c>
+      <c r="K824" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L824" t="n">
         <v>1</v>
       </c>
@@ -27673,8 +28111,14 @@
         <v>0</v>
       </c>
       <c r="I825" t="inlineStr"/>
-      <c r="J825" t="inlineStr"/>
-      <c r="K825" t="inlineStr"/>
+      <c r="J825" t="n">
+        <v>3.824</v>
+      </c>
+      <c r="K825" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L825" t="n">
         <v>1</v>
       </c>
@@ -27706,8 +28150,14 @@
         <v>0</v>
       </c>
       <c r="I826" t="inlineStr"/>
-      <c r="J826" t="inlineStr"/>
-      <c r="K826" t="inlineStr"/>
+      <c r="J826" t="n">
+        <v>3.824</v>
+      </c>
+      <c r="K826" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L826" t="n">
         <v>1</v>
       </c>
@@ -27739,8 +28189,14 @@
         <v>0</v>
       </c>
       <c r="I827" t="inlineStr"/>
-      <c r="J827" t="inlineStr"/>
-      <c r="K827" t="inlineStr"/>
+      <c r="J827" t="n">
+        <v>3.824</v>
+      </c>
+      <c r="K827" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L827" t="n">
         <v>1</v>
       </c>
@@ -27772,8 +28228,14 @@
         <v>0</v>
       </c>
       <c r="I828" t="inlineStr"/>
-      <c r="J828" t="inlineStr"/>
-      <c r="K828" t="inlineStr"/>
+      <c r="J828" t="n">
+        <v>3.824</v>
+      </c>
+      <c r="K828" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L828" t="n">
         <v>1</v>
       </c>
@@ -27805,8 +28267,14 @@
         <v>0</v>
       </c>
       <c r="I829" t="inlineStr"/>
-      <c r="J829" t="inlineStr"/>
-      <c r="K829" t="inlineStr"/>
+      <c r="J829" t="n">
+        <v>3.824</v>
+      </c>
+      <c r="K829" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L829" t="n">
         <v>1</v>
       </c>
@@ -27838,8 +28306,14 @@
         <v>0</v>
       </c>
       <c r="I830" t="inlineStr"/>
-      <c r="J830" t="inlineStr"/>
-      <c r="K830" t="inlineStr"/>
+      <c r="J830" t="n">
+        <v>3.824</v>
+      </c>
+      <c r="K830" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L830" t="n">
         <v>1</v>
       </c>
@@ -27871,8 +28345,14 @@
         <v>0</v>
       </c>
       <c r="I831" t="inlineStr"/>
-      <c r="J831" t="inlineStr"/>
-      <c r="K831" t="inlineStr"/>
+      <c r="J831" t="n">
+        <v>3.824</v>
+      </c>
+      <c r="K831" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L831" t="n">
         <v>1</v>
       </c>
@@ -27904,8 +28384,14 @@
         <v>0</v>
       </c>
       <c r="I832" t="inlineStr"/>
-      <c r="J832" t="inlineStr"/>
-      <c r="K832" t="inlineStr"/>
+      <c r="J832" t="n">
+        <v>3.824</v>
+      </c>
+      <c r="K832" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L832" t="n">
         <v>1</v>
       </c>
@@ -27937,8 +28423,14 @@
         <v>0</v>
       </c>
       <c r="I833" t="inlineStr"/>
-      <c r="J833" t="inlineStr"/>
-      <c r="K833" t="inlineStr"/>
+      <c r="J833" t="n">
+        <v>3.824</v>
+      </c>
+      <c r="K833" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L833" t="n">
         <v>1</v>
       </c>
@@ -27970,8 +28462,14 @@
         <v>0</v>
       </c>
       <c r="I834" t="inlineStr"/>
-      <c r="J834" t="inlineStr"/>
-      <c r="K834" t="inlineStr"/>
+      <c r="J834" t="n">
+        <v>3.824</v>
+      </c>
+      <c r="K834" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L834" t="n">
         <v>1</v>
       </c>
@@ -28003,8 +28501,14 @@
         <v>0</v>
       </c>
       <c r="I835" t="inlineStr"/>
-      <c r="J835" t="inlineStr"/>
-      <c r="K835" t="inlineStr"/>
+      <c r="J835" t="n">
+        <v>3.824</v>
+      </c>
+      <c r="K835" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L835" t="n">
         <v>1</v>
       </c>
@@ -28036,8 +28540,14 @@
         <v>0</v>
       </c>
       <c r="I836" t="inlineStr"/>
-      <c r="J836" t="inlineStr"/>
-      <c r="K836" t="inlineStr"/>
+      <c r="J836" t="n">
+        <v>3.824</v>
+      </c>
+      <c r="K836" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L836" t="n">
         <v>1</v>
       </c>
@@ -28069,8 +28579,14 @@
         <v>0</v>
       </c>
       <c r="I837" t="inlineStr"/>
-      <c r="J837" t="inlineStr"/>
-      <c r="K837" t="inlineStr"/>
+      <c r="J837" t="n">
+        <v>3.824</v>
+      </c>
+      <c r="K837" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L837" t="n">
         <v>1</v>
       </c>
@@ -28102,8 +28618,14 @@
         <v>0</v>
       </c>
       <c r="I838" t="inlineStr"/>
-      <c r="J838" t="inlineStr"/>
-      <c r="K838" t="inlineStr"/>
+      <c r="J838" t="n">
+        <v>3.824</v>
+      </c>
+      <c r="K838" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L838" t="n">
         <v>1</v>
       </c>
@@ -28135,8 +28657,14 @@
         <v>0</v>
       </c>
       <c r="I839" t="inlineStr"/>
-      <c r="J839" t="inlineStr"/>
-      <c r="K839" t="inlineStr"/>
+      <c r="J839" t="n">
+        <v>3.824</v>
+      </c>
+      <c r="K839" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L839" t="n">
         <v>1</v>
       </c>
@@ -28168,8 +28696,14 @@
         <v>0</v>
       </c>
       <c r="I840" t="inlineStr"/>
-      <c r="J840" t="inlineStr"/>
-      <c r="K840" t="inlineStr"/>
+      <c r="J840" t="n">
+        <v>3.824</v>
+      </c>
+      <c r="K840" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L840" t="n">
         <v>1</v>
       </c>
@@ -28201,8 +28735,14 @@
         <v>0</v>
       </c>
       <c r="I841" t="inlineStr"/>
-      <c r="J841" t="inlineStr"/>
-      <c r="K841" t="inlineStr"/>
+      <c r="J841" t="n">
+        <v>3.824</v>
+      </c>
+      <c r="K841" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L841" t="n">
         <v>1</v>
       </c>
@@ -28234,8 +28774,14 @@
         <v>0</v>
       </c>
       <c r="I842" t="inlineStr"/>
-      <c r="J842" t="inlineStr"/>
-      <c r="K842" t="inlineStr"/>
+      <c r="J842" t="n">
+        <v>3.824</v>
+      </c>
+      <c r="K842" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L842" t="n">
         <v>1</v>
       </c>
@@ -28267,8 +28813,14 @@
         <v>0</v>
       </c>
       <c r="I843" t="inlineStr"/>
-      <c r="J843" t="inlineStr"/>
-      <c r="K843" t="inlineStr"/>
+      <c r="J843" t="n">
+        <v>3.824</v>
+      </c>
+      <c r="K843" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L843" t="n">
         <v>1</v>
       </c>
@@ -28300,8 +28852,14 @@
         <v>0</v>
       </c>
       <c r="I844" t="inlineStr"/>
-      <c r="J844" t="inlineStr"/>
-      <c r="K844" t="inlineStr"/>
+      <c r="J844" t="n">
+        <v>3.824</v>
+      </c>
+      <c r="K844" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L844" t="n">
         <v>1</v>
       </c>
@@ -28333,8 +28891,14 @@
         <v>0</v>
       </c>
       <c r="I845" t="inlineStr"/>
-      <c r="J845" t="inlineStr"/>
-      <c r="K845" t="inlineStr"/>
+      <c r="J845" t="n">
+        <v>3.824</v>
+      </c>
+      <c r="K845" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L845" t="n">
         <v>1</v>
       </c>
@@ -28366,8 +28930,14 @@
         <v>0</v>
       </c>
       <c r="I846" t="inlineStr"/>
-      <c r="J846" t="inlineStr"/>
-      <c r="K846" t="inlineStr"/>
+      <c r="J846" t="n">
+        <v>3.824</v>
+      </c>
+      <c r="K846" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L846" t="n">
         <v>1</v>
       </c>
@@ -28399,8 +28969,14 @@
         <v>0</v>
       </c>
       <c r="I847" t="inlineStr"/>
-      <c r="J847" t="inlineStr"/>
-      <c r="K847" t="inlineStr"/>
+      <c r="J847" t="n">
+        <v>3.824</v>
+      </c>
+      <c r="K847" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L847" t="n">
         <v>1</v>
       </c>
@@ -28432,8 +29008,14 @@
         <v>0</v>
       </c>
       <c r="I848" t="inlineStr"/>
-      <c r="J848" t="inlineStr"/>
-      <c r="K848" t="inlineStr"/>
+      <c r="J848" t="n">
+        <v>3.824</v>
+      </c>
+      <c r="K848" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L848" t="n">
         <v>1</v>
       </c>
@@ -28465,8 +29047,14 @@
         <v>0</v>
       </c>
       <c r="I849" t="inlineStr"/>
-      <c r="J849" t="inlineStr"/>
-      <c r="K849" t="inlineStr"/>
+      <c r="J849" t="n">
+        <v>3.824</v>
+      </c>
+      <c r="K849" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L849" t="n">
         <v>1</v>
       </c>
@@ -28498,8 +29086,14 @@
         <v>0</v>
       </c>
       <c r="I850" t="inlineStr"/>
-      <c r="J850" t="inlineStr"/>
-      <c r="K850" t="inlineStr"/>
+      <c r="J850" t="n">
+        <v>3.824</v>
+      </c>
+      <c r="K850" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L850" t="n">
         <v>1</v>
       </c>
@@ -28531,8 +29125,14 @@
         <v>0</v>
       </c>
       <c r="I851" t="inlineStr"/>
-      <c r="J851" t="inlineStr"/>
-      <c r="K851" t="inlineStr"/>
+      <c r="J851" t="n">
+        <v>3.824</v>
+      </c>
+      <c r="K851" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L851" t="n">
         <v>1</v>
       </c>
@@ -28564,8 +29164,14 @@
         <v>0</v>
       </c>
       <c r="I852" t="inlineStr"/>
-      <c r="J852" t="inlineStr"/>
-      <c r="K852" t="inlineStr"/>
+      <c r="J852" t="n">
+        <v>3.824</v>
+      </c>
+      <c r="K852" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L852" t="n">
         <v>1</v>
       </c>
@@ -28597,8 +29203,14 @@
         <v>0</v>
       </c>
       <c r="I853" t="inlineStr"/>
-      <c r="J853" t="inlineStr"/>
-      <c r="K853" t="inlineStr"/>
+      <c r="J853" t="n">
+        <v>3.824</v>
+      </c>
+      <c r="K853" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L853" t="n">
         <v>1</v>
       </c>
@@ -28630,8 +29242,14 @@
         <v>0</v>
       </c>
       <c r="I854" t="inlineStr"/>
-      <c r="J854" t="inlineStr"/>
-      <c r="K854" t="inlineStr"/>
+      <c r="J854" t="n">
+        <v>3.824</v>
+      </c>
+      <c r="K854" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L854" t="n">
         <v>1</v>
       </c>
@@ -28663,8 +29281,14 @@
         <v>0</v>
       </c>
       <c r="I855" t="inlineStr"/>
-      <c r="J855" t="inlineStr"/>
-      <c r="K855" t="inlineStr"/>
+      <c r="J855" t="n">
+        <v>3.824</v>
+      </c>
+      <c r="K855" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L855" t="n">
         <v>1</v>
       </c>
@@ -28696,8 +29320,14 @@
         <v>0</v>
       </c>
       <c r="I856" t="inlineStr"/>
-      <c r="J856" t="inlineStr"/>
-      <c r="K856" t="inlineStr"/>
+      <c r="J856" t="n">
+        <v>3.824</v>
+      </c>
+      <c r="K856" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L856" t="n">
         <v>1</v>
       </c>
@@ -28729,8 +29359,14 @@
         <v>0</v>
       </c>
       <c r="I857" t="inlineStr"/>
-      <c r="J857" t="inlineStr"/>
-      <c r="K857" t="inlineStr"/>
+      <c r="J857" t="n">
+        <v>3.824</v>
+      </c>
+      <c r="K857" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L857" t="n">
         <v>1</v>
       </c>
@@ -28762,8 +29398,14 @@
         <v>0</v>
       </c>
       <c r="I858" t="inlineStr"/>
-      <c r="J858" t="inlineStr"/>
-      <c r="K858" t="inlineStr"/>
+      <c r="J858" t="n">
+        <v>3.824</v>
+      </c>
+      <c r="K858" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L858" t="n">
         <v>1</v>
       </c>
@@ -28795,8 +29437,14 @@
         <v>0</v>
       </c>
       <c r="I859" t="inlineStr"/>
-      <c r="J859" t="inlineStr"/>
-      <c r="K859" t="inlineStr"/>
+      <c r="J859" t="n">
+        <v>3.824</v>
+      </c>
+      <c r="K859" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L859" t="n">
         <v>1</v>
       </c>
@@ -28828,8 +29476,14 @@
         <v>0</v>
       </c>
       <c r="I860" t="inlineStr"/>
-      <c r="J860" t="inlineStr"/>
-      <c r="K860" t="inlineStr"/>
+      <c r="J860" t="n">
+        <v>3.824</v>
+      </c>
+      <c r="K860" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L860" t="n">
         <v>1</v>
       </c>
@@ -28861,8 +29515,14 @@
         <v>0</v>
       </c>
       <c r="I861" t="inlineStr"/>
-      <c r="J861" t="inlineStr"/>
-      <c r="K861" t="inlineStr"/>
+      <c r="J861" t="n">
+        <v>3.824</v>
+      </c>
+      <c r="K861" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L861" t="n">
         <v>1</v>
       </c>
@@ -28894,8 +29554,14 @@
         <v>0</v>
       </c>
       <c r="I862" t="inlineStr"/>
-      <c r="J862" t="inlineStr"/>
-      <c r="K862" t="inlineStr"/>
+      <c r="J862" t="n">
+        <v>3.824</v>
+      </c>
+      <c r="K862" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L862" t="n">
         <v>1</v>
       </c>
@@ -28927,8 +29593,14 @@
         <v>0</v>
       </c>
       <c r="I863" t="inlineStr"/>
-      <c r="J863" t="inlineStr"/>
-      <c r="K863" t="inlineStr"/>
+      <c r="J863" t="n">
+        <v>3.824</v>
+      </c>
+      <c r="K863" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L863" t="n">
         <v>1</v>
       </c>
@@ -28960,8 +29632,14 @@
         <v>0</v>
       </c>
       <c r="I864" t="inlineStr"/>
-      <c r="J864" t="inlineStr"/>
-      <c r="K864" t="inlineStr"/>
+      <c r="J864" t="n">
+        <v>3.824</v>
+      </c>
+      <c r="K864" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L864" t="n">
         <v>1</v>
       </c>
@@ -28993,8 +29671,14 @@
         <v>0</v>
       </c>
       <c r="I865" t="inlineStr"/>
-      <c r="J865" t="inlineStr"/>
-      <c r="K865" t="inlineStr"/>
+      <c r="J865" t="n">
+        <v>3.824</v>
+      </c>
+      <c r="K865" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L865" t="n">
         <v>1</v>
       </c>
@@ -29026,8 +29710,14 @@
         <v>0</v>
       </c>
       <c r="I866" t="inlineStr"/>
-      <c r="J866" t="inlineStr"/>
-      <c r="K866" t="inlineStr"/>
+      <c r="J866" t="n">
+        <v>3.824</v>
+      </c>
+      <c r="K866" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L866" t="n">
         <v>1</v>
       </c>
@@ -29059,8 +29749,14 @@
         <v>0</v>
       </c>
       <c r="I867" t="inlineStr"/>
-      <c r="J867" t="inlineStr"/>
-      <c r="K867" t="inlineStr"/>
+      <c r="J867" t="n">
+        <v>3.824</v>
+      </c>
+      <c r="K867" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L867" t="n">
         <v>1</v>
       </c>
@@ -29092,8 +29788,14 @@
         <v>0</v>
       </c>
       <c r="I868" t="inlineStr"/>
-      <c r="J868" t="inlineStr"/>
-      <c r="K868" t="inlineStr"/>
+      <c r="J868" t="n">
+        <v>3.824</v>
+      </c>
+      <c r="K868" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L868" t="n">
         <v>1</v>
       </c>
@@ -29125,8 +29827,14 @@
         <v>0</v>
       </c>
       <c r="I869" t="inlineStr"/>
-      <c r="J869" t="inlineStr"/>
-      <c r="K869" t="inlineStr"/>
+      <c r="J869" t="n">
+        <v>3.824</v>
+      </c>
+      <c r="K869" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L869" t="n">
         <v>1</v>
       </c>
@@ -29158,8 +29866,14 @@
         <v>0</v>
       </c>
       <c r="I870" t="inlineStr"/>
-      <c r="J870" t="inlineStr"/>
-      <c r="K870" t="inlineStr"/>
+      <c r="J870" t="n">
+        <v>3.824</v>
+      </c>
+      <c r="K870" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L870" t="n">
         <v>1</v>
       </c>
@@ -29191,8 +29905,14 @@
         <v>0</v>
       </c>
       <c r="I871" t="inlineStr"/>
-      <c r="J871" t="inlineStr"/>
-      <c r="K871" t="inlineStr"/>
+      <c r="J871" t="n">
+        <v>3.824</v>
+      </c>
+      <c r="K871" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L871" t="n">
         <v>1</v>
       </c>
@@ -29224,8 +29944,14 @@
         <v>0</v>
       </c>
       <c r="I872" t="inlineStr"/>
-      <c r="J872" t="inlineStr"/>
-      <c r="K872" t="inlineStr"/>
+      <c r="J872" t="n">
+        <v>3.824</v>
+      </c>
+      <c r="K872" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L872" t="n">
         <v>1</v>
       </c>
@@ -29257,8 +29983,14 @@
         <v>0</v>
       </c>
       <c r="I873" t="inlineStr"/>
-      <c r="J873" t="inlineStr"/>
-      <c r="K873" t="inlineStr"/>
+      <c r="J873" t="n">
+        <v>3.824</v>
+      </c>
+      <c r="K873" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L873" t="n">
         <v>1</v>
       </c>
@@ -29290,8 +30022,14 @@
         <v>0</v>
       </c>
       <c r="I874" t="inlineStr"/>
-      <c r="J874" t="inlineStr"/>
-      <c r="K874" t="inlineStr"/>
+      <c r="J874" t="n">
+        <v>3.824</v>
+      </c>
+      <c r="K874" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L874" t="n">
         <v>1</v>
       </c>
@@ -29323,8 +30061,14 @@
         <v>0</v>
       </c>
       <c r="I875" t="inlineStr"/>
-      <c r="J875" t="inlineStr"/>
-      <c r="K875" t="inlineStr"/>
+      <c r="J875" t="n">
+        <v>3.824</v>
+      </c>
+      <c r="K875" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L875" t="n">
         <v>1</v>
       </c>
@@ -29356,8 +30100,14 @@
         <v>0</v>
       </c>
       <c r="I876" t="inlineStr"/>
-      <c r="J876" t="inlineStr"/>
-      <c r="K876" t="inlineStr"/>
+      <c r="J876" t="n">
+        <v>3.824</v>
+      </c>
+      <c r="K876" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L876" t="n">
         <v>1</v>
       </c>
@@ -29389,8 +30139,14 @@
         <v>0</v>
       </c>
       <c r="I877" t="inlineStr"/>
-      <c r="J877" t="inlineStr"/>
-      <c r="K877" t="inlineStr"/>
+      <c r="J877" t="n">
+        <v>3.824</v>
+      </c>
+      <c r="K877" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L877" t="n">
         <v>1</v>
       </c>
@@ -29422,8 +30178,14 @@
         <v>0</v>
       </c>
       <c r="I878" t="inlineStr"/>
-      <c r="J878" t="inlineStr"/>
-      <c r="K878" t="inlineStr"/>
+      <c r="J878" t="n">
+        <v>3.824</v>
+      </c>
+      <c r="K878" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L878" t="n">
         <v>1</v>
       </c>
@@ -29455,8 +30217,14 @@
         <v>0</v>
       </c>
       <c r="I879" t="inlineStr"/>
-      <c r="J879" t="inlineStr"/>
-      <c r="K879" t="inlineStr"/>
+      <c r="J879" t="n">
+        <v>3.824</v>
+      </c>
+      <c r="K879" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L879" t="n">
         <v>1</v>
       </c>
@@ -29488,8 +30256,14 @@
         <v>0</v>
       </c>
       <c r="I880" t="inlineStr"/>
-      <c r="J880" t="inlineStr"/>
-      <c r="K880" t="inlineStr"/>
+      <c r="J880" t="n">
+        <v>3.824</v>
+      </c>
+      <c r="K880" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L880" t="n">
         <v>1</v>
       </c>
@@ -29521,8 +30295,14 @@
         <v>0</v>
       </c>
       <c r="I881" t="inlineStr"/>
-      <c r="J881" t="inlineStr"/>
-      <c r="K881" t="inlineStr"/>
+      <c r="J881" t="n">
+        <v>3.824</v>
+      </c>
+      <c r="K881" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L881" t="n">
         <v>1</v>
       </c>
@@ -29554,8 +30334,14 @@
         <v>0</v>
       </c>
       <c r="I882" t="inlineStr"/>
-      <c r="J882" t="inlineStr"/>
-      <c r="K882" t="inlineStr"/>
+      <c r="J882" t="n">
+        <v>3.824</v>
+      </c>
+      <c r="K882" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L882" t="n">
         <v>1</v>
       </c>
@@ -29587,8 +30373,14 @@
         <v>0</v>
       </c>
       <c r="I883" t="inlineStr"/>
-      <c r="J883" t="inlineStr"/>
-      <c r="K883" t="inlineStr"/>
+      <c r="J883" t="n">
+        <v>3.824</v>
+      </c>
+      <c r="K883" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L883" t="n">
         <v>1</v>
       </c>
@@ -29620,8 +30412,14 @@
         <v>0</v>
       </c>
       <c r="I884" t="inlineStr"/>
-      <c r="J884" t="inlineStr"/>
-      <c r="K884" t="inlineStr"/>
+      <c r="J884" t="n">
+        <v>3.824</v>
+      </c>
+      <c r="K884" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L884" t="n">
         <v>1</v>
       </c>
@@ -29653,8 +30451,14 @@
         <v>0</v>
       </c>
       <c r="I885" t="inlineStr"/>
-      <c r="J885" t="inlineStr"/>
-      <c r="K885" t="inlineStr"/>
+      <c r="J885" t="n">
+        <v>3.824</v>
+      </c>
+      <c r="K885" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L885" t="n">
         <v>1</v>
       </c>
@@ -29686,8 +30490,14 @@
         <v>0</v>
       </c>
       <c r="I886" t="inlineStr"/>
-      <c r="J886" t="inlineStr"/>
-      <c r="K886" t="inlineStr"/>
+      <c r="J886" t="n">
+        <v>3.824</v>
+      </c>
+      <c r="K886" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L886" t="n">
         <v>1</v>
       </c>
@@ -29719,8 +30529,14 @@
         <v>0</v>
       </c>
       <c r="I887" t="inlineStr"/>
-      <c r="J887" t="inlineStr"/>
-      <c r="K887" t="inlineStr"/>
+      <c r="J887" t="n">
+        <v>3.824</v>
+      </c>
+      <c r="K887" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L887" t="n">
         <v>1</v>
       </c>
@@ -29752,8 +30568,14 @@
         <v>0</v>
       </c>
       <c r="I888" t="inlineStr"/>
-      <c r="J888" t="inlineStr"/>
-      <c r="K888" t="inlineStr"/>
+      <c r="J888" t="n">
+        <v>3.824</v>
+      </c>
+      <c r="K888" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L888" t="n">
         <v>1</v>
       </c>
@@ -29785,8 +30607,14 @@
         <v>0</v>
       </c>
       <c r="I889" t="inlineStr"/>
-      <c r="J889" t="inlineStr"/>
-      <c r="K889" t="inlineStr"/>
+      <c r="J889" t="n">
+        <v>3.824</v>
+      </c>
+      <c r="K889" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L889" t="n">
         <v>1</v>
       </c>
@@ -29818,8 +30646,14 @@
         <v>0</v>
       </c>
       <c r="I890" t="inlineStr"/>
-      <c r="J890" t="inlineStr"/>
-      <c r="K890" t="inlineStr"/>
+      <c r="J890" t="n">
+        <v>3.824</v>
+      </c>
+      <c r="K890" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L890" t="n">
         <v>1</v>
       </c>
@@ -29851,8 +30685,14 @@
         <v>0</v>
       </c>
       <c r="I891" t="inlineStr"/>
-      <c r="J891" t="inlineStr"/>
-      <c r="K891" t="inlineStr"/>
+      <c r="J891" t="n">
+        <v>3.824</v>
+      </c>
+      <c r="K891" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L891" t="n">
         <v>1</v>
       </c>
@@ -29884,8 +30724,14 @@
         <v>0</v>
       </c>
       <c r="I892" t="inlineStr"/>
-      <c r="J892" t="inlineStr"/>
-      <c r="K892" t="inlineStr"/>
+      <c r="J892" t="n">
+        <v>3.824</v>
+      </c>
+      <c r="K892" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L892" t="n">
         <v>1</v>
       </c>
@@ -29917,8 +30763,14 @@
         <v>0</v>
       </c>
       <c r="I893" t="inlineStr"/>
-      <c r="J893" t="inlineStr"/>
-      <c r="K893" t="inlineStr"/>
+      <c r="J893" t="n">
+        <v>3.824</v>
+      </c>
+      <c r="K893" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L893" t="n">
         <v>1</v>
       </c>
@@ -29950,8 +30802,14 @@
         <v>0</v>
       </c>
       <c r="I894" t="inlineStr"/>
-      <c r="J894" t="inlineStr"/>
-      <c r="K894" t="inlineStr"/>
+      <c r="J894" t="n">
+        <v>3.824</v>
+      </c>
+      <c r="K894" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L894" t="n">
         <v>1</v>
       </c>
@@ -29983,8 +30841,14 @@
         <v>0</v>
       </c>
       <c r="I895" t="inlineStr"/>
-      <c r="J895" t="inlineStr"/>
-      <c r="K895" t="inlineStr"/>
+      <c r="J895" t="n">
+        <v>3.824</v>
+      </c>
+      <c r="K895" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L895" t="n">
         <v>1</v>
       </c>
@@ -30016,8 +30880,14 @@
         <v>0</v>
       </c>
       <c r="I896" t="inlineStr"/>
-      <c r="J896" t="inlineStr"/>
-      <c r="K896" t="inlineStr"/>
+      <c r="J896" t="n">
+        <v>3.824</v>
+      </c>
+      <c r="K896" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L896" t="n">
         <v>1</v>
       </c>
@@ -30049,8 +30919,14 @@
         <v>0</v>
       </c>
       <c r="I897" t="inlineStr"/>
-      <c r="J897" t="inlineStr"/>
-      <c r="K897" t="inlineStr"/>
+      <c r="J897" t="n">
+        <v>3.824</v>
+      </c>
+      <c r="K897" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L897" t="n">
         <v>1</v>
       </c>
@@ -30082,8 +30958,14 @@
         <v>0</v>
       </c>
       <c r="I898" t="inlineStr"/>
-      <c r="J898" t="inlineStr"/>
-      <c r="K898" t="inlineStr"/>
+      <c r="J898" t="n">
+        <v>3.824</v>
+      </c>
+      <c r="K898" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L898" t="n">
         <v>1</v>
       </c>
@@ -30115,8 +30997,14 @@
         <v>0</v>
       </c>
       <c r="I899" t="inlineStr"/>
-      <c r="J899" t="inlineStr"/>
-      <c r="K899" t="inlineStr"/>
+      <c r="J899" t="n">
+        <v>3.824</v>
+      </c>
+      <c r="K899" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L899" t="n">
         <v>1</v>
       </c>
@@ -30148,8 +31036,14 @@
         <v>0</v>
       </c>
       <c r="I900" t="inlineStr"/>
-      <c r="J900" t="inlineStr"/>
-      <c r="K900" t="inlineStr"/>
+      <c r="J900" t="n">
+        <v>3.824</v>
+      </c>
+      <c r="K900" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L900" t="n">
         <v>1</v>
       </c>
@@ -30181,8 +31075,14 @@
         <v>0</v>
       </c>
       <c r="I901" t="inlineStr"/>
-      <c r="J901" t="inlineStr"/>
-      <c r="K901" t="inlineStr"/>
+      <c r="J901" t="n">
+        <v>3.824</v>
+      </c>
+      <c r="K901" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L901" t="n">
         <v>1</v>
       </c>
@@ -30214,8 +31114,14 @@
         <v>0</v>
       </c>
       <c r="I902" t="inlineStr"/>
-      <c r="J902" t="inlineStr"/>
-      <c r="K902" t="inlineStr"/>
+      <c r="J902" t="n">
+        <v>3.824</v>
+      </c>
+      <c r="K902" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L902" t="n">
         <v>1</v>
       </c>
@@ -30247,8 +31153,14 @@
         <v>0</v>
       </c>
       <c r="I903" t="inlineStr"/>
-      <c r="J903" t="inlineStr"/>
-      <c r="K903" t="inlineStr"/>
+      <c r="J903" t="n">
+        <v>3.824</v>
+      </c>
+      <c r="K903" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L903" t="n">
         <v>1</v>
       </c>
@@ -30280,8 +31192,14 @@
         <v>0</v>
       </c>
       <c r="I904" t="inlineStr"/>
-      <c r="J904" t="inlineStr"/>
-      <c r="K904" t="inlineStr"/>
+      <c r="J904" t="n">
+        <v>3.824</v>
+      </c>
+      <c r="K904" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L904" t="n">
         <v>1</v>
       </c>
@@ -30313,8 +31231,14 @@
         <v>0</v>
       </c>
       <c r="I905" t="inlineStr"/>
-      <c r="J905" t="inlineStr"/>
-      <c r="K905" t="inlineStr"/>
+      <c r="J905" t="n">
+        <v>3.824</v>
+      </c>
+      <c r="K905" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L905" t="n">
         <v>1</v>
       </c>
@@ -30346,8 +31270,14 @@
         <v>0</v>
       </c>
       <c r="I906" t="inlineStr"/>
-      <c r="J906" t="inlineStr"/>
-      <c r="K906" t="inlineStr"/>
+      <c r="J906" t="n">
+        <v>3.824</v>
+      </c>
+      <c r="K906" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L906" t="n">
         <v>1</v>
       </c>
@@ -30379,8 +31309,14 @@
         <v>0</v>
       </c>
       <c r="I907" t="inlineStr"/>
-      <c r="J907" t="inlineStr"/>
-      <c r="K907" t="inlineStr"/>
+      <c r="J907" t="n">
+        <v>3.824</v>
+      </c>
+      <c r="K907" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L907" t="n">
         <v>1</v>
       </c>
@@ -30412,8 +31348,14 @@
         <v>0</v>
       </c>
       <c r="I908" t="inlineStr"/>
-      <c r="J908" t="inlineStr"/>
-      <c r="K908" t="inlineStr"/>
+      <c r="J908" t="n">
+        <v>3.824</v>
+      </c>
+      <c r="K908" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L908" t="n">
         <v>1</v>
       </c>
@@ -30445,8 +31387,14 @@
         <v>0</v>
       </c>
       <c r="I909" t="inlineStr"/>
-      <c r="J909" t="inlineStr"/>
-      <c r="K909" t="inlineStr"/>
+      <c r="J909" t="n">
+        <v>3.824</v>
+      </c>
+      <c r="K909" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L909" t="n">
         <v>1</v>
       </c>
@@ -30478,8 +31426,14 @@
         <v>0</v>
       </c>
       <c r="I910" t="inlineStr"/>
-      <c r="J910" t="inlineStr"/>
-      <c r="K910" t="inlineStr"/>
+      <c r="J910" t="n">
+        <v>3.824</v>
+      </c>
+      <c r="K910" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L910" t="n">
         <v>1</v>
       </c>
@@ -30511,8 +31465,14 @@
         <v>0</v>
       </c>
       <c r="I911" t="inlineStr"/>
-      <c r="J911" t="inlineStr"/>
-      <c r="K911" t="inlineStr"/>
+      <c r="J911" t="n">
+        <v>3.824</v>
+      </c>
+      <c r="K911" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L911" t="n">
         <v>1</v>
       </c>
@@ -30544,8 +31504,14 @@
         <v>0</v>
       </c>
       <c r="I912" t="inlineStr"/>
-      <c r="J912" t="inlineStr"/>
-      <c r="K912" t="inlineStr"/>
+      <c r="J912" t="n">
+        <v>3.824</v>
+      </c>
+      <c r="K912" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L912" t="n">
         <v>1</v>
       </c>
@@ -30577,8 +31543,14 @@
         <v>0</v>
       </c>
       <c r="I913" t="inlineStr"/>
-      <c r="J913" t="inlineStr"/>
-      <c r="K913" t="inlineStr"/>
+      <c r="J913" t="n">
+        <v>3.824</v>
+      </c>
+      <c r="K913" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L913" t="n">
         <v>1</v>
       </c>
@@ -30610,8 +31582,14 @@
         <v>0</v>
       </c>
       <c r="I914" t="inlineStr"/>
-      <c r="J914" t="inlineStr"/>
-      <c r="K914" t="inlineStr"/>
+      <c r="J914" t="n">
+        <v>3.824</v>
+      </c>
+      <c r="K914" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L914" t="n">
         <v>1</v>
       </c>
@@ -30643,8 +31621,14 @@
         <v>0</v>
       </c>
       <c r="I915" t="inlineStr"/>
-      <c r="J915" t="inlineStr"/>
-      <c r="K915" t="inlineStr"/>
+      <c r="J915" t="n">
+        <v>3.824</v>
+      </c>
+      <c r="K915" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L915" t="n">
         <v>1</v>
       </c>
@@ -30676,8 +31660,14 @@
         <v>0</v>
       </c>
       <c r="I916" t="inlineStr"/>
-      <c r="J916" t="inlineStr"/>
-      <c r="K916" t="inlineStr"/>
+      <c r="J916" t="n">
+        <v>3.824</v>
+      </c>
+      <c r="K916" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L916" t="n">
         <v>1</v>
       </c>
@@ -30709,8 +31699,14 @@
         <v>0</v>
       </c>
       <c r="I917" t="inlineStr"/>
-      <c r="J917" t="inlineStr"/>
-      <c r="K917" t="inlineStr"/>
+      <c r="J917" t="n">
+        <v>3.824</v>
+      </c>
+      <c r="K917" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L917" t="n">
         <v>1</v>
       </c>
@@ -30742,8 +31738,14 @@
         <v>0</v>
       </c>
       <c r="I918" t="inlineStr"/>
-      <c r="J918" t="inlineStr"/>
-      <c r="K918" t="inlineStr"/>
+      <c r="J918" t="n">
+        <v>3.824</v>
+      </c>
+      <c r="K918" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L918" t="n">
         <v>1</v>
       </c>
@@ -30775,8 +31777,14 @@
         <v>0</v>
       </c>
       <c r="I919" t="inlineStr"/>
-      <c r="J919" t="inlineStr"/>
-      <c r="K919" t="inlineStr"/>
+      <c r="J919" t="n">
+        <v>3.824</v>
+      </c>
+      <c r="K919" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L919" t="n">
         <v>1</v>
       </c>
@@ -30808,8 +31816,14 @@
         <v>0</v>
       </c>
       <c r="I920" t="inlineStr"/>
-      <c r="J920" t="inlineStr"/>
-      <c r="K920" t="inlineStr"/>
+      <c r="J920" t="n">
+        <v>3.824</v>
+      </c>
+      <c r="K920" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L920" t="n">
         <v>1</v>
       </c>
@@ -30841,8 +31855,14 @@
         <v>0</v>
       </c>
       <c r="I921" t="inlineStr"/>
-      <c r="J921" t="inlineStr"/>
-      <c r="K921" t="inlineStr"/>
+      <c r="J921" t="n">
+        <v>3.824</v>
+      </c>
+      <c r="K921" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L921" t="n">
         <v>1</v>
       </c>
@@ -30874,8 +31894,14 @@
         <v>0</v>
       </c>
       <c r="I922" t="inlineStr"/>
-      <c r="J922" t="inlineStr"/>
-      <c r="K922" t="inlineStr"/>
+      <c r="J922" t="n">
+        <v>3.824</v>
+      </c>
+      <c r="K922" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L922" t="n">
         <v>1</v>
       </c>
@@ -30907,8 +31933,14 @@
         <v>0</v>
       </c>
       <c r="I923" t="inlineStr"/>
-      <c r="J923" t="inlineStr"/>
-      <c r="K923" t="inlineStr"/>
+      <c r="J923" t="n">
+        <v>3.824</v>
+      </c>
+      <c r="K923" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L923" t="n">
         <v>1</v>
       </c>
@@ -30940,8 +31972,14 @@
         <v>0</v>
       </c>
       <c r="I924" t="inlineStr"/>
-      <c r="J924" t="inlineStr"/>
-      <c r="K924" t="inlineStr"/>
+      <c r="J924" t="n">
+        <v>3.824</v>
+      </c>
+      <c r="K924" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L924" t="n">
         <v>1</v>
       </c>
@@ -30973,8 +32011,14 @@
         <v>0</v>
       </c>
       <c r="I925" t="inlineStr"/>
-      <c r="J925" t="inlineStr"/>
-      <c r="K925" t="inlineStr"/>
+      <c r="J925" t="n">
+        <v>3.824</v>
+      </c>
+      <c r="K925" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L925" t="n">
         <v>1</v>
       </c>
@@ -31006,8 +32050,14 @@
         <v>0</v>
       </c>
       <c r="I926" t="inlineStr"/>
-      <c r="J926" t="inlineStr"/>
-      <c r="K926" t="inlineStr"/>
+      <c r="J926" t="n">
+        <v>3.824</v>
+      </c>
+      <c r="K926" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L926" t="n">
         <v>1</v>
       </c>
@@ -31039,8 +32089,14 @@
         <v>0</v>
       </c>
       <c r="I927" t="inlineStr"/>
-      <c r="J927" t="inlineStr"/>
-      <c r="K927" t="inlineStr"/>
+      <c r="J927" t="n">
+        <v>3.824</v>
+      </c>
+      <c r="K927" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L927" t="n">
         <v>1</v>
       </c>
@@ -31072,8 +32128,14 @@
         <v>0</v>
       </c>
       <c r="I928" t="inlineStr"/>
-      <c r="J928" t="inlineStr"/>
-      <c r="K928" t="inlineStr"/>
+      <c r="J928" t="n">
+        <v>3.824</v>
+      </c>
+      <c r="K928" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L928" t="n">
         <v>1</v>
       </c>
@@ -31105,8 +32167,14 @@
         <v>0</v>
       </c>
       <c r="I929" t="inlineStr"/>
-      <c r="J929" t="inlineStr"/>
-      <c r="K929" t="inlineStr"/>
+      <c r="J929" t="n">
+        <v>3.824</v>
+      </c>
+      <c r="K929" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L929" t="n">
         <v>1</v>
       </c>
@@ -31138,8 +32206,14 @@
         <v>0</v>
       </c>
       <c r="I930" t="inlineStr"/>
-      <c r="J930" t="inlineStr"/>
-      <c r="K930" t="inlineStr"/>
+      <c r="J930" t="n">
+        <v>3.824</v>
+      </c>
+      <c r="K930" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L930" t="n">
         <v>1</v>
       </c>
@@ -31171,8 +32245,14 @@
         <v>0</v>
       </c>
       <c r="I931" t="inlineStr"/>
-      <c r="J931" t="inlineStr"/>
-      <c r="K931" t="inlineStr"/>
+      <c r="J931" t="n">
+        <v>3.824</v>
+      </c>
+      <c r="K931" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L931" t="n">
         <v>1</v>
       </c>
@@ -31204,8 +32284,14 @@
         <v>0</v>
       </c>
       <c r="I932" t="inlineStr"/>
-      <c r="J932" t="inlineStr"/>
-      <c r="K932" t="inlineStr"/>
+      <c r="J932" t="n">
+        <v>3.824</v>
+      </c>
+      <c r="K932" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L932" t="n">
         <v>1</v>
       </c>
@@ -31237,8 +32323,14 @@
         <v>0</v>
       </c>
       <c r="I933" t="inlineStr"/>
-      <c r="J933" t="inlineStr"/>
-      <c r="K933" t="inlineStr"/>
+      <c r="J933" t="n">
+        <v>3.824</v>
+      </c>
+      <c r="K933" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L933" t="n">
         <v>1</v>
       </c>
@@ -31270,8 +32362,14 @@
         <v>0</v>
       </c>
       <c r="I934" t="inlineStr"/>
-      <c r="J934" t="inlineStr"/>
-      <c r="K934" t="inlineStr"/>
+      <c r="J934" t="n">
+        <v>3.824</v>
+      </c>
+      <c r="K934" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L934" t="n">
         <v>1</v>
       </c>
@@ -31303,8 +32401,14 @@
         <v>0</v>
       </c>
       <c r="I935" t="inlineStr"/>
-      <c r="J935" t="inlineStr"/>
-      <c r="K935" t="inlineStr"/>
+      <c r="J935" t="n">
+        <v>3.824</v>
+      </c>
+      <c r="K935" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L935" t="n">
         <v>1</v>
       </c>
@@ -31336,8 +32440,14 @@
         <v>0</v>
       </c>
       <c r="I936" t="inlineStr"/>
-      <c r="J936" t="inlineStr"/>
-      <c r="K936" t="inlineStr"/>
+      <c r="J936" t="n">
+        <v>3.824</v>
+      </c>
+      <c r="K936" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L936" t="n">
         <v>1</v>
       </c>
@@ -31369,8 +32479,14 @@
         <v>0</v>
       </c>
       <c r="I937" t="inlineStr"/>
-      <c r="J937" t="inlineStr"/>
-      <c r="K937" t="inlineStr"/>
+      <c r="J937" t="n">
+        <v>3.824</v>
+      </c>
+      <c r="K937" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L937" t="n">
         <v>1</v>
       </c>
@@ -31402,8 +32518,14 @@
         <v>0</v>
       </c>
       <c r="I938" t="inlineStr"/>
-      <c r="J938" t="inlineStr"/>
-      <c r="K938" t="inlineStr"/>
+      <c r="J938" t="n">
+        <v>3.824</v>
+      </c>
+      <c r="K938" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L938" t="n">
         <v>1</v>
       </c>
@@ -31435,8 +32557,14 @@
         <v>0</v>
       </c>
       <c r="I939" t="inlineStr"/>
-      <c r="J939" t="inlineStr"/>
-      <c r="K939" t="inlineStr"/>
+      <c r="J939" t="n">
+        <v>3.824</v>
+      </c>
+      <c r="K939" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L939" t="n">
         <v>1</v>
       </c>
@@ -31468,8 +32596,14 @@
         <v>0</v>
       </c>
       <c r="I940" t="inlineStr"/>
-      <c r="J940" t="inlineStr"/>
-      <c r="K940" t="inlineStr"/>
+      <c r="J940" t="n">
+        <v>3.824</v>
+      </c>
+      <c r="K940" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L940" t="n">
         <v>1</v>
       </c>
@@ -31501,8 +32635,14 @@
         <v>0</v>
       </c>
       <c r="I941" t="inlineStr"/>
-      <c r="J941" t="inlineStr"/>
-      <c r="K941" t="inlineStr"/>
+      <c r="J941" t="n">
+        <v>3.824</v>
+      </c>
+      <c r="K941" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L941" t="n">
         <v>1</v>
       </c>
@@ -31534,8 +32674,14 @@
         <v>0</v>
       </c>
       <c r="I942" t="inlineStr"/>
-      <c r="J942" t="inlineStr"/>
-      <c r="K942" t="inlineStr"/>
+      <c r="J942" t="n">
+        <v>3.824</v>
+      </c>
+      <c r="K942" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L942" t="n">
         <v>1</v>
       </c>
@@ -31567,8 +32713,14 @@
         <v>0</v>
       </c>
       <c r="I943" t="inlineStr"/>
-      <c r="J943" t="inlineStr"/>
-      <c r="K943" t="inlineStr"/>
+      <c r="J943" t="n">
+        <v>3.824</v>
+      </c>
+      <c r="K943" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L943" t="n">
         <v>1</v>
       </c>
@@ -31600,8 +32752,14 @@
         <v>0</v>
       </c>
       <c r="I944" t="inlineStr"/>
-      <c r="J944" t="inlineStr"/>
-      <c r="K944" t="inlineStr"/>
+      <c r="J944" t="n">
+        <v>3.824</v>
+      </c>
+      <c r="K944" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L944" t="n">
         <v>1</v>
       </c>
@@ -31633,8 +32791,14 @@
         <v>0</v>
       </c>
       <c r="I945" t="inlineStr"/>
-      <c r="J945" t="inlineStr"/>
-      <c r="K945" t="inlineStr"/>
+      <c r="J945" t="n">
+        <v>3.824</v>
+      </c>
+      <c r="K945" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L945" t="n">
         <v>1</v>
       </c>
@@ -31666,8 +32830,14 @@
         <v>0</v>
       </c>
       <c r="I946" t="inlineStr"/>
-      <c r="J946" t="inlineStr"/>
-      <c r="K946" t="inlineStr"/>
+      <c r="J946" t="n">
+        <v>3.824</v>
+      </c>
+      <c r="K946" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L946" t="n">
         <v>1</v>
       </c>
@@ -31699,8 +32869,14 @@
         <v>0</v>
       </c>
       <c r="I947" t="inlineStr"/>
-      <c r="J947" t="inlineStr"/>
-      <c r="K947" t="inlineStr"/>
+      <c r="J947" t="n">
+        <v>3.824</v>
+      </c>
+      <c r="K947" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L947" t="n">
         <v>1</v>
       </c>
@@ -31732,8 +32908,14 @@
         <v>0</v>
       </c>
       <c r="I948" t="inlineStr"/>
-      <c r="J948" t="inlineStr"/>
-      <c r="K948" t="inlineStr"/>
+      <c r="J948" t="n">
+        <v>3.824</v>
+      </c>
+      <c r="K948" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L948" t="n">
         <v>1</v>
       </c>
@@ -31765,8 +32947,14 @@
         <v>0</v>
       </c>
       <c r="I949" t="inlineStr"/>
-      <c r="J949" t="inlineStr"/>
-      <c r="K949" t="inlineStr"/>
+      <c r="J949" t="n">
+        <v>3.824</v>
+      </c>
+      <c r="K949" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L949" t="n">
         <v>1</v>
       </c>
@@ -31798,8 +32986,14 @@
         <v>0</v>
       </c>
       <c r="I950" t="inlineStr"/>
-      <c r="J950" t="inlineStr"/>
-      <c r="K950" t="inlineStr"/>
+      <c r="J950" t="n">
+        <v>3.824</v>
+      </c>
+      <c r="K950" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L950" t="n">
         <v>1</v>
       </c>
@@ -31831,8 +33025,14 @@
         <v>0</v>
       </c>
       <c r="I951" t="inlineStr"/>
-      <c r="J951" t="inlineStr"/>
-      <c r="K951" t="inlineStr"/>
+      <c r="J951" t="n">
+        <v>3.824</v>
+      </c>
+      <c r="K951" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L951" t="n">
         <v>1</v>
       </c>
@@ -31864,8 +33064,14 @@
         <v>0</v>
       </c>
       <c r="I952" t="inlineStr"/>
-      <c r="J952" t="inlineStr"/>
-      <c r="K952" t="inlineStr"/>
+      <c r="J952" t="n">
+        <v>3.824</v>
+      </c>
+      <c r="K952" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L952" t="n">
         <v>1</v>
       </c>
@@ -31897,8 +33103,14 @@
         <v>0</v>
       </c>
       <c r="I953" t="inlineStr"/>
-      <c r="J953" t="inlineStr"/>
-      <c r="K953" t="inlineStr"/>
+      <c r="J953" t="n">
+        <v>3.824</v>
+      </c>
+      <c r="K953" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L953" t="n">
         <v>1</v>
       </c>
@@ -31930,8 +33142,14 @@
         <v>0</v>
       </c>
       <c r="I954" t="inlineStr"/>
-      <c r="J954" t="inlineStr"/>
-      <c r="K954" t="inlineStr"/>
+      <c r="J954" t="n">
+        <v>3.824</v>
+      </c>
+      <c r="K954" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L954" t="n">
         <v>1</v>
       </c>
@@ -31963,8 +33181,14 @@
         <v>0</v>
       </c>
       <c r="I955" t="inlineStr"/>
-      <c r="J955" t="inlineStr"/>
-      <c r="K955" t="inlineStr"/>
+      <c r="J955" t="n">
+        <v>3.824</v>
+      </c>
+      <c r="K955" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L955" t="n">
         <v>1</v>
       </c>
@@ -31996,8 +33220,14 @@
         <v>0</v>
       </c>
       <c r="I956" t="inlineStr"/>
-      <c r="J956" t="inlineStr"/>
-      <c r="K956" t="inlineStr"/>
+      <c r="J956" t="n">
+        <v>3.824</v>
+      </c>
+      <c r="K956" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L956" t="n">
         <v>1</v>
       </c>
@@ -32029,8 +33259,14 @@
         <v>0</v>
       </c>
       <c r="I957" t="inlineStr"/>
-      <c r="J957" t="inlineStr"/>
-      <c r="K957" t="inlineStr"/>
+      <c r="J957" t="n">
+        <v>3.824</v>
+      </c>
+      <c r="K957" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L957" t="n">
         <v>1</v>
       </c>
@@ -32062,8 +33298,14 @@
         <v>0</v>
       </c>
       <c r="I958" t="inlineStr"/>
-      <c r="J958" t="inlineStr"/>
-      <c r="K958" t="inlineStr"/>
+      <c r="J958" t="n">
+        <v>3.824</v>
+      </c>
+      <c r="K958" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L958" t="n">
         <v>1</v>
       </c>
@@ -32095,14 +33337,20 @@
         <v>0</v>
       </c>
       <c r="I959" t="inlineStr"/>
-      <c r="J959" t="inlineStr"/>
-      <c r="K959" t="inlineStr"/>
+      <c r="J959" t="n">
+        <v>3.824</v>
+      </c>
+      <c r="K959" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L959" t="n">
         <v>1</v>
       </c>
       <c r="M959" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-21 BackTest TMTG.xlsx
+++ b/BackTest/2020-01-21 BackTest TMTG.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -12958,7 +12958,7 @@
         <v>1497760.691763425</v>
       </c>
       <c r="H381" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -12991,7 +12991,7 @@
         <v>1497760.691763425</v>
       </c>
       <c r="H382" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -13024,7 +13024,7 @@
         <v>1069129.838763426</v>
       </c>
       <c r="H383" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -13057,7 +13057,7 @@
         <v>1416014.446763426</v>
       </c>
       <c r="H384" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -13090,7 +13090,7 @@
         <v>1053512.979763426</v>
       </c>
       <c r="H385" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -13123,7 +13123,7 @@
         <v>1028085.595763426</v>
       </c>
       <c r="H386" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -13156,7 +13156,7 @@
         <v>1093213.824763426</v>
       </c>
       <c r="H387" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -13189,7 +13189,7 @@
         <v>1185389.375763426</v>
       </c>
       <c r="H388" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -13222,7 +13222,7 @@
         <v>1316654.379763426</v>
       </c>
       <c r="H389" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -13255,7 +13255,7 @@
         <v>960174.6967634256</v>
       </c>
       <c r="H390" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -13288,7 +13288,7 @@
         <v>928843.3927634256</v>
       </c>
       <c r="H391" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -13321,7 +13321,7 @@
         <v>878262.9927634256</v>
       </c>
       <c r="H392" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -13354,7 +13354,7 @@
         <v>967679.6037634256</v>
       </c>
       <c r="H393" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -13387,7 +13387,7 @@
         <v>1080774.608763426</v>
       </c>
       <c r="H394" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -13420,7 +13420,7 @@
         <v>935912.7997634256</v>
       </c>
       <c r="H395" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -13453,7 +13453,7 @@
         <v>883369.2087634256</v>
       </c>
       <c r="H396" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -13486,7 +13486,7 @@
         <v>979435.3857634256</v>
       </c>
       <c r="H397" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -13519,7 +13519,7 @@
         <v>836322.0827634255</v>
       </c>
       <c r="H398" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -13552,7 +13552,7 @@
         <v>1015105.263763426</v>
       </c>
       <c r="H399" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -13585,7 +13585,7 @@
         <v>1219771.392763426</v>
       </c>
       <c r="H400" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -13618,7 +13618,7 @@
         <v>1254895.786763426</v>
       </c>
       <c r="H401" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -13651,7 +13651,7 @@
         <v>1315278.002763426</v>
       </c>
       <c r="H402" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -13684,7 +13684,7 @@
         <v>1133151.304763426</v>
       </c>
       <c r="H403" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -13717,7 +13717,7 @@
         <v>994074.8057634255</v>
       </c>
       <c r="H404" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -13750,7 +13750,7 @@
         <v>1777831.133363425</v>
       </c>
       <c r="H405" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -14212,7 +14212,7 @@
         <v>1884526.748041043</v>
       </c>
       <c r="H419" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -14245,7 +14245,7 @@
         <v>1755925.758041043</v>
       </c>
       <c r="H420" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -14278,7 +14278,7 @@
         <v>2050726.598641043</v>
       </c>
       <c r="H421" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -14311,7 +14311,7 @@
         <v>2050726.598641043</v>
       </c>
       <c r="H422" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -14344,7 +14344,7 @@
         <v>2331469.469641043</v>
       </c>
       <c r="H423" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -14377,7 +14377,7 @@
         <v>2756210.119641043</v>
       </c>
       <c r="H424" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -14410,7 +14410,7 @@
         <v>3189263.672641043</v>
       </c>
       <c r="H425" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -14443,7 +14443,7 @@
         <v>3252599.216641043</v>
       </c>
       <c r="H426" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -14476,7 +14476,7 @@
         <v>3410572.682641043</v>
       </c>
       <c r="H427" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -14509,7 +14509,7 @@
         <v>4353317.492641043</v>
       </c>
       <c r="H428" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -14542,7 +14542,7 @@
         <v>3644826.428641043</v>
       </c>
       <c r="H429" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -14575,7 +14575,7 @@
         <v>3181953.050441043</v>
       </c>
       <c r="H430" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -14608,7 +14608,7 @@
         <v>3181953.050441043</v>
       </c>
       <c r="H431" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -14641,7 +14641,7 @@
         <v>3062674.367441042</v>
       </c>
       <c r="H432" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -14674,7 +14674,7 @@
         <v>3242728.077441042</v>
       </c>
       <c r="H433" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -14707,7 +14707,7 @@
         <v>3242728.077441042</v>
       </c>
       <c r="H434" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -15070,7 +15070,7 @@
         <v>3378115.349941042</v>
       </c>
       <c r="H445" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -15103,7 +15103,7 @@
         <v>3332205.579941042</v>
       </c>
       <c r="H446" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -15136,7 +15136,7 @@
         <v>3225786.465941042</v>
       </c>
       <c r="H447" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -15169,7 +15169,7 @@
         <v>3385245.027941042</v>
       </c>
       <c r="H448" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -15202,7 +15202,7 @@
         <v>2917114.439941042</v>
       </c>
       <c r="H449" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -15235,7 +15235,7 @@
         <v>2917114.439941042</v>
       </c>
       <c r="H450" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -15268,7 +15268,7 @@
         <v>2883859.523941041</v>
       </c>
       <c r="H451" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -15301,7 +15301,7 @@
         <v>2773525.289941041</v>
       </c>
       <c r="H452" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -15334,7 +15334,7 @@
         <v>3156462.200541041</v>
       </c>
       <c r="H453" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -15367,7 +15367,7 @@
         <v>3329609.724541042</v>
       </c>
       <c r="H454" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -15400,7 +15400,7 @@
         <v>3329609.724541042</v>
       </c>
       <c r="H455" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -15433,7 +15433,7 @@
         <v>3329609.724541042</v>
       </c>
       <c r="H456" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -15466,7 +15466,7 @@
         <v>3329609.724541042</v>
       </c>
       <c r="H457" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -15499,7 +15499,7 @@
         <v>3763566.335541042</v>
       </c>
       <c r="H458" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -15532,7 +15532,7 @@
         <v>4197059.750541042</v>
       </c>
       <c r="H459" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
@@ -15565,7 +15565,7 @@
         <v>3763454.379541042</v>
       </c>
       <c r="H460" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -15664,7 +15664,7 @@
         <v>3513389.935541042</v>
       </c>
       <c r="H463" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -15697,7 +15697,7 @@
         <v>3209211.960541042</v>
       </c>
       <c r="H464" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -15796,7 +15796,7 @@
         <v>4018251.491141042</v>
       </c>
       <c r="H467" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -16159,7 +16159,7 @@
         <v>3366437.075492164</v>
       </c>
       <c r="H478" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -16192,7 +16192,7 @@
         <v>3229821.467492164</v>
       </c>
       <c r="H479" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -16225,7 +16225,7 @@
         <v>3437489.770492163</v>
       </c>
       <c r="H480" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -16258,7 +16258,7 @@
         <v>3168280.219492164</v>
       </c>
       <c r="H481" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -16291,7 +16291,7 @@
         <v>3189258.976492164</v>
       </c>
       <c r="H482" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
@@ -16324,7 +16324,7 @@
         <v>3003977.491492164</v>
       </c>
       <c r="H483" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
@@ -16357,7 +16357,7 @@
         <v>2847240.917492164</v>
       </c>
       <c r="H484" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
@@ -16390,7 +16390,7 @@
         <v>2847240.917492164</v>
       </c>
       <c r="H485" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
@@ -16423,7 +16423,7 @@
         <v>2847240.917492164</v>
       </c>
       <c r="H486" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
@@ -16456,7 +16456,7 @@
         <v>2863492.933492164</v>
       </c>
       <c r="H487" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -16489,7 +16489,7 @@
         <v>2946148.633492164</v>
       </c>
       <c r="H488" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -16522,7 +16522,7 @@
         <v>3072077.769492164</v>
       </c>
       <c r="H489" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -16555,7 +16555,7 @@
         <v>2736532.173492164</v>
       </c>
       <c r="H490" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -16588,7 +16588,7 @@
         <v>2537067.099492164</v>
       </c>
       <c r="H491" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -16621,7 +16621,7 @@
         <v>2573839.881492164</v>
       </c>
       <c r="H492" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -16654,7 +16654,7 @@
         <v>2643167.089492164</v>
       </c>
       <c r="H493" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -16687,7 +16687,7 @@
         <v>2524461.550492164</v>
       </c>
       <c r="H494" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -16720,7 +16720,7 @@
         <v>2689954.874492164</v>
       </c>
       <c r="H495" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -16753,7 +16753,7 @@
         <v>2487259.357492164</v>
       </c>
       <c r="H496" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -16786,7 +16786,7 @@
         <v>2175874.292492164</v>
       </c>
       <c r="H497" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -16819,7 +16819,7 @@
         <v>2175874.292492164</v>
       </c>
       <c r="H498" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -17248,7 +17248,7 @@
         <v>2548100.285492164</v>
       </c>
       <c r="H511" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -17281,7 +17281,7 @@
         <v>2570146.704492164</v>
       </c>
       <c r="H512" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -17314,7 +17314,7 @@
         <v>2632340.481492165</v>
       </c>
       <c r="H513" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -17347,7 +17347,7 @@
         <v>2742459.336492165</v>
       </c>
       <c r="H514" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -17380,7 +17380,7 @@
         <v>2882204.113492165</v>
       </c>
       <c r="H515" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -17413,7 +17413,7 @@
         <v>2514786.968492165</v>
       </c>
       <c r="H516" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -17446,7 +17446,7 @@
         <v>2379224.938492165</v>
       </c>
       <c r="H517" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -17479,7 +17479,7 @@
         <v>854255.201492165</v>
       </c>
       <c r="H518" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -17512,7 +17512,7 @@
         <v>854255.201492165</v>
       </c>
       <c r="H519" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -17545,7 +17545,7 @@
         <v>822537.3807432873</v>
       </c>
       <c r="H520" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -17578,7 +17578,7 @@
         <v>822537.3807432873</v>
       </c>
       <c r="H521" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -17611,7 +17611,7 @@
         <v>822537.3807432873</v>
       </c>
       <c r="H522" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -17644,7 +17644,7 @@
         <v>822537.3807432873</v>
       </c>
       <c r="H523" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -17809,7 +17809,7 @@
         <v>86520.99614328728</v>
       </c>
       <c r="H528" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -17842,7 +17842,7 @@
         <v>124386.8577432873</v>
       </c>
       <c r="H529" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -17875,7 +17875,7 @@
         <v>27152.24074328729</v>
       </c>
       <c r="H530" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -17908,7 +17908,7 @@
         <v>-55095.04625671271</v>
       </c>
       <c r="H531" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -17941,7 +17941,7 @@
         <v>-172191.1922567127</v>
       </c>
       <c r="H532" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -17974,7 +17974,7 @@
         <v>-156821.7712567127</v>
       </c>
       <c r="H533" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -18007,7 +18007,7 @@
         <v>-190320.7642567127</v>
       </c>
       <c r="H534" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -18040,7 +18040,7 @@
         <v>-279543.0482567127</v>
       </c>
       <c r="H535" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -18073,7 +18073,7 @@
         <v>4969.924743287324</v>
       </c>
       <c r="H536" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -18106,7 +18106,7 @@
         <v>192609.1727432873</v>
       </c>
       <c r="H537" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -18139,7 +18139,7 @@
         <v>173862.3227432873</v>
       </c>
       <c r="H538" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -18172,7 +18172,7 @@
         <v>136563.9397432873</v>
       </c>
       <c r="H539" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -18205,7 +18205,7 @@
         <v>136563.9397432873</v>
       </c>
       <c r="H540" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -18238,7 +18238,7 @@
         <v>136563.9397432873</v>
       </c>
       <c r="H541" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -18271,7 +18271,7 @@
         <v>136563.9397432873</v>
       </c>
       <c r="H542" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -21472,7 +21472,7 @@
         <v>-1139923.428949747</v>
       </c>
       <c r="H639" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
@@ -21505,7 +21505,7 @@
         <v>-1140400.520949746</v>
       </c>
       <c r="H640" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
@@ -21538,7 +21538,7 @@
         <v>-1133050.569949747</v>
       </c>
       <c r="H641" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
@@ -21571,7 +21571,7 @@
         <v>-733050.5699497466</v>
       </c>
       <c r="H642" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
@@ -21604,7 +21604,7 @@
         <v>-745343.4159497466</v>
       </c>
       <c r="H643" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
@@ -21637,7 +21637,7 @@
         <v>-730494.0319497467</v>
       </c>
       <c r="H644" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
@@ -21670,7 +21670,7 @@
         <v>-735208.7699497467</v>
       </c>
       <c r="H645" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
@@ -21703,7 +21703,7 @@
         <v>-745064.4899497466</v>
       </c>
       <c r="H646" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
@@ -21736,7 +21736,7 @@
         <v>-729264.2119497466</v>
       </c>
       <c r="H647" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
@@ -21769,7 +21769,7 @@
         <v>-730626.9179497466</v>
       </c>
       <c r="H648" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
@@ -21802,7 +21802,7 @@
         <v>-410017.5841465398</v>
       </c>
       <c r="H649" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
@@ -21835,7 +21835,7 @@
         <v>-384225.9791465398</v>
       </c>
       <c r="H650" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr"/>
@@ -21868,7 +21868,7 @@
         <v>-418430.9431465398</v>
       </c>
       <c r="H651" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
@@ -21901,7 +21901,7 @@
         <v>-412602.2351465398</v>
       </c>
       <c r="H652" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
@@ -21934,7 +21934,7 @@
         <v>-428204.0111465398</v>
       </c>
       <c r="H653" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
@@ -21967,7 +21967,7 @@
         <v>-401844.3011465398</v>
       </c>
       <c r="H654" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
@@ -22000,7 +22000,7 @@
         <v>-404594.0381465398</v>
       </c>
       <c r="H655" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
@@ -22033,7 +22033,7 @@
         <v>-456113.9457433331</v>
       </c>
       <c r="H656" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
@@ -22066,7 +22066,7 @@
         <v>-463704.9287433331</v>
       </c>
       <c r="H657" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
@@ -22099,7 +22099,7 @@
         <v>-481431.8447433331</v>
       </c>
       <c r="H658" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
@@ -22132,7 +22132,7 @@
         <v>-460468.3257433331</v>
       </c>
       <c r="H659" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
@@ -22165,7 +22165,7 @@
         <v>-453510.1877433331</v>
       </c>
       <c r="H660" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
@@ -22198,7 +22198,7 @@
         <v>-466245.0137433331</v>
       </c>
       <c r="H661" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
@@ -22231,7 +22231,7 @@
         <v>-517165.2362433331</v>
       </c>
       <c r="H662" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
@@ -22264,7 +22264,7 @@
         <v>-519582.5672433331</v>
       </c>
       <c r="H663" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
@@ -22297,7 +22297,7 @@
         <v>-526568.3592433331</v>
       </c>
       <c r="H664" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
@@ -23089,7 +23089,7 @@
         <v>-9936.337343333085</v>
       </c>
       <c r="H688" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I688" t="inlineStr"/>
       <c r="J688" t="inlineStr"/>
@@ -23122,7 +23122,7 @@
         <v>4212.966656666915</v>
       </c>
       <c r="H689" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I689" t="inlineStr"/>
       <c r="J689" t="inlineStr"/>
@@ -23155,7 +23155,7 @@
         <v>-22406.94034333308</v>
       </c>
       <c r="H690" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I690" t="inlineStr"/>
       <c r="J690" t="inlineStr"/>
@@ -23188,7 +23188,7 @@
         <v>17238.47065666692</v>
       </c>
       <c r="H691" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I691" t="inlineStr"/>
       <c r="J691" t="inlineStr"/>
@@ -23221,7 +23221,7 @@
         <v>73934.73865666692</v>
       </c>
       <c r="H692" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I692" t="inlineStr"/>
       <c r="J692" t="inlineStr"/>
@@ -23254,7 +23254,7 @@
         <v>77511.41565666691</v>
       </c>
       <c r="H693" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I693" t="inlineStr"/>
       <c r="J693" t="inlineStr"/>
@@ -23287,7 +23287,7 @@
         <v>62348.10665666691</v>
       </c>
       <c r="H694" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I694" t="inlineStr"/>
       <c r="J694" t="inlineStr"/>
@@ -23320,7 +23320,7 @@
         <v>-25319580.66254333</v>
       </c>
       <c r="H695" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I695" t="inlineStr"/>
       <c r="J695" t="inlineStr"/>
@@ -23353,7 +23353,7 @@
         <v>-26073991.16214333</v>
       </c>
       <c r="H696" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="inlineStr"/>
@@ -25036,7 +25036,7 @@
         <v>-26086494.22374334</v>
       </c>
       <c r="H747" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I747" t="inlineStr"/>
       <c r="J747" t="inlineStr"/>
@@ -25102,7 +25102,7 @@
         <v>-26080539.89974334</v>
       </c>
       <c r="H749" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I749" t="inlineStr"/>
       <c r="J749" t="inlineStr"/>
@@ -25135,7 +25135,7 @@
         <v>-26079828.25574334</v>
       </c>
       <c r="H750" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I750" t="inlineStr"/>
       <c r="J750" t="inlineStr"/>
@@ -25168,7 +25168,7 @@
         <v>-26082265.39874334</v>
       </c>
       <c r="H751" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I751" t="inlineStr"/>
       <c r="J751" t="inlineStr"/>
@@ -25201,14 +25201,10 @@
         <v>-26078172.01174334</v>
       </c>
       <c r="H752" t="n">
-        <v>1</v>
-      </c>
-      <c r="I752" t="n">
-        <v>3.829</v>
-      </c>
-      <c r="J752" t="n">
-        <v>3.829</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I752" t="inlineStr"/>
+      <c r="J752" t="inlineStr"/>
       <c r="K752" t="inlineStr"/>
       <c r="L752" t="n">
         <v>1</v>
@@ -25238,3784 +25234,3162 @@
         <v>-26078810.68674334</v>
       </c>
       <c r="H753" t="n">
-        <v>1</v>
-      </c>
-      <c r="I753" t="n">
-        <v>3.833</v>
-      </c>
-      <c r="J753" t="n">
-        <v>3.829</v>
-      </c>
-      <c r="K753" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="I753" t="inlineStr"/>
+      <c r="J753" t="inlineStr"/>
+      <c r="K753" t="inlineStr"/>
+      <c r="L753" t="n">
+        <v>1</v>
+      </c>
+      <c r="M753" t="inlineStr"/>
+    </row>
+    <row r="754">
+      <c r="A754" s="1" t="n">
+        <v>752</v>
+      </c>
+      <c r="B754" t="n">
+        <v>3.824</v>
+      </c>
+      <c r="C754" t="n">
+        <v>3.824</v>
+      </c>
+      <c r="D754" t="n">
+        <v>3.824</v>
+      </c>
+      <c r="E754" t="n">
+        <v>3.824</v>
+      </c>
+      <c r="F754" t="n">
+        <v>2404.9</v>
+      </c>
+      <c r="G754" t="n">
+        <v>-26081215.58674334</v>
+      </c>
+      <c r="H754" t="n">
+        <v>2</v>
+      </c>
+      <c r="I754" t="inlineStr"/>
+      <c r="J754" t="inlineStr"/>
+      <c r="K754" t="inlineStr"/>
+      <c r="L754" t="n">
+        <v>1</v>
+      </c>
+      <c r="M754" t="inlineStr"/>
+    </row>
+    <row r="755">
+      <c r="A755" s="1" t="n">
+        <v>753</v>
+      </c>
+      <c r="B755" t="n">
+        <v>3.821</v>
+      </c>
+      <c r="C755" t="n">
+        <v>3.821</v>
+      </c>
+      <c r="D755" t="n">
+        <v>3.821</v>
+      </c>
+      <c r="E755" t="n">
+        <v>3.821</v>
+      </c>
+      <c r="F755" t="n">
+        <v>4021.518</v>
+      </c>
+      <c r="G755" t="n">
+        <v>-26085237.10474334</v>
+      </c>
+      <c r="H755" t="n">
+        <v>0</v>
+      </c>
+      <c r="I755" t="inlineStr"/>
+      <c r="J755" t="inlineStr"/>
+      <c r="K755" t="inlineStr"/>
+      <c r="L755" t="n">
+        <v>1</v>
+      </c>
+      <c r="M755" t="inlineStr"/>
+    </row>
+    <row r="756">
+      <c r="A756" s="1" t="n">
+        <v>754</v>
+      </c>
+      <c r="B756" t="n">
+        <v>3.821</v>
+      </c>
+      <c r="C756" t="n">
+        <v>3.821</v>
+      </c>
+      <c r="D756" t="n">
+        <v>3.821</v>
+      </c>
+      <c r="E756" t="n">
+        <v>3.821</v>
+      </c>
+      <c r="F756" t="n">
+        <v>994.641</v>
+      </c>
+      <c r="G756" t="n">
+        <v>-26085237.10474334</v>
+      </c>
+      <c r="H756" t="n">
+        <v>0</v>
+      </c>
+      <c r="I756" t="inlineStr"/>
+      <c r="J756" t="inlineStr"/>
+      <c r="K756" t="inlineStr"/>
+      <c r="L756" t="n">
+        <v>1</v>
+      </c>
+      <c r="M756" t="inlineStr"/>
+    </row>
+    <row r="757">
+      <c r="A757" s="1" t="n">
+        <v>755</v>
+      </c>
+      <c r="B757" t="n">
+        <v>3.841</v>
+      </c>
+      <c r="C757" t="n">
+        <v>3.841</v>
+      </c>
+      <c r="D757" t="n">
+        <v>3.841</v>
+      </c>
+      <c r="E757" t="n">
+        <v>3.841</v>
+      </c>
+      <c r="F757" t="n">
+        <v>2545.503</v>
+      </c>
+      <c r="G757" t="n">
+        <v>-26082691.60174334</v>
+      </c>
+      <c r="H757" t="n">
+        <v>0</v>
+      </c>
+      <c r="I757" t="inlineStr"/>
+      <c r="J757" t="inlineStr"/>
+      <c r="K757" t="inlineStr"/>
+      <c r="L757" t="n">
+        <v>1</v>
+      </c>
+      <c r="M757" t="inlineStr"/>
+    </row>
+    <row r="758">
+      <c r="A758" s="1" t="n">
+        <v>756</v>
+      </c>
+      <c r="B758" t="n">
+        <v>3.841</v>
+      </c>
+      <c r="C758" t="n">
+        <v>3.867</v>
+      </c>
+      <c r="D758" t="n">
+        <v>3.867</v>
+      </c>
+      <c r="E758" t="n">
+        <v>3.841</v>
+      </c>
+      <c r="F758" t="n">
+        <v>10766.4817</v>
+      </c>
+      <c r="G758" t="n">
+        <v>-26071925.12004334</v>
+      </c>
+      <c r="H758" t="n">
+        <v>0</v>
+      </c>
+      <c r="I758" t="inlineStr"/>
+      <c r="J758" t="inlineStr"/>
+      <c r="K758" t="inlineStr"/>
+      <c r="L758" t="n">
+        <v>1</v>
+      </c>
+      <c r="M758" t="inlineStr"/>
+    </row>
+    <row r="759">
+      <c r="A759" s="1" t="n">
+        <v>757</v>
+      </c>
+      <c r="B759" t="n">
+        <v>3.866</v>
+      </c>
+      <c r="C759" t="n">
+        <v>3.866</v>
+      </c>
+      <c r="D759" t="n">
+        <v>3.866</v>
+      </c>
+      <c r="E759" t="n">
+        <v>3.866</v>
+      </c>
+      <c r="F759" t="n">
+        <v>849.147</v>
+      </c>
+      <c r="G759" t="n">
+        <v>-26072774.26704334</v>
+      </c>
+      <c r="H759" t="n">
+        <v>0</v>
+      </c>
+      <c r="I759" t="inlineStr"/>
+      <c r="J759" t="inlineStr"/>
+      <c r="K759" t="inlineStr"/>
+      <c r="L759" t="n">
+        <v>1</v>
+      </c>
+      <c r="M759" t="inlineStr"/>
+    </row>
+    <row r="760">
+      <c r="A760" s="1" t="n">
+        <v>758</v>
+      </c>
+      <c r="B760" t="n">
+        <v>3.864</v>
+      </c>
+      <c r="C760" t="n">
+        <v>3.864</v>
+      </c>
+      <c r="D760" t="n">
+        <v>3.864</v>
+      </c>
+      <c r="E760" t="n">
+        <v>3.864</v>
+      </c>
+      <c r="F760" t="n">
+        <v>2270.249</v>
+      </c>
+      <c r="G760" t="n">
+        <v>-26075044.51604334</v>
+      </c>
+      <c r="H760" t="n">
+        <v>0</v>
+      </c>
+      <c r="I760" t="inlineStr"/>
+      <c r="J760" t="inlineStr"/>
+      <c r="K760" t="inlineStr"/>
+      <c r="L760" t="n">
+        <v>1</v>
+      </c>
+      <c r="M760" t="inlineStr"/>
+    </row>
+    <row r="761">
+      <c r="A761" s="1" t="n">
+        <v>759</v>
+      </c>
+      <c r="B761" t="n">
+        <v>3.865</v>
+      </c>
+      <c r="C761" t="n">
+        <v>3.865</v>
+      </c>
+      <c r="D761" t="n">
+        <v>3.865</v>
+      </c>
+      <c r="E761" t="n">
+        <v>3.865</v>
+      </c>
+      <c r="F761" t="n">
+        <v>3137.937</v>
+      </c>
+      <c r="G761" t="n">
+        <v>-26071906.57904334</v>
+      </c>
+      <c r="H761" t="n">
+        <v>0</v>
+      </c>
+      <c r="I761" t="inlineStr"/>
+      <c r="J761" t="inlineStr"/>
+      <c r="K761" t="inlineStr"/>
+      <c r="L761" t="n">
+        <v>1</v>
+      </c>
+      <c r="M761" t="inlineStr"/>
+    </row>
+    <row r="762">
+      <c r="A762" s="1" t="n">
+        <v>760</v>
+      </c>
+      <c r="B762" t="n">
+        <v>3.866</v>
+      </c>
+      <c r="C762" t="n">
+        <v>3.866</v>
+      </c>
+      <c r="D762" t="n">
+        <v>3.866</v>
+      </c>
+      <c r="E762" t="n">
+        <v>3.866</v>
+      </c>
+      <c r="F762" t="n">
+        <v>1321.252</v>
+      </c>
+      <c r="G762" t="n">
+        <v>-26070585.32704334</v>
+      </c>
+      <c r="H762" t="n">
+        <v>0</v>
+      </c>
+      <c r="I762" t="inlineStr"/>
+      <c r="J762" t="inlineStr"/>
+      <c r="K762" t="inlineStr"/>
+      <c r="L762" t="n">
+        <v>1</v>
+      </c>
+      <c r="M762" t="inlineStr"/>
+    </row>
+    <row r="763">
+      <c r="A763" s="1" t="n">
+        <v>761</v>
+      </c>
+      <c r="B763" t="n">
+        <v>3.864</v>
+      </c>
+      <c r="C763" t="n">
+        <v>3.864</v>
+      </c>
+      <c r="D763" t="n">
+        <v>3.864</v>
+      </c>
+      <c r="E763" t="n">
+        <v>3.864</v>
+      </c>
+      <c r="F763" t="n">
+        <v>2238.97</v>
+      </c>
+      <c r="G763" t="n">
+        <v>-26072824.29704334</v>
+      </c>
+      <c r="H763" t="n">
+        <v>0</v>
+      </c>
+      <c r="I763" t="inlineStr"/>
+      <c r="J763" t="inlineStr"/>
+      <c r="K763" t="inlineStr"/>
+      <c r="L763" t="n">
+        <v>1</v>
+      </c>
+      <c r="M763" t="inlineStr"/>
+    </row>
+    <row r="764">
+      <c r="A764" s="1" t="n">
+        <v>762</v>
+      </c>
+      <c r="B764" t="n">
+        <v>3.865</v>
+      </c>
+      <c r="C764" t="n">
+        <v>3.865</v>
+      </c>
+      <c r="D764" t="n">
+        <v>3.865</v>
+      </c>
+      <c r="E764" t="n">
+        <v>3.865</v>
+      </c>
+      <c r="F764" t="n">
+        <v>6019.275</v>
+      </c>
+      <c r="G764" t="n">
+        <v>-26066805.02204334</v>
+      </c>
+      <c r="H764" t="n">
+        <v>0</v>
+      </c>
+      <c r="I764" t="inlineStr"/>
+      <c r="J764" t="inlineStr"/>
+      <c r="K764" t="inlineStr"/>
+      <c r="L764" t="n">
+        <v>1</v>
+      </c>
+      <c r="M764" t="inlineStr"/>
+    </row>
+    <row r="765">
+      <c r="A765" s="1" t="n">
+        <v>763</v>
+      </c>
+      <c r="B765" t="n">
+        <v>3.867</v>
+      </c>
+      <c r="C765" t="n">
+        <v>3.868</v>
+      </c>
+      <c r="D765" t="n">
+        <v>3.868</v>
+      </c>
+      <c r="E765" t="n">
+        <v>3.867</v>
+      </c>
+      <c r="F765" t="n">
+        <v>231360.5718695191</v>
+      </c>
+      <c r="G765" t="n">
+        <v>-25835444.45017382</v>
+      </c>
+      <c r="H765" t="n">
+        <v>0</v>
+      </c>
+      <c r="I765" t="inlineStr"/>
+      <c r="J765" t="inlineStr"/>
+      <c r="K765" t="inlineStr"/>
+      <c r="L765" t="n">
+        <v>1</v>
+      </c>
+      <c r="M765" t="inlineStr"/>
+    </row>
+    <row r="766">
+      <c r="A766" s="1" t="n">
+        <v>764</v>
+      </c>
+      <c r="B766" t="n">
+        <v>3.863</v>
+      </c>
+      <c r="C766" t="n">
+        <v>3.863</v>
+      </c>
+      <c r="D766" t="n">
+        <v>3.863</v>
+      </c>
+      <c r="E766" t="n">
+        <v>3.863</v>
+      </c>
+      <c r="F766" t="n">
+        <v>580.574</v>
+      </c>
+      <c r="G766" t="n">
+        <v>-25836025.02417382</v>
+      </c>
+      <c r="H766" t="n">
+        <v>0</v>
+      </c>
+      <c r="I766" t="inlineStr"/>
+      <c r="J766" t="inlineStr"/>
+      <c r="K766" t="inlineStr"/>
+      <c r="L766" t="n">
+        <v>1</v>
+      </c>
+      <c r="M766" t="inlineStr"/>
+    </row>
+    <row r="767">
+      <c r="A767" s="1" t="n">
+        <v>765</v>
+      </c>
+      <c r="B767" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="C767" t="n">
+        <v>3.879</v>
+      </c>
+      <c r="D767" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="E767" t="n">
+        <v>3.879</v>
+      </c>
+      <c r="F767" t="n">
+        <v>2606.9165</v>
+      </c>
+      <c r="G767" t="n">
+        <v>-25833418.10767382</v>
+      </c>
+      <c r="H767" t="n">
+        <v>0</v>
+      </c>
+      <c r="I767" t="inlineStr"/>
+      <c r="J767" t="inlineStr"/>
+      <c r="K767" t="inlineStr"/>
+      <c r="L767" t="n">
+        <v>1</v>
+      </c>
+      <c r="M767" t="inlineStr"/>
+    </row>
+    <row r="768">
+      <c r="A768" s="1" t="n">
+        <v>766</v>
+      </c>
+      <c r="B768" t="n">
+        <v>3.879</v>
+      </c>
+      <c r="C768" t="n">
+        <v>3.879</v>
+      </c>
+      <c r="D768" t="n">
+        <v>3.879</v>
+      </c>
+      <c r="E768" t="n">
+        <v>3.879</v>
+      </c>
+      <c r="F768" t="n">
+        <v>2686.905</v>
+      </c>
+      <c r="G768" t="n">
+        <v>-25833418.10767382</v>
+      </c>
+      <c r="H768" t="n">
+        <v>0</v>
+      </c>
+      <c r="I768" t="inlineStr"/>
+      <c r="J768" t="inlineStr"/>
+      <c r="K768" t="inlineStr"/>
+      <c r="L768" t="n">
+        <v>1</v>
+      </c>
+      <c r="M768" t="inlineStr"/>
+    </row>
+    <row r="769">
+      <c r="A769" s="1" t="n">
+        <v>767</v>
+      </c>
+      <c r="B769" t="n">
+        <v>3.876</v>
+      </c>
+      <c r="C769" t="n">
+        <v>3.876</v>
+      </c>
+      <c r="D769" t="n">
+        <v>3.876</v>
+      </c>
+      <c r="E769" t="n">
+        <v>3.876</v>
+      </c>
+      <c r="F769" t="n">
+        <v>600.542</v>
+      </c>
+      <c r="G769" t="n">
+        <v>-25834018.64967382</v>
+      </c>
+      <c r="H769" t="n">
+        <v>0</v>
+      </c>
+      <c r="I769" t="inlineStr"/>
+      <c r="J769" t="inlineStr"/>
+      <c r="K769" t="inlineStr"/>
+      <c r="L769" t="n">
+        <v>1</v>
+      </c>
+      <c r="M769" t="inlineStr"/>
+    </row>
+    <row r="770">
+      <c r="A770" s="1" t="n">
+        <v>768</v>
+      </c>
+      <c r="B770" t="n">
+        <v>3.873</v>
+      </c>
+      <c r="C770" t="n">
+        <v>3.873</v>
+      </c>
+      <c r="D770" t="n">
+        <v>3.873</v>
+      </c>
+      <c r="E770" t="n">
+        <v>3.873</v>
+      </c>
+      <c r="F770" t="n">
+        <v>1282.17</v>
+      </c>
+      <c r="G770" t="n">
+        <v>-25835300.81967383</v>
+      </c>
+      <c r="H770" t="n">
+        <v>0</v>
+      </c>
+      <c r="I770" t="inlineStr"/>
+      <c r="J770" t="inlineStr"/>
+      <c r="K770" t="inlineStr"/>
+      <c r="L770" t="n">
+        <v>1</v>
+      </c>
+      <c r="M770" t="inlineStr"/>
+    </row>
+    <row r="771">
+      <c r="A771" s="1" t="n">
+        <v>769</v>
+      </c>
+      <c r="B771" t="n">
+        <v>3.871</v>
+      </c>
+      <c r="C771" t="n">
+        <v>3.871</v>
+      </c>
+      <c r="D771" t="n">
+        <v>3.871</v>
+      </c>
+      <c r="E771" t="n">
+        <v>3.871</v>
+      </c>
+      <c r="F771" t="n">
+        <v>2816.913</v>
+      </c>
+      <c r="G771" t="n">
+        <v>-25838117.73267382</v>
+      </c>
+      <c r="H771" t="n">
+        <v>0</v>
+      </c>
+      <c r="I771" t="inlineStr"/>
+      <c r="J771" t="inlineStr"/>
+      <c r="K771" t="inlineStr"/>
+      <c r="L771" t="n">
+        <v>1</v>
+      </c>
+      <c r="M771" t="inlineStr"/>
+    </row>
+    <row r="772">
+      <c r="A772" s="1" t="n">
+        <v>770</v>
+      </c>
+      <c r="B772" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="C772" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="D772" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="E772" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="F772" t="n">
+        <v>16766.5775</v>
+      </c>
+      <c r="G772" t="n">
+        <v>-25854884.31017382</v>
+      </c>
+      <c r="H772" t="n">
+        <v>0</v>
+      </c>
+      <c r="I772" t="inlineStr"/>
+      <c r="J772" t="inlineStr"/>
+      <c r="K772" t="inlineStr"/>
+      <c r="L772" t="n">
+        <v>1</v>
+      </c>
+      <c r="M772" t="inlineStr"/>
+    </row>
+    <row r="773">
+      <c r="A773" s="1" t="n">
+        <v>771</v>
+      </c>
+      <c r="B773" t="n">
+        <v>3.861</v>
+      </c>
+      <c r="C773" t="n">
+        <v>3.861</v>
+      </c>
+      <c r="D773" t="n">
+        <v>3.861</v>
+      </c>
+      <c r="E773" t="n">
+        <v>3.861</v>
+      </c>
+      <c r="F773" t="n">
+        <v>445.895</v>
+      </c>
+      <c r="G773" t="n">
+        <v>-25854438.41517382</v>
+      </c>
+      <c r="H773" t="n">
+        <v>0</v>
+      </c>
+      <c r="I773" t="inlineStr"/>
+      <c r="J773" t="inlineStr"/>
+      <c r="K773" t="inlineStr"/>
+      <c r="L773" t="n">
+        <v>1</v>
+      </c>
+      <c r="M773" t="inlineStr"/>
+    </row>
+    <row r="774">
+      <c r="A774" s="1" t="n">
+        <v>772</v>
+      </c>
+      <c r="B774" t="n">
+        <v>3.862</v>
+      </c>
+      <c r="C774" t="n">
+        <v>3.862</v>
+      </c>
+      <c r="D774" t="n">
+        <v>3.862</v>
+      </c>
+      <c r="E774" t="n">
+        <v>3.862</v>
+      </c>
+      <c r="F774" t="n">
+        <v>1960.645</v>
+      </c>
+      <c r="G774" t="n">
+        <v>-25852477.77017383</v>
+      </c>
+      <c r="H774" t="n">
+        <v>0</v>
+      </c>
+      <c r="I774" t="inlineStr"/>
+      <c r="J774" t="inlineStr"/>
+      <c r="K774" t="inlineStr"/>
+      <c r="L774" t="n">
+        <v>1</v>
+      </c>
+      <c r="M774" t="inlineStr"/>
+    </row>
+    <row r="775">
+      <c r="A775" s="1" t="n">
+        <v>773</v>
+      </c>
+      <c r="B775" t="n">
+        <v>3.863</v>
+      </c>
+      <c r="C775" t="n">
+        <v>3.863</v>
+      </c>
+      <c r="D775" t="n">
+        <v>3.863</v>
+      </c>
+      <c r="E775" t="n">
+        <v>3.863</v>
+      </c>
+      <c r="F775" t="n">
+        <v>5889.039</v>
+      </c>
+      <c r="G775" t="n">
+        <v>-25846588.73117382</v>
+      </c>
+      <c r="H775" t="n">
+        <v>0</v>
+      </c>
+      <c r="I775" t="inlineStr"/>
+      <c r="J775" t="inlineStr"/>
+      <c r="K775" t="inlineStr"/>
+      <c r="L775" t="n">
+        <v>1</v>
+      </c>
+      <c r="M775" t="inlineStr"/>
+    </row>
+    <row r="776">
+      <c r="A776" s="1" t="n">
+        <v>774</v>
+      </c>
+      <c r="B776" t="n">
+        <v>3.861</v>
+      </c>
+      <c r="C776" t="n">
+        <v>3.861</v>
+      </c>
+      <c r="D776" t="n">
+        <v>3.861</v>
+      </c>
+      <c r="E776" t="n">
+        <v>3.861</v>
+      </c>
+      <c r="F776" t="n">
+        <v>508.021</v>
+      </c>
+      <c r="G776" t="n">
+        <v>-25847096.75217383</v>
+      </c>
+      <c r="H776" t="n">
+        <v>0</v>
+      </c>
+      <c r="I776" t="inlineStr"/>
+      <c r="J776" t="inlineStr"/>
+      <c r="K776" t="inlineStr"/>
+      <c r="L776" t="n">
+        <v>1</v>
+      </c>
+      <c r="M776" t="inlineStr"/>
+    </row>
+    <row r="777">
+      <c r="A777" s="1" t="n">
+        <v>775</v>
+      </c>
+      <c r="B777" t="n">
+        <v>3.862</v>
+      </c>
+      <c r="C777" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="D777" t="n">
+        <v>3.862</v>
+      </c>
+      <c r="E777" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="F777" t="n">
+        <v>72955.1832</v>
+      </c>
+      <c r="G777" t="n">
+        <v>-25920051.93537383</v>
+      </c>
+      <c r="H777" t="n">
+        <v>0</v>
+      </c>
+      <c r="I777" t="inlineStr"/>
+      <c r="J777" t="inlineStr"/>
+      <c r="K777" t="inlineStr"/>
+      <c r="L777" t="n">
+        <v>1</v>
+      </c>
+      <c r="M777" t="inlineStr"/>
+    </row>
+    <row r="778">
+      <c r="A778" s="1" t="n">
+        <v>776</v>
+      </c>
+      <c r="B778" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="C778" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="D778" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="E778" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="F778" t="n">
+        <v>29628.5494</v>
+      </c>
+      <c r="G778" t="n">
+        <v>-25920051.93537383</v>
+      </c>
+      <c r="H778" t="n">
+        <v>0</v>
+      </c>
+      <c r="I778" t="inlineStr"/>
+      <c r="J778" t="inlineStr"/>
+      <c r="K778" t="inlineStr"/>
+      <c r="L778" t="n">
+        <v>1</v>
+      </c>
+      <c r="M778" t="inlineStr"/>
+    </row>
+    <row r="779">
+      <c r="A779" s="1" t="n">
+        <v>777</v>
+      </c>
+      <c r="B779" t="n">
+        <v>3.861</v>
+      </c>
+      <c r="C779" t="n">
+        <v>3.861</v>
+      </c>
+      <c r="D779" t="n">
+        <v>3.861</v>
+      </c>
+      <c r="E779" t="n">
+        <v>3.861</v>
+      </c>
+      <c r="F779" t="n">
+        <v>2082.915</v>
+      </c>
+      <c r="G779" t="n">
+        <v>-25917969.02037383</v>
+      </c>
+      <c r="H779" t="n">
+        <v>0</v>
+      </c>
+      <c r="I779" t="inlineStr"/>
+      <c r="J779" t="inlineStr"/>
+      <c r="K779" t="inlineStr"/>
+      <c r="L779" t="n">
+        <v>1</v>
+      </c>
+      <c r="M779" t="inlineStr"/>
+    </row>
+    <row r="780">
+      <c r="A780" s="1" t="n">
+        <v>778</v>
+      </c>
+      <c r="B780" t="n">
+        <v>3.861</v>
+      </c>
+      <c r="C780" t="n">
+        <v>3.896</v>
+      </c>
+      <c r="D780" t="n">
+        <v>3.896</v>
+      </c>
+      <c r="E780" t="n">
+        <v>3.861</v>
+      </c>
+      <c r="F780" t="n">
+        <v>117091.8829</v>
+      </c>
+      <c r="G780" t="n">
+        <v>-25800877.13747383</v>
+      </c>
+      <c r="H780" t="n">
+        <v>0</v>
+      </c>
+      <c r="I780" t="inlineStr"/>
+      <c r="J780" t="inlineStr"/>
+      <c r="K780" t="inlineStr"/>
+      <c r="L780" t="n">
+        <v>1</v>
+      </c>
+      <c r="M780" t="inlineStr"/>
+    </row>
+    <row r="781">
+      <c r="A781" s="1" t="n">
+        <v>779</v>
+      </c>
+      <c r="B781" t="n">
+        <v>3.895</v>
+      </c>
+      <c r="C781" t="n">
+        <v>3.895</v>
+      </c>
+      <c r="D781" t="n">
+        <v>3.895</v>
+      </c>
+      <c r="E781" t="n">
+        <v>3.895</v>
+      </c>
+      <c r="F781" t="n">
+        <v>1487.032</v>
+      </c>
+      <c r="G781" t="n">
+        <v>-25802364.16947383</v>
+      </c>
+      <c r="H781" t="n">
+        <v>0</v>
+      </c>
+      <c r="I781" t="inlineStr"/>
+      <c r="J781" t="inlineStr"/>
+      <c r="K781" t="inlineStr"/>
+      <c r="L781" t="n">
+        <v>1</v>
+      </c>
+      <c r="M781" t="inlineStr"/>
+    </row>
+    <row r="782">
+      <c r="A782" s="1" t="n">
+        <v>780</v>
+      </c>
+      <c r="B782" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="C782" t="n">
+        <v>3.897</v>
+      </c>
+      <c r="D782" t="n">
+        <v>3.897</v>
+      </c>
+      <c r="E782" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="F782" t="n">
+        <v>79755.6746</v>
+      </c>
+      <c r="G782" t="n">
+        <v>-25722608.49487383</v>
+      </c>
+      <c r="H782" t="n">
+        <v>0</v>
+      </c>
+      <c r="I782" t="inlineStr"/>
+      <c r="J782" t="inlineStr"/>
+      <c r="K782" t="inlineStr"/>
+      <c r="L782" t="n">
+        <v>1</v>
+      </c>
+      <c r="M782" t="inlineStr"/>
+    </row>
+    <row r="783">
+      <c r="A783" s="1" t="n">
+        <v>781</v>
+      </c>
+      <c r="B783" t="n">
+        <v>3.895</v>
+      </c>
+      <c r="C783" t="n">
+        <v>3.895</v>
+      </c>
+      <c r="D783" t="n">
+        <v>3.895</v>
+      </c>
+      <c r="E783" t="n">
+        <v>3.895</v>
+      </c>
+      <c r="F783" t="n">
+        <v>3658.205</v>
+      </c>
+      <c r="G783" t="n">
+        <v>-25726266.69987383</v>
+      </c>
+      <c r="H783" t="n">
+        <v>0</v>
+      </c>
+      <c r="I783" t="inlineStr"/>
+      <c r="J783" t="inlineStr"/>
+      <c r="K783" t="inlineStr"/>
+      <c r="L783" t="n">
+        <v>1</v>
+      </c>
+      <c r="M783" t="inlineStr"/>
+    </row>
+    <row r="784">
+      <c r="A784" s="1" t="n">
+        <v>782</v>
+      </c>
+      <c r="B784" t="n">
+        <v>3.892</v>
+      </c>
+      <c r="C784" t="n">
+        <v>3.892</v>
+      </c>
+      <c r="D784" t="n">
+        <v>3.892</v>
+      </c>
+      <c r="E784" t="n">
+        <v>3.892</v>
+      </c>
+      <c r="F784" t="n">
+        <v>435.108</v>
+      </c>
+      <c r="G784" t="n">
+        <v>-25726701.80787383</v>
+      </c>
+      <c r="H784" t="n">
+        <v>0</v>
+      </c>
+      <c r="I784" t="inlineStr"/>
+      <c r="J784" t="inlineStr"/>
+      <c r="K784" t="inlineStr"/>
+      <c r="L784" t="n">
+        <v>1</v>
+      </c>
+      <c r="M784" t="inlineStr"/>
+    </row>
+    <row r="785">
+      <c r="A785" s="1" t="n">
+        <v>783</v>
+      </c>
+      <c r="B785" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="C785" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="D785" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="E785" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="F785" t="n">
+        <v>1587.003</v>
+      </c>
+      <c r="G785" t="n">
+        <v>-25728288.81087383</v>
+      </c>
+      <c r="H785" t="n">
+        <v>0</v>
+      </c>
+      <c r="I785" t="inlineStr"/>
+      <c r="J785" t="inlineStr"/>
+      <c r="K785" t="inlineStr"/>
+      <c r="L785" t="n">
+        <v>1</v>
+      </c>
+      <c r="M785" t="inlineStr"/>
+    </row>
+    <row r="786">
+      <c r="A786" s="1" t="n">
+        <v>784</v>
+      </c>
+      <c r="B786" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="C786" t="n">
+        <v>3.896</v>
+      </c>
+      <c r="D786" t="n">
+        <v>3.896</v>
+      </c>
+      <c r="E786" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="F786" t="n">
+        <v>14343.9082</v>
+      </c>
+      <c r="G786" t="n">
+        <v>-25713944.90267383</v>
+      </c>
+      <c r="H786" t="n">
+        <v>0</v>
+      </c>
+      <c r="I786" t="inlineStr"/>
+      <c r="J786" t="inlineStr"/>
+      <c r="K786" t="inlineStr"/>
+      <c r="L786" t="n">
+        <v>1</v>
+      </c>
+      <c r="M786" t="inlineStr"/>
+    </row>
+    <row r="787">
+      <c r="A787" s="1" t="n">
+        <v>785</v>
+      </c>
+      <c r="B787" t="n">
+        <v>3.896</v>
+      </c>
+      <c r="C787" t="n">
+        <v>3.896</v>
+      </c>
+      <c r="D787" t="n">
+        <v>3.896</v>
+      </c>
+      <c r="E787" t="n">
+        <v>3.895</v>
+      </c>
+      <c r="F787" t="n">
+        <v>6317.208</v>
+      </c>
+      <c r="G787" t="n">
+        <v>-25713944.90267383</v>
+      </c>
+      <c r="H787" t="n">
+        <v>0</v>
+      </c>
+      <c r="I787" t="inlineStr"/>
+      <c r="J787" t="inlineStr"/>
+      <c r="K787" t="inlineStr"/>
+      <c r="L787" t="n">
+        <v>1</v>
+      </c>
+      <c r="M787" t="inlineStr"/>
+    </row>
+    <row r="788">
+      <c r="A788" s="1" t="n">
+        <v>786</v>
+      </c>
+      <c r="B788" t="n">
+        <v>3.895</v>
+      </c>
+      <c r="C788" t="n">
+        <v>3.896</v>
+      </c>
+      <c r="D788" t="n">
+        <v>3.896</v>
+      </c>
+      <c r="E788" t="n">
+        <v>3.895</v>
+      </c>
+      <c r="F788" t="n">
+        <v>1381.9804</v>
+      </c>
+      <c r="G788" t="n">
+        <v>-25713944.90267383</v>
+      </c>
+      <c r="H788" t="n">
+        <v>0</v>
+      </c>
+      <c r="I788" t="inlineStr"/>
+      <c r="J788" t="inlineStr"/>
+      <c r="K788" t="inlineStr"/>
+      <c r="L788" t="n">
+        <v>1</v>
+      </c>
+      <c r="M788" t="inlineStr"/>
+    </row>
+    <row r="789">
+      <c r="A789" s="1" t="n">
+        <v>787</v>
+      </c>
+      <c r="B789" t="n">
+        <v>3.895</v>
+      </c>
+      <c r="C789" t="n">
+        <v>3.896</v>
+      </c>
+      <c r="D789" t="n">
+        <v>3.896</v>
+      </c>
+      <c r="E789" t="n">
+        <v>3.895</v>
+      </c>
+      <c r="F789" t="n">
+        <v>2141.908</v>
+      </c>
+      <c r="G789" t="n">
+        <v>-25713944.90267383</v>
+      </c>
+      <c r="H789" t="n">
+        <v>0</v>
+      </c>
+      <c r="I789" t="inlineStr"/>
+      <c r="J789" t="inlineStr"/>
+      <c r="K789" t="inlineStr"/>
+      <c r="L789" t="n">
+        <v>1</v>
+      </c>
+      <c r="M789" t="inlineStr"/>
+    </row>
+    <row r="790">
+      <c r="A790" s="1" t="n">
+        <v>788</v>
+      </c>
+      <c r="B790" t="n">
+        <v>3.896</v>
+      </c>
+      <c r="C790" t="n">
+        <v>3.896</v>
+      </c>
+      <c r="D790" t="n">
+        <v>3.896</v>
+      </c>
+      <c r="E790" t="n">
+        <v>3.896</v>
+      </c>
+      <c r="F790" t="n">
+        <v>103952.9409</v>
+      </c>
+      <c r="G790" t="n">
+        <v>-25713944.90267383</v>
+      </c>
+      <c r="H790" t="n">
+        <v>0</v>
+      </c>
+      <c r="I790" t="inlineStr"/>
+      <c r="J790" t="inlineStr"/>
+      <c r="K790" t="inlineStr"/>
+      <c r="L790" t="n">
+        <v>1</v>
+      </c>
+      <c r="M790" t="inlineStr"/>
+    </row>
+    <row r="791">
+      <c r="A791" s="1" t="n">
+        <v>789</v>
+      </c>
+      <c r="B791" t="n">
+        <v>3.897</v>
+      </c>
+      <c r="C791" t="n">
+        <v>3.897</v>
+      </c>
+      <c r="D791" t="n">
+        <v>3.897</v>
+      </c>
+      <c r="E791" t="n">
+        <v>3.897</v>
+      </c>
+      <c r="F791" t="n">
+        <v>151.1156</v>
+      </c>
+      <c r="G791" t="n">
+        <v>-25713793.78707382</v>
+      </c>
+      <c r="H791" t="n">
+        <v>0</v>
+      </c>
+      <c r="I791" t="inlineStr"/>
+      <c r="J791" t="inlineStr"/>
+      <c r="K791" t="inlineStr"/>
+      <c r="L791" t="n">
+        <v>1</v>
+      </c>
+      <c r="M791" t="inlineStr"/>
+    </row>
+    <row r="792">
+      <c r="A792" s="1" t="n">
+        <v>790</v>
+      </c>
+      <c r="B792" t="n">
+        <v>3.897</v>
+      </c>
+      <c r="C792" t="n">
+        <v>3.897</v>
+      </c>
+      <c r="D792" t="n">
+        <v>3.897</v>
+      </c>
+      <c r="E792" t="n">
+        <v>3.897</v>
+      </c>
+      <c r="F792" t="n">
+        <v>673.095</v>
+      </c>
+      <c r="G792" t="n">
+        <v>-25713793.78707382</v>
+      </c>
+      <c r="H792" t="n">
+        <v>0</v>
+      </c>
+      <c r="I792" t="inlineStr"/>
+      <c r="J792" t="inlineStr"/>
+      <c r="K792" t="inlineStr"/>
+      <c r="L792" t="n">
+        <v>1</v>
+      </c>
+      <c r="M792" t="inlineStr"/>
+    </row>
+    <row r="793">
+      <c r="A793" s="1" t="n">
+        <v>791</v>
+      </c>
+      <c r="B793" t="n">
+        <v>3.897</v>
+      </c>
+      <c r="C793" t="n">
+        <v>3.897</v>
+      </c>
+      <c r="D793" t="n">
+        <v>3.897</v>
+      </c>
+      <c r="E793" t="n">
+        <v>3.897</v>
+      </c>
+      <c r="F793" t="n">
+        <v>172.8876</v>
+      </c>
+      <c r="G793" t="n">
+        <v>-25713793.78707382</v>
+      </c>
+      <c r="H793" t="n">
+        <v>0</v>
+      </c>
+      <c r="I793" t="inlineStr"/>
+      <c r="J793" t="inlineStr"/>
+      <c r="K793" t="inlineStr"/>
+      <c r="L793" t="n">
+        <v>1</v>
+      </c>
+      <c r="M793" t="inlineStr"/>
+    </row>
+    <row r="794">
+      <c r="A794" s="1" t="n">
+        <v>792</v>
+      </c>
+      <c r="B794" t="n">
+        <v>3.896</v>
+      </c>
+      <c r="C794" t="n">
+        <v>3.896</v>
+      </c>
+      <c r="D794" t="n">
+        <v>3.896</v>
+      </c>
+      <c r="E794" t="n">
+        <v>3.896</v>
+      </c>
+      <c r="F794" t="n">
+        <v>266000</v>
+      </c>
+      <c r="G794" t="n">
+        <v>-25979793.78707382</v>
+      </c>
+      <c r="H794" t="n">
+        <v>0</v>
+      </c>
+      <c r="I794" t="inlineStr"/>
+      <c r="J794" t="inlineStr"/>
+      <c r="K794" t="inlineStr"/>
+      <c r="L794" t="n">
+        <v>1</v>
+      </c>
+      <c r="M794" t="inlineStr"/>
+    </row>
+    <row r="795">
+      <c r="A795" s="1" t="n">
+        <v>793</v>
+      </c>
+      <c r="B795" t="n">
+        <v>3.896</v>
+      </c>
+      <c r="C795" t="n">
+        <v>3.896</v>
+      </c>
+      <c r="D795" t="n">
+        <v>3.896</v>
+      </c>
+      <c r="E795" t="n">
+        <v>3.896</v>
+      </c>
+      <c r="F795" t="n">
+        <v>494.2253</v>
+      </c>
+      <c r="G795" t="n">
+        <v>-25979793.78707382</v>
+      </c>
+      <c r="H795" t="n">
+        <v>0</v>
+      </c>
+      <c r="I795" t="inlineStr"/>
+      <c r="J795" t="inlineStr"/>
+      <c r="K795" t="inlineStr"/>
+      <c r="L795" t="n">
+        <v>1</v>
+      </c>
+      <c r="M795" t="inlineStr"/>
+    </row>
+    <row r="796">
+      <c r="A796" s="1" t="n">
+        <v>794</v>
+      </c>
+      <c r="B796" t="n">
+        <v>3.871</v>
+      </c>
+      <c r="C796" t="n">
+        <v>3.871</v>
+      </c>
+      <c r="D796" t="n">
+        <v>3.871</v>
+      </c>
+      <c r="E796" t="n">
+        <v>3.871</v>
+      </c>
+      <c r="F796" t="n">
+        <v>294320.5311</v>
+      </c>
+      <c r="G796" t="n">
+        <v>-26274114.31817383</v>
+      </c>
+      <c r="H796" t="n">
+        <v>0</v>
+      </c>
+      <c r="I796" t="inlineStr"/>
+      <c r="J796" t="inlineStr"/>
+      <c r="K796" t="inlineStr"/>
+      <c r="L796" t="n">
+        <v>1</v>
+      </c>
+      <c r="M796" t="inlineStr"/>
+    </row>
+    <row r="797">
+      <c r="A797" s="1" t="n">
+        <v>795</v>
+      </c>
+      <c r="B797" t="n">
+        <v>3.872</v>
+      </c>
+      <c r="C797" t="n">
+        <v>3.893</v>
+      </c>
+      <c r="D797" t="n">
+        <v>3.893</v>
+      </c>
+      <c r="E797" t="n">
+        <v>3.872</v>
+      </c>
+      <c r="F797" t="n">
+        <v>3732.4613</v>
+      </c>
+      <c r="G797" t="n">
+        <v>-26270381.85687383</v>
+      </c>
+      <c r="H797" t="n">
+        <v>0</v>
+      </c>
+      <c r="I797" t="inlineStr"/>
+      <c r="J797" t="inlineStr"/>
+      <c r="K797" t="inlineStr"/>
+      <c r="L797" t="n">
+        <v>1</v>
+      </c>
+      <c r="M797" t="inlineStr"/>
+    </row>
+    <row r="798">
+      <c r="A798" s="1" t="n">
+        <v>796</v>
+      </c>
+      <c r="B798" t="n">
+        <v>3.893</v>
+      </c>
+      <c r="C798" t="n">
+        <v>3.871</v>
+      </c>
+      <c r="D798" t="n">
+        <v>3.893</v>
+      </c>
+      <c r="E798" t="n">
+        <v>3.871</v>
+      </c>
+      <c r="F798" t="n">
+        <v>7196.454</v>
+      </c>
+      <c r="G798" t="n">
+        <v>-26277578.31087383</v>
+      </c>
+      <c r="H798" t="n">
+        <v>0</v>
+      </c>
+      <c r="I798" t="inlineStr"/>
+      <c r="J798" t="inlineStr"/>
+      <c r="K798" t="inlineStr"/>
+      <c r="L798" t="n">
+        <v>1</v>
+      </c>
+      <c r="M798" t="inlineStr"/>
+    </row>
+    <row r="799">
+      <c r="A799" s="1" t="n">
+        <v>797</v>
+      </c>
+      <c r="B799" t="n">
+        <v>3.872</v>
+      </c>
+      <c r="C799" t="n">
+        <v>3.872</v>
+      </c>
+      <c r="D799" t="n">
+        <v>3.872</v>
+      </c>
+      <c r="E799" t="n">
+        <v>3.872</v>
+      </c>
+      <c r="F799" t="n">
+        <v>483.56</v>
+      </c>
+      <c r="G799" t="n">
+        <v>-26277094.75087383</v>
+      </c>
+      <c r="H799" t="n">
+        <v>0</v>
+      </c>
+      <c r="I799" t="inlineStr"/>
+      <c r="J799" t="inlineStr"/>
+      <c r="K799" t="inlineStr"/>
+      <c r="L799" t="n">
+        <v>1</v>
+      </c>
+      <c r="M799" t="inlineStr"/>
+    </row>
+    <row r="800">
+      <c r="A800" s="1" t="n">
+        <v>798</v>
+      </c>
+      <c r="B800" t="n">
+        <v>3.873</v>
+      </c>
+      <c r="C800" t="n">
+        <v>3.873</v>
+      </c>
+      <c r="D800" t="n">
+        <v>3.873</v>
+      </c>
+      <c r="E800" t="n">
+        <v>3.873</v>
+      </c>
+      <c r="F800" t="n">
+        <v>1724.443</v>
+      </c>
+      <c r="G800" t="n">
+        <v>-26275370.30787383</v>
+      </c>
+      <c r="H800" t="n">
+        <v>0</v>
+      </c>
+      <c r="I800" t="inlineStr"/>
+      <c r="J800" t="inlineStr"/>
+      <c r="K800" t="inlineStr"/>
+      <c r="L800" t="n">
+        <v>1</v>
+      </c>
+      <c r="M800" t="inlineStr"/>
+    </row>
+    <row r="801">
+      <c r="A801" s="1" t="n">
+        <v>799</v>
+      </c>
+      <c r="B801" t="n">
+        <v>3.874</v>
+      </c>
+      <c r="C801" t="n">
+        <v>3.874</v>
+      </c>
+      <c r="D801" t="n">
+        <v>3.874</v>
+      </c>
+      <c r="E801" t="n">
+        <v>3.874</v>
+      </c>
+      <c r="F801" t="n">
+        <v>2546.473</v>
+      </c>
+      <c r="G801" t="n">
+        <v>-26272823.83487383</v>
+      </c>
+      <c r="H801" t="n">
+        <v>0</v>
+      </c>
+      <c r="I801" t="inlineStr"/>
+      <c r="J801" t="inlineStr"/>
+      <c r="K801" t="inlineStr"/>
+      <c r="L801" t="n">
+        <v>1</v>
+      </c>
+      <c r="M801" t="inlineStr"/>
+    </row>
+    <row r="802">
+      <c r="A802" s="1" t="n">
+        <v>800</v>
+      </c>
+      <c r="B802" t="n">
+        <v>3.875</v>
+      </c>
+      <c r="C802" t="n">
+        <v>3.875</v>
+      </c>
+      <c r="D802" t="n">
+        <v>3.875</v>
+      </c>
+      <c r="E802" t="n">
+        <v>3.875</v>
+      </c>
+      <c r="F802" t="n">
+        <v>806.481</v>
+      </c>
+      <c r="G802" t="n">
+        <v>-26272017.35387383</v>
+      </c>
+      <c r="H802" t="n">
+        <v>0</v>
+      </c>
+      <c r="I802" t="inlineStr"/>
+      <c r="J802" t="inlineStr"/>
+      <c r="K802" t="inlineStr"/>
+      <c r="L802" t="n">
+        <v>1</v>
+      </c>
+      <c r="M802" t="inlineStr"/>
+    </row>
+    <row r="803">
+      <c r="A803" s="1" t="n">
+        <v>801</v>
+      </c>
+      <c r="B803" t="n">
+        <v>3.873</v>
+      </c>
+      <c r="C803" t="n">
+        <v>3.873</v>
+      </c>
+      <c r="D803" t="n">
+        <v>3.873</v>
+      </c>
+      <c r="E803" t="n">
+        <v>3.873</v>
+      </c>
+      <c r="F803" t="n">
+        <v>1789.183</v>
+      </c>
+      <c r="G803" t="n">
+        <v>-26273806.53687382</v>
+      </c>
+      <c r="H803" t="n">
+        <v>0</v>
+      </c>
+      <c r="I803" t="inlineStr"/>
+      <c r="J803" t="inlineStr"/>
+      <c r="K803" t="inlineStr"/>
+      <c r="L803" t="n">
+        <v>1</v>
+      </c>
+      <c r="M803" t="inlineStr"/>
+    </row>
+    <row r="804">
+      <c r="A804" s="1" t="n">
+        <v>802</v>
+      </c>
+      <c r="B804" t="n">
+        <v>3.872</v>
+      </c>
+      <c r="C804" t="n">
+        <v>3.872</v>
+      </c>
+      <c r="D804" t="n">
+        <v>3.872</v>
+      </c>
+      <c r="E804" t="n">
+        <v>3.872</v>
+      </c>
+      <c r="F804" t="n">
+        <v>3194.92</v>
+      </c>
+      <c r="G804" t="n">
+        <v>-26277001.45687383</v>
+      </c>
+      <c r="H804" t="n">
+        <v>0</v>
+      </c>
+      <c r="I804" t="inlineStr"/>
+      <c r="J804" t="inlineStr"/>
+      <c r="K804" t="inlineStr"/>
+      <c r="L804" t="n">
+        <v>1</v>
+      </c>
+      <c r="M804" t="inlineStr"/>
+    </row>
+    <row r="805">
+      <c r="A805" s="1" t="n">
+        <v>803</v>
+      </c>
+      <c r="B805" t="n">
+        <v>3.871</v>
+      </c>
+      <c r="C805" t="n">
+        <v>3.846</v>
+      </c>
+      <c r="D805" t="n">
+        <v>3.871</v>
+      </c>
+      <c r="E805" t="n">
+        <v>3.846</v>
+      </c>
+      <c r="F805" t="n">
+        <v>231360.5718</v>
+      </c>
+      <c r="G805" t="n">
+        <v>-26508362.02867383</v>
+      </c>
+      <c r="H805" t="n">
+        <v>0</v>
+      </c>
+      <c r="I805" t="inlineStr"/>
+      <c r="J805" t="inlineStr"/>
+      <c r="K805" t="inlineStr"/>
+      <c r="L805" t="n">
+        <v>1</v>
+      </c>
+      <c r="M805" t="inlineStr"/>
+    </row>
+    <row r="806">
+      <c r="A806" s="1" t="n">
+        <v>804</v>
+      </c>
+      <c r="B806" t="n">
+        <v>3.851</v>
+      </c>
+      <c r="C806" t="n">
+        <v>3.851</v>
+      </c>
+      <c r="D806" t="n">
+        <v>3.851</v>
+      </c>
+      <c r="E806" t="n">
+        <v>3.851</v>
+      </c>
+      <c r="F806" t="n">
+        <v>896.153</v>
+      </c>
+      <c r="G806" t="n">
+        <v>-26507465.87567383</v>
+      </c>
+      <c r="H806" t="n">
+        <v>0</v>
+      </c>
+      <c r="I806" t="inlineStr"/>
+      <c r="J806" t="inlineStr"/>
+      <c r="K806" t="inlineStr"/>
+      <c r="L806" t="n">
+        <v>1</v>
+      </c>
+      <c r="M806" t="inlineStr"/>
+    </row>
+    <row r="807">
+      <c r="A807" s="1" t="n">
+        <v>805</v>
+      </c>
+      <c r="B807" t="n">
+        <v>3.851</v>
+      </c>
+      <c r="C807" t="n">
+        <v>3.851</v>
+      </c>
+      <c r="D807" t="n">
+        <v>3.851</v>
+      </c>
+      <c r="E807" t="n">
+        <v>3.851</v>
+      </c>
+      <c r="F807" t="n">
+        <v>1654.989</v>
+      </c>
+      <c r="G807" t="n">
+        <v>-26507465.87567383</v>
+      </c>
+      <c r="H807" t="n">
+        <v>0</v>
+      </c>
+      <c r="I807" t="inlineStr"/>
+      <c r="J807" t="inlineStr"/>
+      <c r="K807" t="inlineStr"/>
+      <c r="L807" t="n">
+        <v>1</v>
+      </c>
+      <c r="M807" t="inlineStr"/>
+    </row>
+    <row r="808">
+      <c r="A808" s="1" t="n">
+        <v>806</v>
+      </c>
+      <c r="B808" t="n">
+        <v>3.853</v>
+      </c>
+      <c r="C808" t="n">
+        <v>3.853</v>
+      </c>
+      <c r="D808" t="n">
+        <v>3.853</v>
+      </c>
+      <c r="E808" t="n">
+        <v>3.853</v>
+      </c>
+      <c r="F808" t="n">
+        <v>2506.46</v>
+      </c>
+      <c r="G808" t="n">
+        <v>-26504959.41567383</v>
+      </c>
+      <c r="H808" t="n">
+        <v>0</v>
+      </c>
+      <c r="I808" t="inlineStr"/>
+      <c r="J808" t="inlineStr"/>
+      <c r="K808" t="inlineStr"/>
+      <c r="L808" t="n">
+        <v>1</v>
+      </c>
+      <c r="M808" t="inlineStr"/>
+    </row>
+    <row r="809">
+      <c r="A809" s="1" t="n">
+        <v>807</v>
+      </c>
+      <c r="B809" t="n">
+        <v>3.856</v>
+      </c>
+      <c r="C809" t="n">
+        <v>3.856</v>
+      </c>
+      <c r="D809" t="n">
+        <v>3.856</v>
+      </c>
+      <c r="E809" t="n">
+        <v>3.856</v>
+      </c>
+      <c r="F809" t="n">
+        <v>1073.064</v>
+      </c>
+      <c r="G809" t="n">
+        <v>-26503886.35167383</v>
+      </c>
+      <c r="H809" t="n">
+        <v>0</v>
+      </c>
+      <c r="I809" t="inlineStr"/>
+      <c r="J809" t="inlineStr"/>
+      <c r="K809" t="inlineStr"/>
+      <c r="L809" t="n">
+        <v>1</v>
+      </c>
+      <c r="M809" t="inlineStr"/>
+    </row>
+    <row r="810">
+      <c r="A810" s="1" t="n">
+        <v>808</v>
+      </c>
+      <c r="B810" t="n">
+        <v>3.858</v>
+      </c>
+      <c r="C810" t="n">
+        <v>3.858</v>
+      </c>
+      <c r="D810" t="n">
+        <v>3.858</v>
+      </c>
+      <c r="E810" t="n">
+        <v>3.858</v>
+      </c>
+      <c r="F810" t="n">
+        <v>2626.489</v>
+      </c>
+      <c r="G810" t="n">
+        <v>-26501259.86267383</v>
+      </c>
+      <c r="H810" t="n">
+        <v>0</v>
+      </c>
+      <c r="I810" t="inlineStr"/>
+      <c r="J810" t="inlineStr"/>
+      <c r="K810" t="inlineStr"/>
+      <c r="L810" t="n">
+        <v>1</v>
+      </c>
+      <c r="M810" t="inlineStr"/>
+    </row>
+    <row r="811">
+      <c r="A811" s="1" t="n">
+        <v>809</v>
+      </c>
+      <c r="B811" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="C811" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="D811" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="E811" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="F811" t="n">
+        <v>3284.183</v>
+      </c>
+      <c r="G811" t="n">
+        <v>-26497975.67967383</v>
+      </c>
+      <c r="H811" t="n">
+        <v>0</v>
+      </c>
+      <c r="I811" t="inlineStr"/>
+      <c r="J811" t="inlineStr"/>
+      <c r="K811" t="inlineStr"/>
+      <c r="L811" t="n">
+        <v>1</v>
+      </c>
+      <c r="M811" t="inlineStr"/>
+    </row>
+    <row r="812">
+      <c r="A812" s="1" t="n">
+        <v>810</v>
+      </c>
+      <c r="B812" t="n">
+        <v>3.862</v>
+      </c>
+      <c r="C812" t="n">
+        <v>3.862</v>
+      </c>
+      <c r="D812" t="n">
+        <v>3.862</v>
+      </c>
+      <c r="E812" t="n">
+        <v>3.862</v>
+      </c>
+      <c r="F812" t="n">
+        <v>496.337</v>
+      </c>
+      <c r="G812" t="n">
+        <v>-26497479.34267383</v>
+      </c>
+      <c r="H812" t="n">
+        <v>0</v>
+      </c>
+      <c r="I812" t="inlineStr"/>
+      <c r="J812" t="inlineStr"/>
+      <c r="K812" t="inlineStr"/>
+      <c r="L812" t="n">
+        <v>1</v>
+      </c>
+      <c r="M812" t="inlineStr"/>
+    </row>
+    <row r="813">
+      <c r="A813" s="1" t="n">
+        <v>811</v>
+      </c>
+      <c r="B813" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="C813" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="D813" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="E813" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="F813" t="n">
+        <v>1498.244</v>
+      </c>
+      <c r="G813" t="n">
+        <v>-26498977.58667383</v>
+      </c>
+      <c r="H813" t="n">
+        <v>0</v>
+      </c>
+      <c r="I813" t="inlineStr"/>
+      <c r="J813" t="inlineStr"/>
+      <c r="K813" t="inlineStr"/>
+      <c r="L813" t="n">
+        <v>1</v>
+      </c>
+      <c r="M813" t="inlineStr"/>
+    </row>
+    <row r="814">
+      <c r="A814" s="1" t="n">
+        <v>812</v>
+      </c>
+      <c r="B814" t="n">
+        <v>3.862</v>
+      </c>
+      <c r="C814" t="n">
+        <v>3.862</v>
+      </c>
+      <c r="D814" t="n">
+        <v>3.862</v>
+      </c>
+      <c r="E814" t="n">
+        <v>3.862</v>
+      </c>
+      <c r="F814" t="n">
+        <v>5714.397</v>
+      </c>
+      <c r="G814" t="n">
+        <v>-26493263.18967383</v>
+      </c>
+      <c r="H814" t="n">
+        <v>0</v>
+      </c>
+      <c r="I814" t="inlineStr"/>
+      <c r="J814" t="inlineStr"/>
+      <c r="K814" t="inlineStr"/>
+      <c r="L814" t="n">
+        <v>1</v>
+      </c>
+      <c r="M814" t="inlineStr"/>
+    </row>
+    <row r="815">
+      <c r="A815" s="1" t="n">
+        <v>813</v>
+      </c>
+      <c r="B815" t="n">
+        <v>3.858</v>
+      </c>
+      <c r="C815" t="n">
+        <v>3.858</v>
+      </c>
+      <c r="D815" t="n">
+        <v>3.858</v>
+      </c>
+      <c r="E815" t="n">
+        <v>3.858</v>
+      </c>
+      <c r="F815" t="n">
+        <v>1246.353</v>
+      </c>
+      <c r="G815" t="n">
+        <v>-26494509.54267383</v>
+      </c>
+      <c r="H815" t="n">
+        <v>0</v>
+      </c>
+      <c r="I815" t="inlineStr"/>
+      <c r="J815" t="inlineStr"/>
+      <c r="K815" t="inlineStr"/>
+      <c r="L815" t="n">
+        <v>1</v>
+      </c>
+      <c r="M815" t="inlineStr"/>
+    </row>
+    <row r="816">
+      <c r="A816" s="1" t="n">
+        <v>814</v>
+      </c>
+      <c r="B816" t="n">
+        <v>3.861</v>
+      </c>
+      <c r="C816" t="n">
+        <v>3.861</v>
+      </c>
+      <c r="D816" t="n">
+        <v>3.861</v>
+      </c>
+      <c r="E816" t="n">
+        <v>3.861</v>
+      </c>
+      <c r="F816" t="n">
+        <v>10742.498</v>
+      </c>
+      <c r="G816" t="n">
+        <v>-26483767.04467383</v>
+      </c>
+      <c r="H816" t="n">
+        <v>0</v>
+      </c>
+      <c r="I816" t="inlineStr"/>
+      <c r="J816" t="inlineStr"/>
+      <c r="K816" t="inlineStr"/>
+      <c r="L816" t="n">
+        <v>1</v>
+      </c>
+      <c r="M816" t="inlineStr"/>
+    </row>
+    <row r="817">
+      <c r="A817" s="1" t="n">
+        <v>815</v>
+      </c>
+      <c r="B817" t="n">
+        <v>3.864</v>
+      </c>
+      <c r="C817" t="n">
+        <v>3.864</v>
+      </c>
+      <c r="D817" t="n">
+        <v>3.864</v>
+      </c>
+      <c r="E817" t="n">
+        <v>3.864</v>
+      </c>
+      <c r="F817" t="n">
+        <v>12002.705</v>
+      </c>
+      <c r="G817" t="n">
+        <v>-26471764.33967383</v>
+      </c>
+      <c r="H817" t="n">
+        <v>0</v>
+      </c>
+      <c r="I817" t="inlineStr"/>
+      <c r="J817" t="inlineStr"/>
+      <c r="K817" t="inlineStr"/>
+      <c r="L817" t="n">
+        <v>1</v>
+      </c>
+      <c r="M817" t="inlineStr"/>
+    </row>
+    <row r="818">
+      <c r="A818" s="1" t="n">
+        <v>816</v>
+      </c>
+      <c r="B818" t="n">
+        <v>3.892</v>
+      </c>
+      <c r="C818" t="n">
+        <v>3.892</v>
+      </c>
+      <c r="D818" t="n">
+        <v>3.892</v>
+      </c>
+      <c r="E818" t="n">
+        <v>3.892</v>
+      </c>
+      <c r="F818" t="n">
+        <v>500</v>
+      </c>
+      <c r="G818" t="n">
+        <v>-26471264.33967383</v>
+      </c>
+      <c r="H818" t="n">
+        <v>0</v>
+      </c>
+      <c r="I818" t="inlineStr"/>
+      <c r="J818" t="inlineStr"/>
+      <c r="K818" t="inlineStr"/>
+      <c r="L818" t="n">
+        <v>1</v>
+      </c>
+      <c r="M818" t="inlineStr"/>
+    </row>
+    <row r="819">
+      <c r="A819" s="1" t="n">
+        <v>817</v>
+      </c>
+      <c r="B819" t="n">
+        <v>3.888</v>
+      </c>
+      <c r="C819" t="n">
+        <v>3.888</v>
+      </c>
+      <c r="D819" t="n">
+        <v>3.888</v>
+      </c>
+      <c r="E819" t="n">
+        <v>3.888</v>
+      </c>
+      <c r="F819" t="n">
+        <v>532.168</v>
+      </c>
+      <c r="G819" t="n">
+        <v>-26471796.50767383</v>
+      </c>
+      <c r="H819" t="n">
+        <v>0</v>
+      </c>
+      <c r="I819" t="inlineStr"/>
+      <c r="J819" t="inlineStr"/>
+      <c r="K819" t="inlineStr"/>
+      <c r="L819" t="n">
+        <v>1</v>
+      </c>
+      <c r="M819" t="inlineStr"/>
+    </row>
+    <row r="820">
+      <c r="A820" s="1" t="n">
+        <v>818</v>
+      </c>
+      <c r="B820" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="C820" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="D820" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="E820" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="F820" t="n">
+        <v>1119.172</v>
+      </c>
+      <c r="G820" t="n">
+        <v>-26470677.33567383</v>
+      </c>
+      <c r="H820" t="n">
+        <v>0</v>
+      </c>
+      <c r="I820" t="inlineStr"/>
+      <c r="J820" t="inlineStr"/>
+      <c r="K820" t="inlineStr"/>
+      <c r="L820" t="n">
+        <v>1</v>
+      </c>
+      <c r="M820" t="inlineStr"/>
+    </row>
+    <row r="821">
+      <c r="A821" s="1" t="n">
+        <v>819</v>
+      </c>
+      <c r="B821" t="n">
+        <v>3.886</v>
+      </c>
+      <c r="C821" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="D821" t="n">
+        <v>3.886</v>
+      </c>
+      <c r="E821" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="F821" t="n">
+        <v>2884.6333</v>
+      </c>
+      <c r="G821" t="n">
+        <v>-26473561.96897383</v>
+      </c>
+      <c r="H821" t="n">
+        <v>0</v>
+      </c>
+      <c r="I821" t="inlineStr"/>
+      <c r="J821" t="inlineStr"/>
+      <c r="K821" t="inlineStr"/>
+      <c r="L821" t="n">
+        <v>1</v>
+      </c>
+      <c r="M821" t="inlineStr"/>
+    </row>
+    <row r="822">
+      <c r="A822" s="1" t="n">
+        <v>820</v>
+      </c>
+      <c r="B822" t="n">
+        <v>3.852</v>
+      </c>
+      <c r="C822" t="n">
+        <v>3.852</v>
+      </c>
+      <c r="D822" t="n">
+        <v>3.852</v>
+      </c>
+      <c r="E822" t="n">
+        <v>3.852</v>
+      </c>
+      <c r="F822" t="n">
+        <v>589.282</v>
+      </c>
+      <c r="G822" t="n">
+        <v>-26472972.68697383</v>
+      </c>
+      <c r="H822" t="n">
+        <v>0</v>
+      </c>
+      <c r="I822" t="inlineStr"/>
+      <c r="J822" t="inlineStr"/>
+      <c r="K822" t="inlineStr"/>
+      <c r="L822" t="n">
+        <v>1</v>
+      </c>
+      <c r="M822" t="inlineStr"/>
+    </row>
+    <row r="823">
+      <c r="A823" s="1" t="n">
+        <v>821</v>
+      </c>
+      <c r="B823" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="C823" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="D823" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="E823" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="F823" t="n">
+        <v>3492.57</v>
+      </c>
+      <c r="G823" t="n">
+        <v>-26469480.11697383</v>
+      </c>
+      <c r="H823" t="n">
+        <v>0</v>
+      </c>
+      <c r="I823" t="inlineStr"/>
+      <c r="J823" t="inlineStr"/>
+      <c r="K823" t="inlineStr"/>
+      <c r="L823" t="n">
+        <v>1</v>
+      </c>
+      <c r="M823" t="inlineStr"/>
+    </row>
+    <row r="824">
+      <c r="A824" s="1" t="n">
+        <v>822</v>
+      </c>
+      <c r="B824" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="C824" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="D824" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="E824" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="F824" t="n">
+        <v>5274.793</v>
+      </c>
+      <c r="G824" t="n">
+        <v>-26474754.90997383</v>
+      </c>
+      <c r="H824" t="n">
+        <v>0</v>
+      </c>
+      <c r="I824" t="inlineStr"/>
+      <c r="J824" t="inlineStr"/>
+      <c r="K824" t="inlineStr"/>
+      <c r="L824" t="n">
+        <v>1</v>
+      </c>
+      <c r="M824" t="inlineStr"/>
+    </row>
+    <row r="825">
+      <c r="A825" s="1" t="n">
+        <v>823</v>
+      </c>
+      <c r="B825" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="C825" t="n">
+        <v>3.892</v>
+      </c>
+      <c r="D825" t="n">
+        <v>3.892</v>
+      </c>
+      <c r="E825" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="F825" t="n">
+        <v>6935.5868</v>
+      </c>
+      <c r="G825" t="n">
+        <v>-26467819.32317383</v>
+      </c>
+      <c r="H825" t="n">
+        <v>0</v>
+      </c>
+      <c r="I825" t="inlineStr"/>
+      <c r="J825" t="inlineStr"/>
+      <c r="K825" t="inlineStr"/>
+      <c r="L825" t="n">
+        <v>1</v>
+      </c>
+      <c r="M825" t="inlineStr"/>
+    </row>
+    <row r="826">
+      <c r="A826" s="1" t="n">
+        <v>824</v>
+      </c>
+      <c r="B826" t="n">
+        <v>3.893</v>
+      </c>
+      <c r="C826" t="n">
+        <v>3.893</v>
+      </c>
+      <c r="D826" t="n">
+        <v>3.893</v>
+      </c>
+      <c r="E826" t="n">
+        <v>3.893</v>
+      </c>
+      <c r="F826" t="n">
+        <v>628.456</v>
+      </c>
+      <c r="G826" t="n">
+        <v>-26467190.86717383</v>
+      </c>
+      <c r="H826" t="n">
+        <v>0</v>
+      </c>
+      <c r="I826" t="inlineStr"/>
+      <c r="J826" t="inlineStr"/>
+      <c r="K826" t="inlineStr"/>
+      <c r="L826" t="n">
+        <v>1</v>
+      </c>
+      <c r="M826" t="inlineStr"/>
+    </row>
+    <row r="827">
+      <c r="A827" s="1" t="n">
+        <v>825</v>
+      </c>
+      <c r="B827" t="n">
+        <v>3.894</v>
+      </c>
+      <c r="C827" t="n">
+        <v>3.894</v>
+      </c>
+      <c r="D827" t="n">
+        <v>3.894</v>
+      </c>
+      <c r="E827" t="n">
+        <v>3.894</v>
+      </c>
+      <c r="F827" t="n">
+        <v>5004.857</v>
+      </c>
+      <c r="G827" t="n">
+        <v>-26462186.01017383</v>
+      </c>
+      <c r="H827" t="n">
+        <v>0</v>
+      </c>
+      <c r="I827" t="inlineStr"/>
+      <c r="J827" t="inlineStr"/>
+      <c r="K827" t="inlineStr"/>
+      <c r="L827" t="n">
+        <v>1</v>
+      </c>
+      <c r="M827" t="inlineStr"/>
+    </row>
+    <row r="828">
+      <c r="A828" s="1" t="n">
+        <v>826</v>
+      </c>
+      <c r="B828" t="n">
+        <v>3.894</v>
+      </c>
+      <c r="C828" t="n">
+        <v>3.894</v>
+      </c>
+      <c r="D828" t="n">
+        <v>3.894</v>
+      </c>
+      <c r="E828" t="n">
+        <v>3.894</v>
+      </c>
+      <c r="F828" t="n">
+        <v>9856.588</v>
+      </c>
+      <c r="G828" t="n">
+        <v>-26462186.01017383</v>
+      </c>
+      <c r="H828" t="n">
+        <v>0</v>
+      </c>
+      <c r="I828" t="inlineStr"/>
+      <c r="J828" t="inlineStr"/>
+      <c r="K828" t="inlineStr"/>
+      <c r="L828" t="n">
+        <v>1</v>
+      </c>
+      <c r="M828" t="inlineStr"/>
+    </row>
+    <row r="829">
+      <c r="A829" s="1" t="n">
+        <v>827</v>
+      </c>
+      <c r="B829" t="n">
+        <v>3.894</v>
+      </c>
+      <c r="C829" t="n">
+        <v>3.894</v>
+      </c>
+      <c r="D829" t="n">
+        <v>3.894</v>
+      </c>
+      <c r="E829" t="n">
+        <v>3.894</v>
+      </c>
+      <c r="F829" t="n">
+        <v>865.369</v>
+      </c>
+      <c r="G829" t="n">
+        <v>-26462186.01017383</v>
+      </c>
+      <c r="H829" t="n">
+        <v>0</v>
+      </c>
+      <c r="I829" t="inlineStr"/>
+      <c r="J829" t="inlineStr"/>
+      <c r="K829" t="inlineStr"/>
+      <c r="L829" t="n">
+        <v>1</v>
+      </c>
+      <c r="M829" t="inlineStr"/>
+    </row>
+    <row r="830">
+      <c r="A830" s="1" t="n">
+        <v>828</v>
+      </c>
+      <c r="B830" t="n">
+        <v>3.894</v>
+      </c>
+      <c r="C830" t="n">
+        <v>3.894</v>
+      </c>
+      <c r="D830" t="n">
+        <v>3.894</v>
+      </c>
+      <c r="E830" t="n">
+        <v>3.894</v>
+      </c>
+      <c r="F830" t="n">
+        <v>150000</v>
+      </c>
+      <c r="G830" t="n">
+        <v>-26462186.01017383</v>
+      </c>
+      <c r="H830" t="n">
+        <v>0</v>
+      </c>
+      <c r="I830" t="inlineStr"/>
+      <c r="J830" t="inlineStr"/>
+      <c r="K830" t="inlineStr"/>
+      <c r="L830" t="n">
+        <v>1</v>
+      </c>
+      <c r="M830" t="inlineStr"/>
+    </row>
+    <row r="831">
+      <c r="A831" s="1" t="n">
+        <v>829</v>
+      </c>
+      <c r="B831" t="n">
+        <v>3.894</v>
+      </c>
+      <c r="C831" t="n">
+        <v>3.894</v>
+      </c>
+      <c r="D831" t="n">
+        <v>3.894</v>
+      </c>
+      <c r="E831" t="n">
+        <v>3.894</v>
+      </c>
+      <c r="F831" t="n">
+        <v>53563.5199</v>
+      </c>
+      <c r="G831" t="n">
+        <v>-26462186.01017383</v>
+      </c>
+      <c r="H831" t="n">
+        <v>0</v>
+      </c>
+      <c r="I831" t="inlineStr"/>
+      <c r="J831" t="inlineStr"/>
+      <c r="K831" t="inlineStr"/>
+      <c r="L831" t="n">
+        <v>1</v>
+      </c>
+      <c r="M831" t="inlineStr"/>
+    </row>
+    <row r="832">
+      <c r="A832" s="1" t="n">
+        <v>830</v>
+      </c>
+      <c r="B832" t="n">
+        <v>3.894</v>
+      </c>
+      <c r="C832" t="n">
+        <v>3.894</v>
+      </c>
+      <c r="D832" t="n">
+        <v>3.894</v>
+      </c>
+      <c r="E832" t="n">
+        <v>3.894</v>
+      </c>
+      <c r="F832" t="n">
+        <v>94932.1963</v>
+      </c>
+      <c r="G832" t="n">
+        <v>-26462186.01017383</v>
+      </c>
+      <c r="H832" t="n">
+        <v>0</v>
+      </c>
+      <c r="I832" t="inlineStr"/>
+      <c r="J832" t="inlineStr"/>
+      <c r="K832" t="inlineStr"/>
+      <c r="L832" t="n">
+        <v>1</v>
+      </c>
+      <c r="M832" t="inlineStr"/>
+    </row>
+    <row r="833">
+      <c r="A833" s="1" t="n">
+        <v>831</v>
+      </c>
+      <c r="B833" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="C833" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="D833" t="n">
+        <v>3.891</v>
+      </c>
+      <c r="E833" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="F833" t="n">
+        <v>29353.668</v>
+      </c>
+      <c r="G833" t="n">
+        <v>-26491539.67817383</v>
+      </c>
+      <c r="H833" t="n">
+        <v>0</v>
+      </c>
+      <c r="I833" t="inlineStr"/>
+      <c r="J833" t="inlineStr"/>
+      <c r="K833" t="inlineStr"/>
+      <c r="L833" t="n">
+        <v>1</v>
+      </c>
+      <c r="M833" t="inlineStr"/>
+    </row>
+    <row r="834">
+      <c r="A834" s="1" t="n">
+        <v>832</v>
+      </c>
+      <c r="B834" t="n">
+        <v>3.888</v>
+      </c>
+      <c r="C834" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="D834" t="n">
+        <v>3.888</v>
+      </c>
+      <c r="E834" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="F834" t="n">
+        <v>76910.9279</v>
+      </c>
+      <c r="G834" t="n">
+        <v>-26568450.60607383</v>
+      </c>
+      <c r="H834" t="n">
+        <v>0</v>
+      </c>
+      <c r="I834" t="inlineStr"/>
+      <c r="J834" t="inlineStr"/>
+      <c r="K834" t="inlineStr"/>
+      <c r="L834" t="n">
+        <v>1</v>
+      </c>
+      <c r="M834" t="inlineStr"/>
+    </row>
+    <row r="835">
+      <c r="A835" s="1" t="n">
+        <v>833</v>
+      </c>
+      <c r="B835" t="n">
+        <v>3.851</v>
+      </c>
+      <c r="C835" t="n">
+        <v>3.861</v>
+      </c>
+      <c r="D835" t="n">
+        <v>3.861</v>
+      </c>
+      <c r="E835" t="n">
+        <v>3.851</v>
+      </c>
+      <c r="F835" t="n">
+        <v>27243.2711</v>
+      </c>
+      <c r="G835" t="n">
+        <v>-26541207.33497383</v>
+      </c>
+      <c r="H835" t="n">
+        <v>0</v>
+      </c>
+      <c r="I835" t="inlineStr"/>
+      <c r="J835" t="inlineStr"/>
+      <c r="K835" t="inlineStr"/>
+      <c r="L835" t="n">
+        <v>1</v>
+      </c>
+      <c r="M835" t="inlineStr"/>
+    </row>
+    <row r="836">
+      <c r="A836" s="1" t="n">
+        <v>834</v>
+      </c>
+      <c r="B836" t="n">
+        <v>3.861</v>
+      </c>
+      <c r="C836" t="n">
+        <v>3.861</v>
+      </c>
+      <c r="D836" t="n">
+        <v>3.861</v>
+      </c>
+      <c r="E836" t="n">
+        <v>3.861</v>
+      </c>
+      <c r="F836" t="n">
+        <v>2390.888</v>
+      </c>
+      <c r="G836" t="n">
+        <v>-26541207.33497383</v>
+      </c>
+      <c r="H836" t="n">
+        <v>0</v>
+      </c>
+      <c r="I836" t="inlineStr"/>
+      <c r="J836" t="inlineStr"/>
+      <c r="K836" t="inlineStr"/>
+      <c r="L836" t="n">
+        <v>1</v>
+      </c>
+      <c r="M836" t="inlineStr"/>
+    </row>
+    <row r="837">
+      <c r="A837" s="1" t="n">
+        <v>835</v>
+      </c>
+      <c r="B837" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="C837" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="D837" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="E837" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="F837" t="n">
+        <v>25000</v>
+      </c>
+      <c r="G837" t="n">
+        <v>-26566207.33497383</v>
+      </c>
+      <c r="H837" t="n">
+        <v>0</v>
+      </c>
+      <c r="I837" t="inlineStr"/>
+      <c r="J837" t="inlineStr"/>
+      <c r="K837" t="inlineStr"/>
+      <c r="L837" t="n">
+        <v>1</v>
+      </c>
+      <c r="M837" t="inlineStr"/>
+    </row>
+    <row r="838">
+      <c r="A838" s="1" t="n">
+        <v>836</v>
+      </c>
+      <c r="B838" t="n">
+        <v>3.861</v>
+      </c>
+      <c r="C838" t="n">
+        <v>3.861</v>
+      </c>
+      <c r="D838" t="n">
+        <v>3.861</v>
+      </c>
+      <c r="E838" t="n">
+        <v>3.861</v>
+      </c>
+      <c r="F838" t="n">
+        <v>3740.495</v>
+      </c>
+      <c r="G838" t="n">
+        <v>-26562466.83997383</v>
+      </c>
+      <c r="H838" t="n">
+        <v>0</v>
+      </c>
+      <c r="I838" t="inlineStr"/>
+      <c r="J838" t="inlineStr"/>
+      <c r="K838" t="inlineStr"/>
+      <c r="L838" t="n">
+        <v>1</v>
+      </c>
+      <c r="M838" t="inlineStr"/>
+    </row>
+    <row r="839">
+      <c r="A839" s="1" t="n">
+        <v>837</v>
+      </c>
+      <c r="B839" t="n">
+        <v>3.862</v>
+      </c>
+      <c r="C839" t="n">
+        <v>3.862</v>
+      </c>
+      <c r="D839" t="n">
+        <v>3.862</v>
+      </c>
+      <c r="E839" t="n">
+        <v>3.862</v>
+      </c>
+      <c r="F839" t="n">
+        <v>1370.026</v>
+      </c>
+      <c r="G839" t="n">
+        <v>-26561096.81397383</v>
+      </c>
+      <c r="H839" t="n">
+        <v>0</v>
+      </c>
+      <c r="I839" t="inlineStr"/>
+      <c r="J839" t="inlineStr"/>
+      <c r="K839" t="inlineStr"/>
+      <c r="L839" t="n">
+        <v>1</v>
+      </c>
+      <c r="M839" t="inlineStr"/>
+    </row>
+    <row r="840">
+      <c r="A840" s="1" t="n">
+        <v>838</v>
+      </c>
+      <c r="B840" t="n">
+        <v>3.861</v>
+      </c>
+      <c r="C840" t="n">
+        <v>3.861</v>
+      </c>
+      <c r="D840" t="n">
+        <v>3.861</v>
+      </c>
+      <c r="E840" t="n">
+        <v>3.861</v>
+      </c>
+      <c r="F840" t="n">
+        <v>2709.164</v>
+      </c>
+      <c r="G840" t="n">
+        <v>-26563805.97797383</v>
+      </c>
+      <c r="H840" t="n">
+        <v>0</v>
+      </c>
+      <c r="I840" t="inlineStr"/>
+      <c r="J840" t="inlineStr"/>
+      <c r="K840" t="inlineStr"/>
+      <c r="L840" t="n">
+        <v>1</v>
+      </c>
+      <c r="M840" t="inlineStr"/>
+    </row>
+    <row r="841">
+      <c r="A841" s="1" t="n">
+        <v>839</v>
+      </c>
+      <c r="B841" t="n">
+        <v>3.861</v>
+      </c>
+      <c r="C841" t="n">
+        <v>3.861</v>
+      </c>
+      <c r="D841" t="n">
+        <v>3.861</v>
+      </c>
+      <c r="E841" t="n">
+        <v>3.861</v>
+      </c>
+      <c r="F841" t="n">
+        <v>4247.999</v>
+      </c>
+      <c r="G841" t="n">
+        <v>-26563805.97797383</v>
+      </c>
+      <c r="H841" t="n">
+        <v>0</v>
+      </c>
+      <c r="I841" t="inlineStr"/>
+      <c r="J841" t="inlineStr"/>
+      <c r="K841" t="inlineStr"/>
+      <c r="L841" t="n">
+        <v>1</v>
+      </c>
+      <c r="M841" t="inlineStr"/>
+    </row>
+    <row r="842">
+      <c r="A842" s="1" t="n">
+        <v>840</v>
+      </c>
+      <c r="B842" t="n">
+        <v>3.861</v>
+      </c>
+      <c r="C842" t="n">
+        <v>3.861</v>
+      </c>
+      <c r="D842" t="n">
+        <v>3.861</v>
+      </c>
+      <c r="E842" t="n">
+        <v>3.861</v>
+      </c>
+      <c r="F842" t="n">
+        <v>449.045</v>
+      </c>
+      <c r="G842" t="n">
+        <v>-26563805.97797383</v>
+      </c>
+      <c r="H842" t="n">
+        <v>0</v>
+      </c>
+      <c r="I842" t="inlineStr"/>
+      <c r="J842" t="inlineStr"/>
+      <c r="K842" t="inlineStr"/>
+      <c r="L842" t="n">
+        <v>1</v>
+      </c>
+      <c r="M842" t="inlineStr"/>
+    </row>
+    <row r="843">
+      <c r="A843" s="1" t="n">
+        <v>841</v>
+      </c>
+      <c r="B843" t="n">
+        <v>3.862</v>
+      </c>
+      <c r="C843" t="n">
+        <v>3.862</v>
+      </c>
+      <c r="D843" t="n">
+        <v>3.862</v>
+      </c>
+      <c r="E843" t="n">
+        <v>3.862</v>
+      </c>
+      <c r="F843" t="n">
+        <v>1346.546</v>
+      </c>
+      <c r="G843" t="n">
+        <v>-26562459.43197383</v>
+      </c>
+      <c r="H843" t="n">
+        <v>0</v>
+      </c>
+      <c r="I843" t="inlineStr"/>
+      <c r="J843" t="inlineStr"/>
+      <c r="K843" t="inlineStr"/>
+      <c r="L843" t="n">
+        <v>1</v>
+      </c>
+      <c r="M843" t="inlineStr"/>
+    </row>
+    <row r="844">
+      <c r="A844" s="1" t="n">
+        <v>842</v>
+      </c>
+      <c r="B844" t="n">
+        <v>3.863</v>
+      </c>
+      <c r="C844" t="n">
+        <v>3.863</v>
+      </c>
+      <c r="D844" t="n">
+        <v>3.863</v>
+      </c>
+      <c r="E844" t="n">
+        <v>3.863</v>
+      </c>
+      <c r="F844" t="n">
+        <v>2487.005</v>
+      </c>
+      <c r="G844" t="n">
+        <v>-26559972.42697383</v>
+      </c>
+      <c r="H844" t="n">
+        <v>0</v>
+      </c>
+      <c r="I844" t="inlineStr"/>
+      <c r="J844" t="inlineStr"/>
+      <c r="K844" t="inlineStr"/>
+      <c r="L844" t="n">
+        <v>1</v>
+      </c>
+      <c r="M844" t="inlineStr"/>
+    </row>
+    <row r="845">
+      <c r="A845" s="1" t="n">
+        <v>843</v>
+      </c>
+      <c r="B845" t="n">
+        <v>3.864</v>
+      </c>
+      <c r="C845" t="n">
+        <v>3.864</v>
+      </c>
+      <c r="D845" t="n">
+        <v>3.864</v>
+      </c>
+      <c r="E845" t="n">
+        <v>3.864</v>
+      </c>
+      <c r="F845" t="n">
+        <v>430.152</v>
+      </c>
+      <c r="G845" t="n">
+        <v>-26559542.27497383</v>
+      </c>
+      <c r="H845" t="n">
+        <v>0</v>
+      </c>
+      <c r="I845" t="inlineStr"/>
+      <c r="J845" t="inlineStr"/>
+      <c r="K845" t="inlineStr"/>
+      <c r="L845" t="n">
+        <v>1</v>
+      </c>
+      <c r="M845" t="inlineStr"/>
+    </row>
+    <row r="846">
+      <c r="A846" s="1" t="n">
+        <v>844</v>
+      </c>
+      <c r="B846" t="n">
+        <v>3.865</v>
+      </c>
+      <c r="C846" t="n">
+        <v>3.865</v>
+      </c>
+      <c r="D846" t="n">
+        <v>3.865</v>
+      </c>
+      <c r="E846" t="n">
+        <v>3.865</v>
+      </c>
+      <c r="F846" t="n">
+        <v>1596.328</v>
+      </c>
+      <c r="G846" t="n">
+        <v>-26557945.94697383</v>
+      </c>
+      <c r="H846" t="n">
+        <v>1</v>
+      </c>
+      <c r="I846" t="n">
+        <v>3.864</v>
+      </c>
+      <c r="J846" t="n">
+        <v>3.864</v>
+      </c>
+      <c r="K846" t="inlineStr"/>
+      <c r="L846" t="n">
+        <v>1</v>
+      </c>
+      <c r="M846" t="inlineStr"/>
+    </row>
+    <row r="847">
+      <c r="A847" s="1" t="n">
+        <v>845</v>
+      </c>
+      <c r="B847" t="n">
+        <v>3.863</v>
+      </c>
+      <c r="C847" t="n">
+        <v>3.863</v>
+      </c>
+      <c r="D847" t="n">
+        <v>3.863</v>
+      </c>
+      <c r="E847" t="n">
+        <v>3.863</v>
+      </c>
+      <c r="F847" t="n">
+        <v>3237.04</v>
+      </c>
+      <c r="G847" t="n">
+        <v>-26561182.98697383</v>
+      </c>
+      <c r="H847" t="n">
+        <v>0</v>
+      </c>
+      <c r="I847" t="inlineStr"/>
+      <c r="J847" t="n">
+        <v>3.864</v>
+      </c>
+      <c r="K847" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L753" t="n">
-        <v>1</v>
-      </c>
-      <c r="M753" t="inlineStr"/>
-    </row>
-    <row r="754">
-      <c r="A754" s="1" t="n">
-        <v>752</v>
-      </c>
-      <c r="B754" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="C754" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="D754" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="E754" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="F754" t="n">
-        <v>2404.9</v>
-      </c>
-      <c r="G754" t="n">
-        <v>-26081215.58674334</v>
-      </c>
-      <c r="H754" t="n">
-        <v>1</v>
-      </c>
-      <c r="I754" t="n">
-        <v>3.829</v>
-      </c>
-      <c r="J754" t="n">
-        <v>3.829</v>
-      </c>
-      <c r="K754" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L754" t="n">
-        <v>1</v>
-      </c>
-      <c r="M754" t="inlineStr"/>
-    </row>
-    <row r="755">
-      <c r="A755" s="1" t="n">
-        <v>753</v>
-      </c>
-      <c r="B755" t="n">
-        <v>3.821</v>
-      </c>
-      <c r="C755" t="n">
-        <v>3.821</v>
-      </c>
-      <c r="D755" t="n">
-        <v>3.821</v>
-      </c>
-      <c r="E755" t="n">
-        <v>3.821</v>
-      </c>
-      <c r="F755" t="n">
-        <v>4021.518</v>
-      </c>
-      <c r="G755" t="n">
-        <v>-26085237.10474334</v>
-      </c>
-      <c r="H755" t="n">
-        <v>1</v>
-      </c>
-      <c r="I755" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="J755" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="K755" t="inlineStr"/>
-      <c r="L755" t="n">
-        <v>1</v>
-      </c>
-      <c r="M755" t="inlineStr"/>
-    </row>
-    <row r="756">
-      <c r="A756" s="1" t="n">
-        <v>754</v>
-      </c>
-      <c r="B756" t="n">
-        <v>3.821</v>
-      </c>
-      <c r="C756" t="n">
-        <v>3.821</v>
-      </c>
-      <c r="D756" t="n">
-        <v>3.821</v>
-      </c>
-      <c r="E756" t="n">
-        <v>3.821</v>
-      </c>
-      <c r="F756" t="n">
-        <v>994.641</v>
-      </c>
-      <c r="G756" t="n">
-        <v>-26085237.10474334</v>
-      </c>
-      <c r="H756" t="n">
-        <v>1</v>
-      </c>
-      <c r="I756" t="n">
-        <v>3.821</v>
-      </c>
-      <c r="J756" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="K756" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L756" t="n">
-        <v>1</v>
-      </c>
-      <c r="M756" t="inlineStr"/>
-    </row>
-    <row r="757">
-      <c r="A757" s="1" t="n">
-        <v>755</v>
-      </c>
-      <c r="B757" t="n">
-        <v>3.841</v>
-      </c>
-      <c r="C757" t="n">
-        <v>3.841</v>
-      </c>
-      <c r="D757" t="n">
-        <v>3.841</v>
-      </c>
-      <c r="E757" t="n">
-        <v>3.841</v>
-      </c>
-      <c r="F757" t="n">
-        <v>2545.503</v>
-      </c>
-      <c r="G757" t="n">
-        <v>-26082691.60174334</v>
-      </c>
-      <c r="H757" t="n">
-        <v>1</v>
-      </c>
-      <c r="I757" t="n">
-        <v>3.821</v>
-      </c>
-      <c r="J757" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="K757" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L757" t="n">
-        <v>1</v>
-      </c>
-      <c r="M757" t="inlineStr"/>
-    </row>
-    <row r="758">
-      <c r="A758" s="1" t="n">
-        <v>756</v>
-      </c>
-      <c r="B758" t="n">
-        <v>3.841</v>
-      </c>
-      <c r="C758" t="n">
-        <v>3.867</v>
-      </c>
-      <c r="D758" t="n">
-        <v>3.867</v>
-      </c>
-      <c r="E758" t="n">
-        <v>3.841</v>
-      </c>
-      <c r="F758" t="n">
-        <v>10766.4817</v>
-      </c>
-      <c r="G758" t="n">
-        <v>-26071925.12004334</v>
-      </c>
-      <c r="H758" t="n">
-        <v>1</v>
-      </c>
-      <c r="I758" t="n">
-        <v>3.841</v>
-      </c>
-      <c r="J758" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="K758" t="inlineStr">
+      <c r="L847" t="n">
+        <v>1</v>
+      </c>
+      <c r="M847" t="inlineStr"/>
+    </row>
+    <row r="848">
+      <c r="A848" s="1" t="n">
+        <v>846</v>
+      </c>
+      <c r="B848" t="n">
+        <v>3.861</v>
+      </c>
+      <c r="C848" t="n">
+        <v>3.887</v>
+      </c>
+      <c r="D848" t="n">
+        <v>3.887</v>
+      </c>
+      <c r="E848" t="n">
+        <v>3.861</v>
+      </c>
+      <c r="F848" t="n">
+        <v>800565.184</v>
+      </c>
+      <c r="G848" t="n">
+        <v>-25760617.80297383</v>
+      </c>
+      <c r="H848" t="n">
+        <v>0</v>
+      </c>
+      <c r="I848" t="inlineStr"/>
+      <c r="J848" t="n">
+        <v>3.864</v>
+      </c>
+      <c r="K848" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L758" t="n">
-        <v>1</v>
-      </c>
-      <c r="M758" t="inlineStr"/>
-    </row>
-    <row r="759">
-      <c r="A759" s="1" t="n">
-        <v>757</v>
-      </c>
-      <c r="B759" t="n">
-        <v>3.866</v>
-      </c>
-      <c r="C759" t="n">
-        <v>3.866</v>
-      </c>
-      <c r="D759" t="n">
-        <v>3.866</v>
-      </c>
-      <c r="E759" t="n">
-        <v>3.866</v>
-      </c>
-      <c r="F759" t="n">
-        <v>849.147</v>
-      </c>
-      <c r="G759" t="n">
-        <v>-26072774.26704334</v>
-      </c>
-      <c r="H759" t="n">
-        <v>1</v>
-      </c>
-      <c r="I759" t="n">
-        <v>3.867</v>
-      </c>
-      <c r="J759" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="K759" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L759" t="n">
-        <v>1</v>
-      </c>
-      <c r="M759" t="inlineStr"/>
-    </row>
-    <row r="760">
-      <c r="A760" s="1" t="n">
-        <v>758</v>
-      </c>
-      <c r="B760" t="n">
-        <v>3.864</v>
-      </c>
-      <c r="C760" t="n">
-        <v>3.864</v>
-      </c>
-      <c r="D760" t="n">
-        <v>3.864</v>
-      </c>
-      <c r="E760" t="n">
-        <v>3.864</v>
-      </c>
-      <c r="F760" t="n">
-        <v>2270.249</v>
-      </c>
-      <c r="G760" t="n">
-        <v>-26075044.51604334</v>
-      </c>
-      <c r="H760" t="n">
-        <v>1</v>
-      </c>
-      <c r="I760" t="n">
-        <v>3.866</v>
-      </c>
-      <c r="J760" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="K760" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L760" t="n">
-        <v>1</v>
-      </c>
-      <c r="M760" t="inlineStr"/>
-    </row>
-    <row r="761">
-      <c r="A761" s="1" t="n">
-        <v>759</v>
-      </c>
-      <c r="B761" t="n">
-        <v>3.865</v>
-      </c>
-      <c r="C761" t="n">
-        <v>3.865</v>
-      </c>
-      <c r="D761" t="n">
-        <v>3.865</v>
-      </c>
-      <c r="E761" t="n">
-        <v>3.865</v>
-      </c>
-      <c r="F761" t="n">
-        <v>3137.937</v>
-      </c>
-      <c r="G761" t="n">
-        <v>-26071906.57904334</v>
-      </c>
-      <c r="H761" t="n">
-        <v>1</v>
-      </c>
-      <c r="I761" t="n">
-        <v>3.864</v>
-      </c>
-      <c r="J761" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="K761" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L761" t="n">
-        <v>1</v>
-      </c>
-      <c r="M761" t="inlineStr"/>
-    </row>
-    <row r="762">
-      <c r="A762" s="1" t="n">
-        <v>760</v>
-      </c>
-      <c r="B762" t="n">
-        <v>3.866</v>
-      </c>
-      <c r="C762" t="n">
-        <v>3.866</v>
-      </c>
-      <c r="D762" t="n">
-        <v>3.866</v>
-      </c>
-      <c r="E762" t="n">
-        <v>3.866</v>
-      </c>
-      <c r="F762" t="n">
-        <v>1321.252</v>
-      </c>
-      <c r="G762" t="n">
-        <v>-26070585.32704334</v>
-      </c>
-      <c r="H762" t="n">
-        <v>1</v>
-      </c>
-      <c r="I762" t="n">
-        <v>3.865</v>
-      </c>
-      <c r="J762" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="K762" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L762" t="n">
-        <v>1</v>
-      </c>
-      <c r="M762" t="inlineStr"/>
-    </row>
-    <row r="763">
-      <c r="A763" s="1" t="n">
-        <v>761</v>
-      </c>
-      <c r="B763" t="n">
-        <v>3.864</v>
-      </c>
-      <c r="C763" t="n">
-        <v>3.864</v>
-      </c>
-      <c r="D763" t="n">
-        <v>3.864</v>
-      </c>
-      <c r="E763" t="n">
-        <v>3.864</v>
-      </c>
-      <c r="F763" t="n">
-        <v>2238.97</v>
-      </c>
-      <c r="G763" t="n">
-        <v>-26072824.29704334</v>
-      </c>
-      <c r="H763" t="n">
-        <v>1</v>
-      </c>
-      <c r="I763" t="n">
-        <v>3.866</v>
-      </c>
-      <c r="J763" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="K763" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L763" t="n">
-        <v>1</v>
-      </c>
-      <c r="M763" t="inlineStr"/>
-    </row>
-    <row r="764">
-      <c r="A764" s="1" t="n">
-        <v>762</v>
-      </c>
-      <c r="B764" t="n">
-        <v>3.865</v>
-      </c>
-      <c r="C764" t="n">
-        <v>3.865</v>
-      </c>
-      <c r="D764" t="n">
-        <v>3.865</v>
-      </c>
-      <c r="E764" t="n">
-        <v>3.865</v>
-      </c>
-      <c r="F764" t="n">
-        <v>6019.275</v>
-      </c>
-      <c r="G764" t="n">
-        <v>-26066805.02204334</v>
-      </c>
-      <c r="H764" t="n">
-        <v>1</v>
-      </c>
-      <c r="I764" t="n">
-        <v>3.864</v>
-      </c>
-      <c r="J764" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="K764" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L764" t="n">
-        <v>1</v>
-      </c>
-      <c r="M764" t="inlineStr"/>
-    </row>
-    <row r="765">
-      <c r="A765" s="1" t="n">
-        <v>763</v>
-      </c>
-      <c r="B765" t="n">
-        <v>3.867</v>
-      </c>
-      <c r="C765" t="n">
-        <v>3.868</v>
-      </c>
-      <c r="D765" t="n">
-        <v>3.868</v>
-      </c>
-      <c r="E765" t="n">
-        <v>3.867</v>
-      </c>
-      <c r="F765" t="n">
-        <v>231360.5718695191</v>
-      </c>
-      <c r="G765" t="n">
-        <v>-25835444.45017382</v>
-      </c>
-      <c r="H765" t="n">
-        <v>1</v>
-      </c>
-      <c r="I765" t="n">
-        <v>3.865</v>
-      </c>
-      <c r="J765" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="K765" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L765" t="n">
-        <v>1</v>
-      </c>
-      <c r="M765" t="inlineStr"/>
-    </row>
-    <row r="766">
-      <c r="A766" s="1" t="n">
-        <v>764</v>
-      </c>
-      <c r="B766" t="n">
-        <v>3.863</v>
-      </c>
-      <c r="C766" t="n">
-        <v>3.863</v>
-      </c>
-      <c r="D766" t="n">
-        <v>3.863</v>
-      </c>
-      <c r="E766" t="n">
-        <v>3.863</v>
-      </c>
-      <c r="F766" t="n">
-        <v>580.574</v>
-      </c>
-      <c r="G766" t="n">
-        <v>-25836025.02417382</v>
-      </c>
-      <c r="H766" t="n">
-        <v>1</v>
-      </c>
-      <c r="I766" t="n">
-        <v>3.868</v>
-      </c>
-      <c r="J766" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="K766" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L766" t="n">
-        <v>1</v>
-      </c>
-      <c r="M766" t="inlineStr"/>
-    </row>
-    <row r="767">
-      <c r="A767" s="1" t="n">
-        <v>765</v>
-      </c>
-      <c r="B767" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="C767" t="n">
-        <v>3.879</v>
-      </c>
-      <c r="D767" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="E767" t="n">
-        <v>3.879</v>
-      </c>
-      <c r="F767" t="n">
-        <v>2606.9165</v>
-      </c>
-      <c r="G767" t="n">
-        <v>-25833418.10767382</v>
-      </c>
-      <c r="H767" t="n">
-        <v>1</v>
-      </c>
-      <c r="I767" t="n">
-        <v>3.863</v>
-      </c>
-      <c r="J767" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="K767" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L767" t="n">
-        <v>1</v>
-      </c>
-      <c r="M767" t="inlineStr"/>
-    </row>
-    <row r="768">
-      <c r="A768" s="1" t="n">
-        <v>766</v>
-      </c>
-      <c r="B768" t="n">
-        <v>3.879</v>
-      </c>
-      <c r="C768" t="n">
-        <v>3.879</v>
-      </c>
-      <c r="D768" t="n">
-        <v>3.879</v>
-      </c>
-      <c r="E768" t="n">
-        <v>3.879</v>
-      </c>
-      <c r="F768" t="n">
-        <v>2686.905</v>
-      </c>
-      <c r="G768" t="n">
-        <v>-25833418.10767382</v>
-      </c>
-      <c r="H768" t="n">
-        <v>1</v>
-      </c>
-      <c r="I768" t="n">
-        <v>3.879</v>
-      </c>
-      <c r="J768" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="K768" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L768" t="n">
-        <v>1</v>
-      </c>
-      <c r="M768" t="inlineStr"/>
-    </row>
-    <row r="769">
-      <c r="A769" s="1" t="n">
-        <v>767</v>
-      </c>
-      <c r="B769" t="n">
-        <v>3.876</v>
-      </c>
-      <c r="C769" t="n">
-        <v>3.876</v>
-      </c>
-      <c r="D769" t="n">
-        <v>3.876</v>
-      </c>
-      <c r="E769" t="n">
-        <v>3.876</v>
-      </c>
-      <c r="F769" t="n">
-        <v>600.542</v>
-      </c>
-      <c r="G769" t="n">
-        <v>-25834018.64967382</v>
-      </c>
-      <c r="H769" t="n">
-        <v>1</v>
-      </c>
-      <c r="I769" t="n">
-        <v>3.879</v>
-      </c>
-      <c r="J769" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="K769" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L769" t="n">
-        <v>1</v>
-      </c>
-      <c r="M769" t="inlineStr"/>
-    </row>
-    <row r="770">
-      <c r="A770" s="1" t="n">
-        <v>768</v>
-      </c>
-      <c r="B770" t="n">
-        <v>3.873</v>
-      </c>
-      <c r="C770" t="n">
-        <v>3.873</v>
-      </c>
-      <c r="D770" t="n">
-        <v>3.873</v>
-      </c>
-      <c r="E770" t="n">
-        <v>3.873</v>
-      </c>
-      <c r="F770" t="n">
-        <v>1282.17</v>
-      </c>
-      <c r="G770" t="n">
-        <v>-25835300.81967383</v>
-      </c>
-      <c r="H770" t="n">
-        <v>1</v>
-      </c>
-      <c r="I770" t="n">
-        <v>3.876</v>
-      </c>
-      <c r="J770" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="K770" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L770" t="n">
-        <v>1</v>
-      </c>
-      <c r="M770" t="inlineStr"/>
-    </row>
-    <row r="771">
-      <c r="A771" s="1" t="n">
-        <v>769</v>
-      </c>
-      <c r="B771" t="n">
-        <v>3.871</v>
-      </c>
-      <c r="C771" t="n">
-        <v>3.871</v>
-      </c>
-      <c r="D771" t="n">
-        <v>3.871</v>
-      </c>
-      <c r="E771" t="n">
-        <v>3.871</v>
-      </c>
-      <c r="F771" t="n">
-        <v>2816.913</v>
-      </c>
-      <c r="G771" t="n">
-        <v>-25838117.73267382</v>
-      </c>
-      <c r="H771" t="n">
-        <v>1</v>
-      </c>
-      <c r="I771" t="n">
-        <v>3.873</v>
-      </c>
-      <c r="J771" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="K771" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L771" t="n">
-        <v>1</v>
-      </c>
-      <c r="M771" t="inlineStr"/>
-    </row>
-    <row r="772">
-      <c r="A772" s="1" t="n">
-        <v>770</v>
-      </c>
-      <c r="B772" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="C772" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="D772" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="E772" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="F772" t="n">
-        <v>16766.5775</v>
-      </c>
-      <c r="G772" t="n">
-        <v>-25854884.31017382</v>
-      </c>
-      <c r="H772" t="n">
-        <v>1</v>
-      </c>
-      <c r="I772" t="n">
-        <v>3.871</v>
-      </c>
-      <c r="J772" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="K772" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L772" t="n">
-        <v>1</v>
-      </c>
-      <c r="M772" t="inlineStr"/>
-    </row>
-    <row r="773">
-      <c r="A773" s="1" t="n">
-        <v>771</v>
-      </c>
-      <c r="B773" t="n">
-        <v>3.861</v>
-      </c>
-      <c r="C773" t="n">
-        <v>3.861</v>
-      </c>
-      <c r="D773" t="n">
-        <v>3.861</v>
-      </c>
-      <c r="E773" t="n">
-        <v>3.861</v>
-      </c>
-      <c r="F773" t="n">
-        <v>445.895</v>
-      </c>
-      <c r="G773" t="n">
-        <v>-25854438.41517382</v>
-      </c>
-      <c r="H773" t="n">
-        <v>1</v>
-      </c>
-      <c r="I773" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="J773" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="K773" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L773" t="n">
-        <v>1</v>
-      </c>
-      <c r="M773" t="inlineStr"/>
-    </row>
-    <row r="774">
-      <c r="A774" s="1" t="n">
-        <v>772</v>
-      </c>
-      <c r="B774" t="n">
-        <v>3.862</v>
-      </c>
-      <c r="C774" t="n">
-        <v>3.862</v>
-      </c>
-      <c r="D774" t="n">
-        <v>3.862</v>
-      </c>
-      <c r="E774" t="n">
-        <v>3.862</v>
-      </c>
-      <c r="F774" t="n">
-        <v>1960.645</v>
-      </c>
-      <c r="G774" t="n">
-        <v>-25852477.77017383</v>
-      </c>
-      <c r="H774" t="n">
-        <v>1</v>
-      </c>
-      <c r="I774" t="n">
-        <v>3.861</v>
-      </c>
-      <c r="J774" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="K774" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L774" t="n">
-        <v>1</v>
-      </c>
-      <c r="M774" t="inlineStr"/>
-    </row>
-    <row r="775">
-      <c r="A775" s="1" t="n">
-        <v>773</v>
-      </c>
-      <c r="B775" t="n">
-        <v>3.863</v>
-      </c>
-      <c r="C775" t="n">
-        <v>3.863</v>
-      </c>
-      <c r="D775" t="n">
-        <v>3.863</v>
-      </c>
-      <c r="E775" t="n">
-        <v>3.863</v>
-      </c>
-      <c r="F775" t="n">
-        <v>5889.039</v>
-      </c>
-      <c r="G775" t="n">
-        <v>-25846588.73117382</v>
-      </c>
-      <c r="H775" t="n">
-        <v>1</v>
-      </c>
-      <c r="I775" t="n">
-        <v>3.862</v>
-      </c>
-      <c r="J775" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="K775" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L775" t="n">
-        <v>1</v>
-      </c>
-      <c r="M775" t="inlineStr"/>
-    </row>
-    <row r="776">
-      <c r="A776" s="1" t="n">
-        <v>774</v>
-      </c>
-      <c r="B776" t="n">
-        <v>3.861</v>
-      </c>
-      <c r="C776" t="n">
-        <v>3.861</v>
-      </c>
-      <c r="D776" t="n">
-        <v>3.861</v>
-      </c>
-      <c r="E776" t="n">
-        <v>3.861</v>
-      </c>
-      <c r="F776" t="n">
-        <v>508.021</v>
-      </c>
-      <c r="G776" t="n">
-        <v>-25847096.75217383</v>
-      </c>
-      <c r="H776" t="n">
-        <v>1</v>
-      </c>
-      <c r="I776" t="n">
-        <v>3.863</v>
-      </c>
-      <c r="J776" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="K776" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L776" t="n">
-        <v>1</v>
-      </c>
-      <c r="M776" t="inlineStr"/>
-    </row>
-    <row r="777">
-      <c r="A777" s="1" t="n">
-        <v>775</v>
-      </c>
-      <c r="B777" t="n">
-        <v>3.862</v>
-      </c>
-      <c r="C777" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="D777" t="n">
-        <v>3.862</v>
-      </c>
-      <c r="E777" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="F777" t="n">
-        <v>72955.1832</v>
-      </c>
-      <c r="G777" t="n">
-        <v>-25920051.93537383</v>
-      </c>
-      <c r="H777" t="n">
-        <v>1</v>
-      </c>
-      <c r="I777" t="n">
-        <v>3.861</v>
-      </c>
-      <c r="J777" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="K777" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L777" t="n">
-        <v>1</v>
-      </c>
-      <c r="M777" t="inlineStr"/>
-    </row>
-    <row r="778">
-      <c r="A778" s="1" t="n">
-        <v>776</v>
-      </c>
-      <c r="B778" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="C778" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="D778" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="E778" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="F778" t="n">
-        <v>29628.5494</v>
-      </c>
-      <c r="G778" t="n">
-        <v>-25920051.93537383</v>
-      </c>
-      <c r="H778" t="n">
-        <v>1</v>
-      </c>
-      <c r="I778" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="J778" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="K778" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L778" t="n">
-        <v>1</v>
-      </c>
-      <c r="M778" t="inlineStr"/>
-    </row>
-    <row r="779">
-      <c r="A779" s="1" t="n">
-        <v>777</v>
-      </c>
-      <c r="B779" t="n">
-        <v>3.861</v>
-      </c>
-      <c r="C779" t="n">
-        <v>3.861</v>
-      </c>
-      <c r="D779" t="n">
-        <v>3.861</v>
-      </c>
-      <c r="E779" t="n">
-        <v>3.861</v>
-      </c>
-      <c r="F779" t="n">
-        <v>2082.915</v>
-      </c>
-      <c r="G779" t="n">
-        <v>-25917969.02037383</v>
-      </c>
-      <c r="H779" t="n">
-        <v>1</v>
-      </c>
-      <c r="I779" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="J779" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="K779" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L779" t="n">
-        <v>1</v>
-      </c>
-      <c r="M779" t="inlineStr"/>
-    </row>
-    <row r="780">
-      <c r="A780" s="1" t="n">
-        <v>778</v>
-      </c>
-      <c r="B780" t="n">
-        <v>3.861</v>
-      </c>
-      <c r="C780" t="n">
-        <v>3.896</v>
-      </c>
-      <c r="D780" t="n">
-        <v>3.896</v>
-      </c>
-      <c r="E780" t="n">
-        <v>3.861</v>
-      </c>
-      <c r="F780" t="n">
-        <v>117091.8829</v>
-      </c>
-      <c r="G780" t="n">
-        <v>-25800877.13747383</v>
-      </c>
-      <c r="H780" t="n">
-        <v>1</v>
-      </c>
-      <c r="I780" t="n">
-        <v>3.861</v>
-      </c>
-      <c r="J780" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="K780" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L780" t="n">
-        <v>1</v>
-      </c>
-      <c r="M780" t="inlineStr"/>
-    </row>
-    <row r="781">
-      <c r="A781" s="1" t="n">
-        <v>779</v>
-      </c>
-      <c r="B781" t="n">
-        <v>3.895</v>
-      </c>
-      <c r="C781" t="n">
-        <v>3.895</v>
-      </c>
-      <c r="D781" t="n">
-        <v>3.895</v>
-      </c>
-      <c r="E781" t="n">
-        <v>3.895</v>
-      </c>
-      <c r="F781" t="n">
-        <v>1487.032</v>
-      </c>
-      <c r="G781" t="n">
-        <v>-25802364.16947383</v>
-      </c>
-      <c r="H781" t="n">
-        <v>1</v>
-      </c>
-      <c r="I781" t="n">
-        <v>3.896</v>
-      </c>
-      <c r="J781" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="K781" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L781" t="n">
-        <v>1</v>
-      </c>
-      <c r="M781" t="inlineStr"/>
-    </row>
-    <row r="782">
-      <c r="A782" s="1" t="n">
-        <v>780</v>
-      </c>
-      <c r="B782" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="C782" t="n">
-        <v>3.897</v>
-      </c>
-      <c r="D782" t="n">
-        <v>3.897</v>
-      </c>
-      <c r="E782" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="F782" t="n">
-        <v>79755.6746</v>
-      </c>
-      <c r="G782" t="n">
-        <v>-25722608.49487383</v>
-      </c>
-      <c r="H782" t="n">
-        <v>1</v>
-      </c>
-      <c r="I782" t="n">
-        <v>3.895</v>
-      </c>
-      <c r="J782" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="K782" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L782" t="n">
-        <v>1</v>
-      </c>
-      <c r="M782" t="inlineStr"/>
-    </row>
-    <row r="783">
-      <c r="A783" s="1" t="n">
-        <v>781</v>
-      </c>
-      <c r="B783" t="n">
-        <v>3.895</v>
-      </c>
-      <c r="C783" t="n">
-        <v>3.895</v>
-      </c>
-      <c r="D783" t="n">
-        <v>3.895</v>
-      </c>
-      <c r="E783" t="n">
-        <v>3.895</v>
-      </c>
-      <c r="F783" t="n">
-        <v>3658.205</v>
-      </c>
-      <c r="G783" t="n">
-        <v>-25726266.69987383</v>
-      </c>
-      <c r="H783" t="n">
-        <v>1</v>
-      </c>
-      <c r="I783" t="n">
-        <v>3.897</v>
-      </c>
-      <c r="J783" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="K783" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L783" t="n">
-        <v>1</v>
-      </c>
-      <c r="M783" t="inlineStr"/>
-    </row>
-    <row r="784">
-      <c r="A784" s="1" t="n">
-        <v>782</v>
-      </c>
-      <c r="B784" t="n">
-        <v>3.892</v>
-      </c>
-      <c r="C784" t="n">
-        <v>3.892</v>
-      </c>
-      <c r="D784" t="n">
-        <v>3.892</v>
-      </c>
-      <c r="E784" t="n">
-        <v>3.892</v>
-      </c>
-      <c r="F784" t="n">
-        <v>435.108</v>
-      </c>
-      <c r="G784" t="n">
-        <v>-25726701.80787383</v>
-      </c>
-      <c r="H784" t="n">
-        <v>1</v>
-      </c>
-      <c r="I784" t="n">
-        <v>3.895</v>
-      </c>
-      <c r="J784" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="K784" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L784" t="n">
-        <v>1</v>
-      </c>
-      <c r="M784" t="inlineStr"/>
-    </row>
-    <row r="785">
-      <c r="A785" s="1" t="n">
-        <v>783</v>
-      </c>
-      <c r="B785" t="n">
-        <v>3.89</v>
-      </c>
-      <c r="C785" t="n">
-        <v>3.89</v>
-      </c>
-      <c r="D785" t="n">
-        <v>3.89</v>
-      </c>
-      <c r="E785" t="n">
-        <v>3.89</v>
-      </c>
-      <c r="F785" t="n">
-        <v>1587.003</v>
-      </c>
-      <c r="G785" t="n">
-        <v>-25728288.81087383</v>
-      </c>
-      <c r="H785" t="n">
-        <v>1</v>
-      </c>
-      <c r="I785" t="n">
-        <v>3.892</v>
-      </c>
-      <c r="J785" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="K785" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L785" t="n">
-        <v>1</v>
-      </c>
-      <c r="M785" t="inlineStr"/>
-    </row>
-    <row r="786">
-      <c r="A786" s="1" t="n">
-        <v>784</v>
-      </c>
-      <c r="B786" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="C786" t="n">
-        <v>3.896</v>
-      </c>
-      <c r="D786" t="n">
-        <v>3.896</v>
-      </c>
-      <c r="E786" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="F786" t="n">
-        <v>14343.9082</v>
-      </c>
-      <c r="G786" t="n">
-        <v>-25713944.90267383</v>
-      </c>
-      <c r="H786" t="n">
-        <v>0</v>
-      </c>
-      <c r="I786" t="inlineStr"/>
-      <c r="J786" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="K786" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L786" t="n">
-        <v>1</v>
-      </c>
-      <c r="M786" t="inlineStr"/>
-    </row>
-    <row r="787">
-      <c r="A787" s="1" t="n">
-        <v>785</v>
-      </c>
-      <c r="B787" t="n">
-        <v>3.896</v>
-      </c>
-      <c r="C787" t="n">
-        <v>3.896</v>
-      </c>
-      <c r="D787" t="n">
-        <v>3.896</v>
-      </c>
-      <c r="E787" t="n">
-        <v>3.895</v>
-      </c>
-      <c r="F787" t="n">
-        <v>6317.208</v>
-      </c>
-      <c r="G787" t="n">
-        <v>-25713944.90267383</v>
-      </c>
-      <c r="H787" t="n">
-        <v>0</v>
-      </c>
-      <c r="I787" t="inlineStr"/>
-      <c r="J787" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="K787" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L787" t="n">
-        <v>1</v>
-      </c>
-      <c r="M787" t="inlineStr"/>
-    </row>
-    <row r="788">
-      <c r="A788" s="1" t="n">
-        <v>786</v>
-      </c>
-      <c r="B788" t="n">
-        <v>3.895</v>
-      </c>
-      <c r="C788" t="n">
-        <v>3.896</v>
-      </c>
-      <c r="D788" t="n">
-        <v>3.896</v>
-      </c>
-      <c r="E788" t="n">
-        <v>3.895</v>
-      </c>
-      <c r="F788" t="n">
-        <v>1381.9804</v>
-      </c>
-      <c r="G788" t="n">
-        <v>-25713944.90267383</v>
-      </c>
-      <c r="H788" t="n">
-        <v>0</v>
-      </c>
-      <c r="I788" t="inlineStr"/>
-      <c r="J788" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="K788" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L788" t="n">
-        <v>1</v>
-      </c>
-      <c r="M788" t="inlineStr"/>
-    </row>
-    <row r="789">
-      <c r="A789" s="1" t="n">
-        <v>787</v>
-      </c>
-      <c r="B789" t="n">
-        <v>3.895</v>
-      </c>
-      <c r="C789" t="n">
-        <v>3.896</v>
-      </c>
-      <c r="D789" t="n">
-        <v>3.896</v>
-      </c>
-      <c r="E789" t="n">
-        <v>3.895</v>
-      </c>
-      <c r="F789" t="n">
-        <v>2141.908</v>
-      </c>
-      <c r="G789" t="n">
-        <v>-25713944.90267383</v>
-      </c>
-      <c r="H789" t="n">
-        <v>0</v>
-      </c>
-      <c r="I789" t="inlineStr"/>
-      <c r="J789" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="K789" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L789" t="n">
-        <v>1</v>
-      </c>
-      <c r="M789" t="inlineStr"/>
-    </row>
-    <row r="790">
-      <c r="A790" s="1" t="n">
-        <v>788</v>
-      </c>
-      <c r="B790" t="n">
-        <v>3.896</v>
-      </c>
-      <c r="C790" t="n">
-        <v>3.896</v>
-      </c>
-      <c r="D790" t="n">
-        <v>3.896</v>
-      </c>
-      <c r="E790" t="n">
-        <v>3.896</v>
-      </c>
-      <c r="F790" t="n">
-        <v>103952.9409</v>
-      </c>
-      <c r="G790" t="n">
-        <v>-25713944.90267383</v>
-      </c>
-      <c r="H790" t="n">
-        <v>0</v>
-      </c>
-      <c r="I790" t="inlineStr"/>
-      <c r="J790" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="K790" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L790" t="n">
-        <v>1</v>
-      </c>
-      <c r="M790" t="inlineStr"/>
-    </row>
-    <row r="791">
-      <c r="A791" s="1" t="n">
-        <v>789</v>
-      </c>
-      <c r="B791" t="n">
-        <v>3.897</v>
-      </c>
-      <c r="C791" t="n">
-        <v>3.897</v>
-      </c>
-      <c r="D791" t="n">
-        <v>3.897</v>
-      </c>
-      <c r="E791" t="n">
-        <v>3.897</v>
-      </c>
-      <c r="F791" t="n">
-        <v>151.1156</v>
-      </c>
-      <c r="G791" t="n">
-        <v>-25713793.78707382</v>
-      </c>
-      <c r="H791" t="n">
-        <v>0</v>
-      </c>
-      <c r="I791" t="inlineStr"/>
-      <c r="J791" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="K791" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L791" t="n">
-        <v>1</v>
-      </c>
-      <c r="M791" t="inlineStr"/>
-    </row>
-    <row r="792">
-      <c r="A792" s="1" t="n">
-        <v>790</v>
-      </c>
-      <c r="B792" t="n">
-        <v>3.897</v>
-      </c>
-      <c r="C792" t="n">
-        <v>3.897</v>
-      </c>
-      <c r="D792" t="n">
-        <v>3.897</v>
-      </c>
-      <c r="E792" t="n">
-        <v>3.897</v>
-      </c>
-      <c r="F792" t="n">
-        <v>673.095</v>
-      </c>
-      <c r="G792" t="n">
-        <v>-25713793.78707382</v>
-      </c>
-      <c r="H792" t="n">
-        <v>0</v>
-      </c>
-      <c r="I792" t="inlineStr"/>
-      <c r="J792" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="K792" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L792" t="n">
-        <v>1</v>
-      </c>
-      <c r="M792" t="inlineStr"/>
-    </row>
-    <row r="793">
-      <c r="A793" s="1" t="n">
-        <v>791</v>
-      </c>
-      <c r="B793" t="n">
-        <v>3.897</v>
-      </c>
-      <c r="C793" t="n">
-        <v>3.897</v>
-      </c>
-      <c r="D793" t="n">
-        <v>3.897</v>
-      </c>
-      <c r="E793" t="n">
-        <v>3.897</v>
-      </c>
-      <c r="F793" t="n">
-        <v>172.8876</v>
-      </c>
-      <c r="G793" t="n">
-        <v>-25713793.78707382</v>
-      </c>
-      <c r="H793" t="n">
-        <v>0</v>
-      </c>
-      <c r="I793" t="inlineStr"/>
-      <c r="J793" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="K793" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L793" t="n">
-        <v>1</v>
-      </c>
-      <c r="M793" t="inlineStr"/>
-    </row>
-    <row r="794">
-      <c r="A794" s="1" t="n">
-        <v>792</v>
-      </c>
-      <c r="B794" t="n">
-        <v>3.896</v>
-      </c>
-      <c r="C794" t="n">
-        <v>3.896</v>
-      </c>
-      <c r="D794" t="n">
-        <v>3.896</v>
-      </c>
-      <c r="E794" t="n">
-        <v>3.896</v>
-      </c>
-      <c r="F794" t="n">
-        <v>266000</v>
-      </c>
-      <c r="G794" t="n">
-        <v>-25979793.78707382</v>
-      </c>
-      <c r="H794" t="n">
-        <v>0</v>
-      </c>
-      <c r="I794" t="inlineStr"/>
-      <c r="J794" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="K794" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L794" t="n">
-        <v>1</v>
-      </c>
-      <c r="M794" t="inlineStr"/>
-    </row>
-    <row r="795">
-      <c r="A795" s="1" t="n">
-        <v>793</v>
-      </c>
-      <c r="B795" t="n">
-        <v>3.896</v>
-      </c>
-      <c r="C795" t="n">
-        <v>3.896</v>
-      </c>
-      <c r="D795" t="n">
-        <v>3.896</v>
-      </c>
-      <c r="E795" t="n">
-        <v>3.896</v>
-      </c>
-      <c r="F795" t="n">
-        <v>494.2253</v>
-      </c>
-      <c r="G795" t="n">
-        <v>-25979793.78707382</v>
-      </c>
-      <c r="H795" t="n">
-        <v>0</v>
-      </c>
-      <c r="I795" t="inlineStr"/>
-      <c r="J795" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="K795" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L795" t="n">
-        <v>1</v>
-      </c>
-      <c r="M795" t="inlineStr"/>
-    </row>
-    <row r="796">
-      <c r="A796" s="1" t="n">
-        <v>794</v>
-      </c>
-      <c r="B796" t="n">
-        <v>3.871</v>
-      </c>
-      <c r="C796" t="n">
-        <v>3.871</v>
-      </c>
-      <c r="D796" t="n">
-        <v>3.871</v>
-      </c>
-      <c r="E796" t="n">
-        <v>3.871</v>
-      </c>
-      <c r="F796" t="n">
-        <v>294320.5311</v>
-      </c>
-      <c r="G796" t="n">
-        <v>-26274114.31817383</v>
-      </c>
-      <c r="H796" t="n">
-        <v>0</v>
-      </c>
-      <c r="I796" t="inlineStr"/>
-      <c r="J796" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="K796" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L796" t="n">
-        <v>1</v>
-      </c>
-      <c r="M796" t="inlineStr"/>
-    </row>
-    <row r="797">
-      <c r="A797" s="1" t="n">
-        <v>795</v>
-      </c>
-      <c r="B797" t="n">
-        <v>3.872</v>
-      </c>
-      <c r="C797" t="n">
-        <v>3.893</v>
-      </c>
-      <c r="D797" t="n">
-        <v>3.893</v>
-      </c>
-      <c r="E797" t="n">
-        <v>3.872</v>
-      </c>
-      <c r="F797" t="n">
-        <v>3732.4613</v>
-      </c>
-      <c r="G797" t="n">
-        <v>-26270381.85687383</v>
-      </c>
-      <c r="H797" t="n">
-        <v>0</v>
-      </c>
-      <c r="I797" t="inlineStr"/>
-      <c r="J797" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="K797" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L797" t="n">
-        <v>1</v>
-      </c>
-      <c r="M797" t="inlineStr"/>
-    </row>
-    <row r="798">
-      <c r="A798" s="1" t="n">
-        <v>796</v>
-      </c>
-      <c r="B798" t="n">
-        <v>3.893</v>
-      </c>
-      <c r="C798" t="n">
-        <v>3.871</v>
-      </c>
-      <c r="D798" t="n">
-        <v>3.893</v>
-      </c>
-      <c r="E798" t="n">
-        <v>3.871</v>
-      </c>
-      <c r="F798" t="n">
-        <v>7196.454</v>
-      </c>
-      <c r="G798" t="n">
-        <v>-26277578.31087383</v>
-      </c>
-      <c r="H798" t="n">
-        <v>0</v>
-      </c>
-      <c r="I798" t="inlineStr"/>
-      <c r="J798" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="K798" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L798" t="n">
-        <v>1</v>
-      </c>
-      <c r="M798" t="inlineStr"/>
-    </row>
-    <row r="799">
-      <c r="A799" s="1" t="n">
-        <v>797</v>
-      </c>
-      <c r="B799" t="n">
-        <v>3.872</v>
-      </c>
-      <c r="C799" t="n">
-        <v>3.872</v>
-      </c>
-      <c r="D799" t="n">
-        <v>3.872</v>
-      </c>
-      <c r="E799" t="n">
-        <v>3.872</v>
-      </c>
-      <c r="F799" t="n">
-        <v>483.56</v>
-      </c>
-      <c r="G799" t="n">
-        <v>-26277094.75087383</v>
-      </c>
-      <c r="H799" t="n">
-        <v>0</v>
-      </c>
-      <c r="I799" t="inlineStr"/>
-      <c r="J799" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="K799" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L799" t="n">
-        <v>1</v>
-      </c>
-      <c r="M799" t="inlineStr"/>
-    </row>
-    <row r="800">
-      <c r="A800" s="1" t="n">
-        <v>798</v>
-      </c>
-      <c r="B800" t="n">
-        <v>3.873</v>
-      </c>
-      <c r="C800" t="n">
-        <v>3.873</v>
-      </c>
-      <c r="D800" t="n">
-        <v>3.873</v>
-      </c>
-      <c r="E800" t="n">
-        <v>3.873</v>
-      </c>
-      <c r="F800" t="n">
-        <v>1724.443</v>
-      </c>
-      <c r="G800" t="n">
-        <v>-26275370.30787383</v>
-      </c>
-      <c r="H800" t="n">
-        <v>0</v>
-      </c>
-      <c r="I800" t="inlineStr"/>
-      <c r="J800" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="K800" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L800" t="n">
-        <v>1</v>
-      </c>
-      <c r="M800" t="inlineStr"/>
-    </row>
-    <row r="801">
-      <c r="A801" s="1" t="n">
-        <v>799</v>
-      </c>
-      <c r="B801" t="n">
-        <v>3.874</v>
-      </c>
-      <c r="C801" t="n">
-        <v>3.874</v>
-      </c>
-      <c r="D801" t="n">
-        <v>3.874</v>
-      </c>
-      <c r="E801" t="n">
-        <v>3.874</v>
-      </c>
-      <c r="F801" t="n">
-        <v>2546.473</v>
-      </c>
-      <c r="G801" t="n">
-        <v>-26272823.83487383</v>
-      </c>
-      <c r="H801" t="n">
-        <v>0</v>
-      </c>
-      <c r="I801" t="inlineStr"/>
-      <c r="J801" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="K801" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L801" t="n">
-        <v>1</v>
-      </c>
-      <c r="M801" t="inlineStr"/>
-    </row>
-    <row r="802">
-      <c r="A802" s="1" t="n">
-        <v>800</v>
-      </c>
-      <c r="B802" t="n">
-        <v>3.875</v>
-      </c>
-      <c r="C802" t="n">
-        <v>3.875</v>
-      </c>
-      <c r="D802" t="n">
-        <v>3.875</v>
-      </c>
-      <c r="E802" t="n">
-        <v>3.875</v>
-      </c>
-      <c r="F802" t="n">
-        <v>806.481</v>
-      </c>
-      <c r="G802" t="n">
-        <v>-26272017.35387383</v>
-      </c>
-      <c r="H802" t="n">
-        <v>0</v>
-      </c>
-      <c r="I802" t="inlineStr"/>
-      <c r="J802" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="K802" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L802" t="n">
-        <v>1</v>
-      </c>
-      <c r="M802" t="inlineStr"/>
-    </row>
-    <row r="803">
-      <c r="A803" s="1" t="n">
-        <v>801</v>
-      </c>
-      <c r="B803" t="n">
-        <v>3.873</v>
-      </c>
-      <c r="C803" t="n">
-        <v>3.873</v>
-      </c>
-      <c r="D803" t="n">
-        <v>3.873</v>
-      </c>
-      <c r="E803" t="n">
-        <v>3.873</v>
-      </c>
-      <c r="F803" t="n">
-        <v>1789.183</v>
-      </c>
-      <c r="G803" t="n">
-        <v>-26273806.53687382</v>
-      </c>
-      <c r="H803" t="n">
-        <v>0</v>
-      </c>
-      <c r="I803" t="inlineStr"/>
-      <c r="J803" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="K803" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L803" t="n">
-        <v>1</v>
-      </c>
-      <c r="M803" t="inlineStr"/>
-    </row>
-    <row r="804">
-      <c r="A804" s="1" t="n">
-        <v>802</v>
-      </c>
-      <c r="B804" t="n">
-        <v>3.872</v>
-      </c>
-      <c r="C804" t="n">
-        <v>3.872</v>
-      </c>
-      <c r="D804" t="n">
-        <v>3.872</v>
-      </c>
-      <c r="E804" t="n">
-        <v>3.872</v>
-      </c>
-      <c r="F804" t="n">
-        <v>3194.92</v>
-      </c>
-      <c r="G804" t="n">
-        <v>-26277001.45687383</v>
-      </c>
-      <c r="H804" t="n">
-        <v>0</v>
-      </c>
-      <c r="I804" t="inlineStr"/>
-      <c r="J804" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="K804" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L804" t="n">
-        <v>1</v>
-      </c>
-      <c r="M804" t="inlineStr"/>
-    </row>
-    <row r="805">
-      <c r="A805" s="1" t="n">
-        <v>803</v>
-      </c>
-      <c r="B805" t="n">
-        <v>3.871</v>
-      </c>
-      <c r="C805" t="n">
-        <v>3.846</v>
-      </c>
-      <c r="D805" t="n">
-        <v>3.871</v>
-      </c>
-      <c r="E805" t="n">
-        <v>3.846</v>
-      </c>
-      <c r="F805" t="n">
-        <v>231360.5718</v>
-      </c>
-      <c r="G805" t="n">
-        <v>-26508362.02867383</v>
-      </c>
-      <c r="H805" t="n">
-        <v>0</v>
-      </c>
-      <c r="I805" t="inlineStr"/>
-      <c r="J805" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="K805" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L805" t="n">
-        <v>1</v>
-      </c>
-      <c r="M805" t="inlineStr"/>
-    </row>
-    <row r="806">
-      <c r="A806" s="1" t="n">
-        <v>804</v>
-      </c>
-      <c r="B806" t="n">
-        <v>3.851</v>
-      </c>
-      <c r="C806" t="n">
-        <v>3.851</v>
-      </c>
-      <c r="D806" t="n">
-        <v>3.851</v>
-      </c>
-      <c r="E806" t="n">
-        <v>3.851</v>
-      </c>
-      <c r="F806" t="n">
-        <v>896.153</v>
-      </c>
-      <c r="G806" t="n">
-        <v>-26507465.87567383</v>
-      </c>
-      <c r="H806" t="n">
-        <v>0</v>
-      </c>
-      <c r="I806" t="inlineStr"/>
-      <c r="J806" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="K806" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L806" t="n">
-        <v>1</v>
-      </c>
-      <c r="M806" t="inlineStr"/>
-    </row>
-    <row r="807">
-      <c r="A807" s="1" t="n">
-        <v>805</v>
-      </c>
-      <c r="B807" t="n">
-        <v>3.851</v>
-      </c>
-      <c r="C807" t="n">
-        <v>3.851</v>
-      </c>
-      <c r="D807" t="n">
-        <v>3.851</v>
-      </c>
-      <c r="E807" t="n">
-        <v>3.851</v>
-      </c>
-      <c r="F807" t="n">
-        <v>1654.989</v>
-      </c>
-      <c r="G807" t="n">
-        <v>-26507465.87567383</v>
-      </c>
-      <c r="H807" t="n">
-        <v>0</v>
-      </c>
-      <c r="I807" t="inlineStr"/>
-      <c r="J807" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="K807" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L807" t="n">
-        <v>1</v>
-      </c>
-      <c r="M807" t="inlineStr"/>
-    </row>
-    <row r="808">
-      <c r="A808" s="1" t="n">
-        <v>806</v>
-      </c>
-      <c r="B808" t="n">
-        <v>3.853</v>
-      </c>
-      <c r="C808" t="n">
-        <v>3.853</v>
-      </c>
-      <c r="D808" t="n">
-        <v>3.853</v>
-      </c>
-      <c r="E808" t="n">
-        <v>3.853</v>
-      </c>
-      <c r="F808" t="n">
-        <v>2506.46</v>
-      </c>
-      <c r="G808" t="n">
-        <v>-26504959.41567383</v>
-      </c>
-      <c r="H808" t="n">
-        <v>0</v>
-      </c>
-      <c r="I808" t="inlineStr"/>
-      <c r="J808" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="K808" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L808" t="n">
-        <v>1</v>
-      </c>
-      <c r="M808" t="inlineStr"/>
-    </row>
-    <row r="809">
-      <c r="A809" s="1" t="n">
-        <v>807</v>
-      </c>
-      <c r="B809" t="n">
-        <v>3.856</v>
-      </c>
-      <c r="C809" t="n">
-        <v>3.856</v>
-      </c>
-      <c r="D809" t="n">
-        <v>3.856</v>
-      </c>
-      <c r="E809" t="n">
-        <v>3.856</v>
-      </c>
-      <c r="F809" t="n">
-        <v>1073.064</v>
-      </c>
-      <c r="G809" t="n">
-        <v>-26503886.35167383</v>
-      </c>
-      <c r="H809" t="n">
-        <v>0</v>
-      </c>
-      <c r="I809" t="inlineStr"/>
-      <c r="J809" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="K809" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L809" t="n">
-        <v>1</v>
-      </c>
-      <c r="M809" t="inlineStr"/>
-    </row>
-    <row r="810">
-      <c r="A810" s="1" t="n">
-        <v>808</v>
-      </c>
-      <c r="B810" t="n">
-        <v>3.858</v>
-      </c>
-      <c r="C810" t="n">
-        <v>3.858</v>
-      </c>
-      <c r="D810" t="n">
-        <v>3.858</v>
-      </c>
-      <c r="E810" t="n">
-        <v>3.858</v>
-      </c>
-      <c r="F810" t="n">
-        <v>2626.489</v>
-      </c>
-      <c r="G810" t="n">
-        <v>-26501259.86267383</v>
-      </c>
-      <c r="H810" t="n">
-        <v>0</v>
-      </c>
-      <c r="I810" t="inlineStr"/>
-      <c r="J810" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="K810" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L810" t="n">
-        <v>1</v>
-      </c>
-      <c r="M810" t="inlineStr"/>
-    </row>
-    <row r="811">
-      <c r="A811" s="1" t="n">
-        <v>809</v>
-      </c>
-      <c r="B811" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="C811" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="D811" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="E811" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="F811" t="n">
-        <v>3284.183</v>
-      </c>
-      <c r="G811" t="n">
-        <v>-26497975.67967383</v>
-      </c>
-      <c r="H811" t="n">
-        <v>0</v>
-      </c>
-      <c r="I811" t="inlineStr"/>
-      <c r="J811" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="K811" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L811" t="n">
-        <v>1</v>
-      </c>
-      <c r="M811" t="inlineStr"/>
-    </row>
-    <row r="812">
-      <c r="A812" s="1" t="n">
-        <v>810</v>
-      </c>
-      <c r="B812" t="n">
-        <v>3.862</v>
-      </c>
-      <c r="C812" t="n">
-        <v>3.862</v>
-      </c>
-      <c r="D812" t="n">
-        <v>3.862</v>
-      </c>
-      <c r="E812" t="n">
-        <v>3.862</v>
-      </c>
-      <c r="F812" t="n">
-        <v>496.337</v>
-      </c>
-      <c r="G812" t="n">
-        <v>-26497479.34267383</v>
-      </c>
-      <c r="H812" t="n">
-        <v>0</v>
-      </c>
-      <c r="I812" t="inlineStr"/>
-      <c r="J812" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="K812" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L812" t="n">
-        <v>1</v>
-      </c>
-      <c r="M812" t="inlineStr"/>
-    </row>
-    <row r="813">
-      <c r="A813" s="1" t="n">
-        <v>811</v>
-      </c>
-      <c r="B813" t="n">
-        <v>3.859</v>
-      </c>
-      <c r="C813" t="n">
-        <v>3.859</v>
-      </c>
-      <c r="D813" t="n">
-        <v>3.859</v>
-      </c>
-      <c r="E813" t="n">
-        <v>3.859</v>
-      </c>
-      <c r="F813" t="n">
-        <v>1498.244</v>
-      </c>
-      <c r="G813" t="n">
-        <v>-26498977.58667383</v>
-      </c>
-      <c r="H813" t="n">
-        <v>0</v>
-      </c>
-      <c r="I813" t="inlineStr"/>
-      <c r="J813" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="K813" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L813" t="n">
-        <v>1</v>
-      </c>
-      <c r="M813" t="inlineStr"/>
-    </row>
-    <row r="814">
-      <c r="A814" s="1" t="n">
-        <v>812</v>
-      </c>
-      <c r="B814" t="n">
-        <v>3.862</v>
-      </c>
-      <c r="C814" t="n">
-        <v>3.862</v>
-      </c>
-      <c r="D814" t="n">
-        <v>3.862</v>
-      </c>
-      <c r="E814" t="n">
-        <v>3.862</v>
-      </c>
-      <c r="F814" t="n">
-        <v>5714.397</v>
-      </c>
-      <c r="G814" t="n">
-        <v>-26493263.18967383</v>
-      </c>
-      <c r="H814" t="n">
-        <v>0</v>
-      </c>
-      <c r="I814" t="inlineStr"/>
-      <c r="J814" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="K814" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L814" t="n">
-        <v>1</v>
-      </c>
-      <c r="M814" t="inlineStr"/>
-    </row>
-    <row r="815">
-      <c r="A815" s="1" t="n">
-        <v>813</v>
-      </c>
-      <c r="B815" t="n">
-        <v>3.858</v>
-      </c>
-      <c r="C815" t="n">
-        <v>3.858</v>
-      </c>
-      <c r="D815" t="n">
-        <v>3.858</v>
-      </c>
-      <c r="E815" t="n">
-        <v>3.858</v>
-      </c>
-      <c r="F815" t="n">
-        <v>1246.353</v>
-      </c>
-      <c r="G815" t="n">
-        <v>-26494509.54267383</v>
-      </c>
-      <c r="H815" t="n">
-        <v>0</v>
-      </c>
-      <c r="I815" t="inlineStr"/>
-      <c r="J815" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="K815" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L815" t="n">
-        <v>1</v>
-      </c>
-      <c r="M815" t="inlineStr"/>
-    </row>
-    <row r="816">
-      <c r="A816" s="1" t="n">
-        <v>814</v>
-      </c>
-      <c r="B816" t="n">
-        <v>3.861</v>
-      </c>
-      <c r="C816" t="n">
-        <v>3.861</v>
-      </c>
-      <c r="D816" t="n">
-        <v>3.861</v>
-      </c>
-      <c r="E816" t="n">
-        <v>3.861</v>
-      </c>
-      <c r="F816" t="n">
-        <v>10742.498</v>
-      </c>
-      <c r="G816" t="n">
-        <v>-26483767.04467383</v>
-      </c>
-      <c r="H816" t="n">
-        <v>0</v>
-      </c>
-      <c r="I816" t="inlineStr"/>
-      <c r="J816" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="K816" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L816" t="n">
-        <v>1</v>
-      </c>
-      <c r="M816" t="inlineStr"/>
-    </row>
-    <row r="817">
-      <c r="A817" s="1" t="n">
-        <v>815</v>
-      </c>
-      <c r="B817" t="n">
-        <v>3.864</v>
-      </c>
-      <c r="C817" t="n">
-        <v>3.864</v>
-      </c>
-      <c r="D817" t="n">
-        <v>3.864</v>
-      </c>
-      <c r="E817" t="n">
-        <v>3.864</v>
-      </c>
-      <c r="F817" t="n">
-        <v>12002.705</v>
-      </c>
-      <c r="G817" t="n">
-        <v>-26471764.33967383</v>
-      </c>
-      <c r="H817" t="n">
-        <v>0</v>
-      </c>
-      <c r="I817" t="inlineStr"/>
-      <c r="J817" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="K817" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L817" t="n">
-        <v>1</v>
-      </c>
-      <c r="M817" t="inlineStr"/>
-    </row>
-    <row r="818">
-      <c r="A818" s="1" t="n">
-        <v>816</v>
-      </c>
-      <c r="B818" t="n">
-        <v>3.892</v>
-      </c>
-      <c r="C818" t="n">
-        <v>3.892</v>
-      </c>
-      <c r="D818" t="n">
-        <v>3.892</v>
-      </c>
-      <c r="E818" t="n">
-        <v>3.892</v>
-      </c>
-      <c r="F818" t="n">
-        <v>500</v>
-      </c>
-      <c r="G818" t="n">
-        <v>-26471264.33967383</v>
-      </c>
-      <c r="H818" t="n">
-        <v>0</v>
-      </c>
-      <c r="I818" t="inlineStr"/>
-      <c r="J818" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="K818" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L818" t="n">
-        <v>1</v>
-      </c>
-      <c r="M818" t="inlineStr"/>
-    </row>
-    <row r="819">
-      <c r="A819" s="1" t="n">
-        <v>817</v>
-      </c>
-      <c r="B819" t="n">
-        <v>3.888</v>
-      </c>
-      <c r="C819" t="n">
-        <v>3.888</v>
-      </c>
-      <c r="D819" t="n">
-        <v>3.888</v>
-      </c>
-      <c r="E819" t="n">
-        <v>3.888</v>
-      </c>
-      <c r="F819" t="n">
-        <v>532.168</v>
-      </c>
-      <c r="G819" t="n">
-        <v>-26471796.50767383</v>
-      </c>
-      <c r="H819" t="n">
-        <v>0</v>
-      </c>
-      <c r="I819" t="inlineStr"/>
-      <c r="J819" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="K819" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L819" t="n">
-        <v>1</v>
-      </c>
-      <c r="M819" t="inlineStr"/>
-    </row>
-    <row r="820">
-      <c r="A820" s="1" t="n">
-        <v>818</v>
-      </c>
-      <c r="B820" t="n">
-        <v>3.89</v>
-      </c>
-      <c r="C820" t="n">
-        <v>3.89</v>
-      </c>
-      <c r="D820" t="n">
-        <v>3.89</v>
-      </c>
-      <c r="E820" t="n">
-        <v>3.89</v>
-      </c>
-      <c r="F820" t="n">
-        <v>1119.172</v>
-      </c>
-      <c r="G820" t="n">
-        <v>-26470677.33567383</v>
-      </c>
-      <c r="H820" t="n">
-        <v>0</v>
-      </c>
-      <c r="I820" t="inlineStr"/>
-      <c r="J820" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="K820" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L820" t="n">
-        <v>1</v>
-      </c>
-      <c r="M820" t="inlineStr"/>
-    </row>
-    <row r="821">
-      <c r="A821" s="1" t="n">
-        <v>819</v>
-      </c>
-      <c r="B821" t="n">
-        <v>3.886</v>
-      </c>
-      <c r="C821" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="D821" t="n">
-        <v>3.886</v>
-      </c>
-      <c r="E821" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="F821" t="n">
-        <v>2884.6333</v>
-      </c>
-      <c r="G821" t="n">
-        <v>-26473561.96897383</v>
-      </c>
-      <c r="H821" t="n">
-        <v>0</v>
-      </c>
-      <c r="I821" t="inlineStr"/>
-      <c r="J821" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="K821" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L821" t="n">
-        <v>1</v>
-      </c>
-      <c r="M821" t="inlineStr"/>
-    </row>
-    <row r="822">
-      <c r="A822" s="1" t="n">
-        <v>820</v>
-      </c>
-      <c r="B822" t="n">
-        <v>3.852</v>
-      </c>
-      <c r="C822" t="n">
-        <v>3.852</v>
-      </c>
-      <c r="D822" t="n">
-        <v>3.852</v>
-      </c>
-      <c r="E822" t="n">
-        <v>3.852</v>
-      </c>
-      <c r="F822" t="n">
-        <v>589.282</v>
-      </c>
-      <c r="G822" t="n">
-        <v>-26472972.68697383</v>
-      </c>
-      <c r="H822" t="n">
-        <v>0</v>
-      </c>
-      <c r="I822" t="inlineStr"/>
-      <c r="J822" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="K822" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L822" t="n">
-        <v>1</v>
-      </c>
-      <c r="M822" t="inlineStr"/>
-    </row>
-    <row r="823">
-      <c r="A823" s="1" t="n">
-        <v>821</v>
-      </c>
-      <c r="B823" t="n">
-        <v>3.855</v>
-      </c>
-      <c r="C823" t="n">
-        <v>3.855</v>
-      </c>
-      <c r="D823" t="n">
-        <v>3.855</v>
-      </c>
-      <c r="E823" t="n">
-        <v>3.855</v>
-      </c>
-      <c r="F823" t="n">
-        <v>3492.57</v>
-      </c>
-      <c r="G823" t="n">
-        <v>-26469480.11697383</v>
-      </c>
-      <c r="H823" t="n">
-        <v>0</v>
-      </c>
-      <c r="I823" t="inlineStr"/>
-      <c r="J823" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="K823" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L823" t="n">
-        <v>1</v>
-      </c>
-      <c r="M823" t="inlineStr"/>
-    </row>
-    <row r="824">
-      <c r="A824" s="1" t="n">
-        <v>822</v>
-      </c>
-      <c r="B824" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="C824" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="D824" t="n">
-        <v>3.89</v>
-      </c>
-      <c r="E824" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="F824" t="n">
-        <v>5274.793</v>
-      </c>
-      <c r="G824" t="n">
-        <v>-26474754.90997383</v>
-      </c>
-      <c r="H824" t="n">
-        <v>0</v>
-      </c>
-      <c r="I824" t="inlineStr"/>
-      <c r="J824" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="K824" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L824" t="n">
-        <v>1</v>
-      </c>
-      <c r="M824" t="inlineStr"/>
-    </row>
-    <row r="825">
-      <c r="A825" s="1" t="n">
-        <v>823</v>
-      </c>
-      <c r="B825" t="n">
-        <v>3.89</v>
-      </c>
-      <c r="C825" t="n">
-        <v>3.892</v>
-      </c>
-      <c r="D825" t="n">
-        <v>3.892</v>
-      </c>
-      <c r="E825" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="F825" t="n">
-        <v>6935.5868</v>
-      </c>
-      <c r="G825" t="n">
-        <v>-26467819.32317383</v>
-      </c>
-      <c r="H825" t="n">
-        <v>0</v>
-      </c>
-      <c r="I825" t="inlineStr"/>
-      <c r="J825" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="K825" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L825" t="n">
-        <v>1</v>
-      </c>
-      <c r="M825" t="inlineStr"/>
-    </row>
-    <row r="826">
-      <c r="A826" s="1" t="n">
-        <v>824</v>
-      </c>
-      <c r="B826" t="n">
-        <v>3.893</v>
-      </c>
-      <c r="C826" t="n">
-        <v>3.893</v>
-      </c>
-      <c r="D826" t="n">
-        <v>3.893</v>
-      </c>
-      <c r="E826" t="n">
-        <v>3.893</v>
-      </c>
-      <c r="F826" t="n">
-        <v>628.456</v>
-      </c>
-      <c r="G826" t="n">
-        <v>-26467190.86717383</v>
-      </c>
-      <c r="H826" t="n">
-        <v>0</v>
-      </c>
-      <c r="I826" t="inlineStr"/>
-      <c r="J826" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="K826" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L826" t="n">
-        <v>1</v>
-      </c>
-      <c r="M826" t="inlineStr"/>
-    </row>
-    <row r="827">
-      <c r="A827" s="1" t="n">
-        <v>825</v>
-      </c>
-      <c r="B827" t="n">
-        <v>3.894</v>
-      </c>
-      <c r="C827" t="n">
-        <v>3.894</v>
-      </c>
-      <c r="D827" t="n">
-        <v>3.894</v>
-      </c>
-      <c r="E827" t="n">
-        <v>3.894</v>
-      </c>
-      <c r="F827" t="n">
-        <v>5004.857</v>
-      </c>
-      <c r="G827" t="n">
-        <v>-26462186.01017383</v>
-      </c>
-      <c r="H827" t="n">
-        <v>0</v>
-      </c>
-      <c r="I827" t="inlineStr"/>
-      <c r="J827" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="K827" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L827" t="n">
-        <v>1</v>
-      </c>
-      <c r="M827" t="inlineStr"/>
-    </row>
-    <row r="828">
-      <c r="A828" s="1" t="n">
-        <v>826</v>
-      </c>
-      <c r="B828" t="n">
-        <v>3.894</v>
-      </c>
-      <c r="C828" t="n">
-        <v>3.894</v>
-      </c>
-      <c r="D828" t="n">
-        <v>3.894</v>
-      </c>
-      <c r="E828" t="n">
-        <v>3.894</v>
-      </c>
-      <c r="F828" t="n">
-        <v>9856.588</v>
-      </c>
-      <c r="G828" t="n">
-        <v>-26462186.01017383</v>
-      </c>
-      <c r="H828" t="n">
-        <v>0</v>
-      </c>
-      <c r="I828" t="inlineStr"/>
-      <c r="J828" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="K828" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L828" t="n">
-        <v>1</v>
-      </c>
-      <c r="M828" t="inlineStr"/>
-    </row>
-    <row r="829">
-      <c r="A829" s="1" t="n">
-        <v>827</v>
-      </c>
-      <c r="B829" t="n">
-        <v>3.894</v>
-      </c>
-      <c r="C829" t="n">
-        <v>3.894</v>
-      </c>
-      <c r="D829" t="n">
-        <v>3.894</v>
-      </c>
-      <c r="E829" t="n">
-        <v>3.894</v>
-      </c>
-      <c r="F829" t="n">
-        <v>865.369</v>
-      </c>
-      <c r="G829" t="n">
-        <v>-26462186.01017383</v>
-      </c>
-      <c r="H829" t="n">
-        <v>0</v>
-      </c>
-      <c r="I829" t="inlineStr"/>
-      <c r="J829" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="K829" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L829" t="n">
-        <v>1</v>
-      </c>
-      <c r="M829" t="inlineStr"/>
-    </row>
-    <row r="830">
-      <c r="A830" s="1" t="n">
-        <v>828</v>
-      </c>
-      <c r="B830" t="n">
-        <v>3.894</v>
-      </c>
-      <c r="C830" t="n">
-        <v>3.894</v>
-      </c>
-      <c r="D830" t="n">
-        <v>3.894</v>
-      </c>
-      <c r="E830" t="n">
-        <v>3.894</v>
-      </c>
-      <c r="F830" t="n">
-        <v>150000</v>
-      </c>
-      <c r="G830" t="n">
-        <v>-26462186.01017383</v>
-      </c>
-      <c r="H830" t="n">
-        <v>0</v>
-      </c>
-      <c r="I830" t="inlineStr"/>
-      <c r="J830" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="K830" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L830" t="n">
-        <v>1</v>
-      </c>
-      <c r="M830" t="inlineStr"/>
-    </row>
-    <row r="831">
-      <c r="A831" s="1" t="n">
-        <v>829</v>
-      </c>
-      <c r="B831" t="n">
-        <v>3.894</v>
-      </c>
-      <c r="C831" t="n">
-        <v>3.894</v>
-      </c>
-      <c r="D831" t="n">
-        <v>3.894</v>
-      </c>
-      <c r="E831" t="n">
-        <v>3.894</v>
-      </c>
-      <c r="F831" t="n">
-        <v>53563.5199</v>
-      </c>
-      <c r="G831" t="n">
-        <v>-26462186.01017383</v>
-      </c>
-      <c r="H831" t="n">
-        <v>0</v>
-      </c>
-      <c r="I831" t="inlineStr"/>
-      <c r="J831" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="K831" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L831" t="n">
-        <v>1</v>
-      </c>
-      <c r="M831" t="inlineStr"/>
-    </row>
-    <row r="832">
-      <c r="A832" s="1" t="n">
-        <v>830</v>
-      </c>
-      <c r="B832" t="n">
-        <v>3.894</v>
-      </c>
-      <c r="C832" t="n">
-        <v>3.894</v>
-      </c>
-      <c r="D832" t="n">
-        <v>3.894</v>
-      </c>
-      <c r="E832" t="n">
-        <v>3.894</v>
-      </c>
-      <c r="F832" t="n">
-        <v>94932.1963</v>
-      </c>
-      <c r="G832" t="n">
-        <v>-26462186.01017383</v>
-      </c>
-      <c r="H832" t="n">
-        <v>0</v>
-      </c>
-      <c r="I832" t="inlineStr"/>
-      <c r="J832" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="K832" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L832" t="n">
-        <v>1</v>
-      </c>
-      <c r="M832" t="inlineStr"/>
-    </row>
-    <row r="833">
-      <c r="A833" s="1" t="n">
-        <v>831</v>
-      </c>
-      <c r="B833" t="n">
-        <v>3.89</v>
-      </c>
-      <c r="C833" t="n">
-        <v>3.89</v>
-      </c>
-      <c r="D833" t="n">
-        <v>3.891</v>
-      </c>
-      <c r="E833" t="n">
-        <v>3.89</v>
-      </c>
-      <c r="F833" t="n">
-        <v>29353.668</v>
-      </c>
-      <c r="G833" t="n">
-        <v>-26491539.67817383</v>
-      </c>
-      <c r="H833" t="n">
-        <v>0</v>
-      </c>
-      <c r="I833" t="inlineStr"/>
-      <c r="J833" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="K833" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L833" t="n">
-        <v>1</v>
-      </c>
-      <c r="M833" t="inlineStr"/>
-    </row>
-    <row r="834">
-      <c r="A834" s="1" t="n">
-        <v>832</v>
-      </c>
-      <c r="B834" t="n">
-        <v>3.888</v>
-      </c>
-      <c r="C834" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="D834" t="n">
-        <v>3.888</v>
-      </c>
-      <c r="E834" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="F834" t="n">
-        <v>76910.9279</v>
-      </c>
-      <c r="G834" t="n">
-        <v>-26568450.60607383</v>
-      </c>
-      <c r="H834" t="n">
-        <v>0</v>
-      </c>
-      <c r="I834" t="inlineStr"/>
-      <c r="J834" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="K834" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L834" t="n">
-        <v>1</v>
-      </c>
-      <c r="M834" t="inlineStr"/>
-    </row>
-    <row r="835">
-      <c r="A835" s="1" t="n">
-        <v>833</v>
-      </c>
-      <c r="B835" t="n">
-        <v>3.851</v>
-      </c>
-      <c r="C835" t="n">
-        <v>3.861</v>
-      </c>
-      <c r="D835" t="n">
-        <v>3.861</v>
-      </c>
-      <c r="E835" t="n">
-        <v>3.851</v>
-      </c>
-      <c r="F835" t="n">
-        <v>27243.2711</v>
-      </c>
-      <c r="G835" t="n">
-        <v>-26541207.33497383</v>
-      </c>
-      <c r="H835" t="n">
-        <v>0</v>
-      </c>
-      <c r="I835" t="inlineStr"/>
-      <c r="J835" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="K835" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L835" t="n">
-        <v>1</v>
-      </c>
-      <c r="M835" t="inlineStr"/>
-    </row>
-    <row r="836">
-      <c r="A836" s="1" t="n">
-        <v>834</v>
-      </c>
-      <c r="B836" t="n">
-        <v>3.861</v>
-      </c>
-      <c r="C836" t="n">
-        <v>3.861</v>
-      </c>
-      <c r="D836" t="n">
-        <v>3.861</v>
-      </c>
-      <c r="E836" t="n">
-        <v>3.861</v>
-      </c>
-      <c r="F836" t="n">
-        <v>2390.888</v>
-      </c>
-      <c r="G836" t="n">
-        <v>-26541207.33497383</v>
-      </c>
-      <c r="H836" t="n">
-        <v>0</v>
-      </c>
-      <c r="I836" t="inlineStr"/>
-      <c r="J836" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="K836" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L836" t="n">
-        <v>1</v>
-      </c>
-      <c r="M836" t="inlineStr"/>
-    </row>
-    <row r="837">
-      <c r="A837" s="1" t="n">
-        <v>835</v>
-      </c>
-      <c r="B837" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="C837" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="D837" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="E837" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="F837" t="n">
-        <v>25000</v>
-      </c>
-      <c r="G837" t="n">
-        <v>-26566207.33497383</v>
-      </c>
-      <c r="H837" t="n">
-        <v>0</v>
-      </c>
-      <c r="I837" t="inlineStr"/>
-      <c r="J837" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="K837" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L837" t="n">
-        <v>1</v>
-      </c>
-      <c r="M837" t="inlineStr"/>
-    </row>
-    <row r="838">
-      <c r="A838" s="1" t="n">
-        <v>836</v>
-      </c>
-      <c r="B838" t="n">
-        <v>3.861</v>
-      </c>
-      <c r="C838" t="n">
-        <v>3.861</v>
-      </c>
-      <c r="D838" t="n">
-        <v>3.861</v>
-      </c>
-      <c r="E838" t="n">
-        <v>3.861</v>
-      </c>
-      <c r="F838" t="n">
-        <v>3740.495</v>
-      </c>
-      <c r="G838" t="n">
-        <v>-26562466.83997383</v>
-      </c>
-      <c r="H838" t="n">
-        <v>0</v>
-      </c>
-      <c r="I838" t="inlineStr"/>
-      <c r="J838" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="K838" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L838" t="n">
-        <v>1</v>
-      </c>
-      <c r="M838" t="inlineStr"/>
-    </row>
-    <row r="839">
-      <c r="A839" s="1" t="n">
-        <v>837</v>
-      </c>
-      <c r="B839" t="n">
-        <v>3.862</v>
-      </c>
-      <c r="C839" t="n">
-        <v>3.862</v>
-      </c>
-      <c r="D839" t="n">
-        <v>3.862</v>
-      </c>
-      <c r="E839" t="n">
-        <v>3.862</v>
-      </c>
-      <c r="F839" t="n">
-        <v>1370.026</v>
-      </c>
-      <c r="G839" t="n">
-        <v>-26561096.81397383</v>
-      </c>
-      <c r="H839" t="n">
-        <v>0</v>
-      </c>
-      <c r="I839" t="inlineStr"/>
-      <c r="J839" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="K839" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L839" t="n">
-        <v>1</v>
-      </c>
-      <c r="M839" t="inlineStr"/>
-    </row>
-    <row r="840">
-      <c r="A840" s="1" t="n">
-        <v>838</v>
-      </c>
-      <c r="B840" t="n">
-        <v>3.861</v>
-      </c>
-      <c r="C840" t="n">
-        <v>3.861</v>
-      </c>
-      <c r="D840" t="n">
-        <v>3.861</v>
-      </c>
-      <c r="E840" t="n">
-        <v>3.861</v>
-      </c>
-      <c r="F840" t="n">
-        <v>2709.164</v>
-      </c>
-      <c r="G840" t="n">
-        <v>-26563805.97797383</v>
-      </c>
-      <c r="H840" t="n">
-        <v>0</v>
-      </c>
-      <c r="I840" t="inlineStr"/>
-      <c r="J840" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="K840" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L840" t="n">
-        <v>1</v>
-      </c>
-      <c r="M840" t="inlineStr"/>
-    </row>
-    <row r="841">
-      <c r="A841" s="1" t="n">
-        <v>839</v>
-      </c>
-      <c r="B841" t="n">
-        <v>3.861</v>
-      </c>
-      <c r="C841" t="n">
-        <v>3.861</v>
-      </c>
-      <c r="D841" t="n">
-        <v>3.861</v>
-      </c>
-      <c r="E841" t="n">
-        <v>3.861</v>
-      </c>
-      <c r="F841" t="n">
-        <v>4247.999</v>
-      </c>
-      <c r="G841" t="n">
-        <v>-26563805.97797383</v>
-      </c>
-      <c r="H841" t="n">
-        <v>0</v>
-      </c>
-      <c r="I841" t="inlineStr"/>
-      <c r="J841" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="K841" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L841" t="n">
-        <v>1</v>
-      </c>
-      <c r="M841" t="inlineStr"/>
-    </row>
-    <row r="842">
-      <c r="A842" s="1" t="n">
-        <v>840</v>
-      </c>
-      <c r="B842" t="n">
-        <v>3.861</v>
-      </c>
-      <c r="C842" t="n">
-        <v>3.861</v>
-      </c>
-      <c r="D842" t="n">
-        <v>3.861</v>
-      </c>
-      <c r="E842" t="n">
-        <v>3.861</v>
-      </c>
-      <c r="F842" t="n">
-        <v>449.045</v>
-      </c>
-      <c r="G842" t="n">
-        <v>-26563805.97797383</v>
-      </c>
-      <c r="H842" t="n">
-        <v>0</v>
-      </c>
-      <c r="I842" t="inlineStr"/>
-      <c r="J842" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="K842" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L842" t="n">
-        <v>1</v>
-      </c>
-      <c r="M842" t="inlineStr"/>
-    </row>
-    <row r="843">
-      <c r="A843" s="1" t="n">
-        <v>841</v>
-      </c>
-      <c r="B843" t="n">
-        <v>3.862</v>
-      </c>
-      <c r="C843" t="n">
-        <v>3.862</v>
-      </c>
-      <c r="D843" t="n">
-        <v>3.862</v>
-      </c>
-      <c r="E843" t="n">
-        <v>3.862</v>
-      </c>
-      <c r="F843" t="n">
-        <v>1346.546</v>
-      </c>
-      <c r="G843" t="n">
-        <v>-26562459.43197383</v>
-      </c>
-      <c r="H843" t="n">
-        <v>0</v>
-      </c>
-      <c r="I843" t="inlineStr"/>
-      <c r="J843" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="K843" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L843" t="n">
-        <v>1</v>
-      </c>
-      <c r="M843" t="inlineStr"/>
-    </row>
-    <row r="844">
-      <c r="A844" s="1" t="n">
-        <v>842</v>
-      </c>
-      <c r="B844" t="n">
-        <v>3.863</v>
-      </c>
-      <c r="C844" t="n">
-        <v>3.863</v>
-      </c>
-      <c r="D844" t="n">
-        <v>3.863</v>
-      </c>
-      <c r="E844" t="n">
-        <v>3.863</v>
-      </c>
-      <c r="F844" t="n">
-        <v>2487.005</v>
-      </c>
-      <c r="G844" t="n">
-        <v>-26559972.42697383</v>
-      </c>
-      <c r="H844" t="n">
-        <v>0</v>
-      </c>
-      <c r="I844" t="inlineStr"/>
-      <c r="J844" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="K844" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L844" t="n">
-        <v>1</v>
-      </c>
-      <c r="M844" t="inlineStr"/>
-    </row>
-    <row r="845">
-      <c r="A845" s="1" t="n">
-        <v>843</v>
-      </c>
-      <c r="B845" t="n">
-        <v>3.864</v>
-      </c>
-      <c r="C845" t="n">
-        <v>3.864</v>
-      </c>
-      <c r="D845" t="n">
-        <v>3.864</v>
-      </c>
-      <c r="E845" t="n">
-        <v>3.864</v>
-      </c>
-      <c r="F845" t="n">
-        <v>430.152</v>
-      </c>
-      <c r="G845" t="n">
-        <v>-26559542.27497383</v>
-      </c>
-      <c r="H845" t="n">
-        <v>0</v>
-      </c>
-      <c r="I845" t="inlineStr"/>
-      <c r="J845" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="K845" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L845" t="n">
-        <v>1</v>
-      </c>
-      <c r="M845" t="inlineStr"/>
-    </row>
-    <row r="846">
-      <c r="A846" s="1" t="n">
-        <v>844</v>
-      </c>
-      <c r="B846" t="n">
-        <v>3.865</v>
-      </c>
-      <c r="C846" t="n">
-        <v>3.865</v>
-      </c>
-      <c r="D846" t="n">
-        <v>3.865</v>
-      </c>
-      <c r="E846" t="n">
-        <v>3.865</v>
-      </c>
-      <c r="F846" t="n">
-        <v>1596.328</v>
-      </c>
-      <c r="G846" t="n">
-        <v>-26557945.94697383</v>
-      </c>
-      <c r="H846" t="n">
-        <v>0</v>
-      </c>
-      <c r="I846" t="inlineStr"/>
-      <c r="J846" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="K846" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L846" t="n">
-        <v>1</v>
-      </c>
-      <c r="M846" t="inlineStr"/>
-    </row>
-    <row r="847">
-      <c r="A847" s="1" t="n">
-        <v>845</v>
-      </c>
-      <c r="B847" t="n">
-        <v>3.863</v>
-      </c>
-      <c r="C847" t="n">
-        <v>3.863</v>
-      </c>
-      <c r="D847" t="n">
-        <v>3.863</v>
-      </c>
-      <c r="E847" t="n">
-        <v>3.863</v>
-      </c>
-      <c r="F847" t="n">
-        <v>3237.04</v>
-      </c>
-      <c r="G847" t="n">
-        <v>-26561182.98697383</v>
-      </c>
-      <c r="H847" t="n">
-        <v>0</v>
-      </c>
-      <c r="I847" t="inlineStr"/>
-      <c r="J847" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="K847" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L847" t="n">
-        <v>1</v>
-      </c>
-      <c r="M847" t="inlineStr"/>
-    </row>
-    <row r="848">
-      <c r="A848" s="1" t="n">
-        <v>846</v>
-      </c>
-      <c r="B848" t="n">
-        <v>3.861</v>
-      </c>
-      <c r="C848" t="n">
-        <v>3.887</v>
-      </c>
-      <c r="D848" t="n">
-        <v>3.887</v>
-      </c>
-      <c r="E848" t="n">
-        <v>3.861</v>
-      </c>
-      <c r="F848" t="n">
-        <v>800565.184</v>
-      </c>
-      <c r="G848" t="n">
-        <v>-25760617.80297383</v>
-      </c>
-      <c r="H848" t="n">
-        <v>0</v>
-      </c>
-      <c r="I848" t="inlineStr"/>
-      <c r="J848" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="K848" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L848" t="n">
         <v>1</v>
       </c>
@@ -29048,7 +28422,7 @@
       </c>
       <c r="I849" t="inlineStr"/>
       <c r="J849" t="n">
-        <v>3.824</v>
+        <v>3.864</v>
       </c>
       <c r="K849" t="inlineStr">
         <is>
@@ -29087,7 +28461,7 @@
       </c>
       <c r="I850" t="inlineStr"/>
       <c r="J850" t="n">
-        <v>3.824</v>
+        <v>3.864</v>
       </c>
       <c r="K850" t="inlineStr">
         <is>
@@ -29126,7 +28500,7 @@
       </c>
       <c r="I851" t="inlineStr"/>
       <c r="J851" t="n">
-        <v>3.824</v>
+        <v>3.864</v>
       </c>
       <c r="K851" t="inlineStr">
         <is>
@@ -29165,7 +28539,7 @@
       </c>
       <c r="I852" t="inlineStr"/>
       <c r="J852" t="n">
-        <v>3.824</v>
+        <v>3.864</v>
       </c>
       <c r="K852" t="inlineStr">
         <is>
@@ -29204,7 +28578,7 @@
       </c>
       <c r="I853" t="inlineStr"/>
       <c r="J853" t="n">
-        <v>3.824</v>
+        <v>3.864</v>
       </c>
       <c r="K853" t="inlineStr">
         <is>
@@ -29243,7 +28617,7 @@
       </c>
       <c r="I854" t="inlineStr"/>
       <c r="J854" t="n">
-        <v>3.824</v>
+        <v>3.864</v>
       </c>
       <c r="K854" t="inlineStr">
         <is>
@@ -29282,7 +28656,7 @@
       </c>
       <c r="I855" t="inlineStr"/>
       <c r="J855" t="n">
-        <v>3.824</v>
+        <v>3.864</v>
       </c>
       <c r="K855" t="inlineStr">
         <is>
@@ -29321,7 +28695,7 @@
       </c>
       <c r="I856" t="inlineStr"/>
       <c r="J856" t="n">
-        <v>3.824</v>
+        <v>3.864</v>
       </c>
       <c r="K856" t="inlineStr">
         <is>
@@ -29360,7 +28734,7 @@
       </c>
       <c r="I857" t="inlineStr"/>
       <c r="J857" t="n">
-        <v>3.824</v>
+        <v>3.864</v>
       </c>
       <c r="K857" t="inlineStr">
         <is>
@@ -29399,7 +28773,7 @@
       </c>
       <c r="I858" t="inlineStr"/>
       <c r="J858" t="n">
-        <v>3.824</v>
+        <v>3.864</v>
       </c>
       <c r="K858" t="inlineStr">
         <is>
@@ -29438,7 +28812,7 @@
       </c>
       <c r="I859" t="inlineStr"/>
       <c r="J859" t="n">
-        <v>3.824</v>
+        <v>3.864</v>
       </c>
       <c r="K859" t="inlineStr">
         <is>
@@ -29477,7 +28851,7 @@
       </c>
       <c r="I860" t="inlineStr"/>
       <c r="J860" t="n">
-        <v>3.824</v>
+        <v>3.864</v>
       </c>
       <c r="K860" t="inlineStr">
         <is>
@@ -29516,7 +28890,7 @@
       </c>
       <c r="I861" t="inlineStr"/>
       <c r="J861" t="n">
-        <v>3.824</v>
+        <v>3.864</v>
       </c>
       <c r="K861" t="inlineStr">
         <is>
@@ -29555,7 +28929,7 @@
       </c>
       <c r="I862" t="inlineStr"/>
       <c r="J862" t="n">
-        <v>3.824</v>
+        <v>3.864</v>
       </c>
       <c r="K862" t="inlineStr">
         <is>
@@ -29594,7 +28968,7 @@
       </c>
       <c r="I863" t="inlineStr"/>
       <c r="J863" t="n">
-        <v>3.824</v>
+        <v>3.864</v>
       </c>
       <c r="K863" t="inlineStr">
         <is>
@@ -29633,7 +29007,7 @@
       </c>
       <c r="I864" t="inlineStr"/>
       <c r="J864" t="n">
-        <v>3.824</v>
+        <v>3.864</v>
       </c>
       <c r="K864" t="inlineStr">
         <is>
@@ -29672,7 +29046,7 @@
       </c>
       <c r="I865" t="inlineStr"/>
       <c r="J865" t="n">
-        <v>3.824</v>
+        <v>3.864</v>
       </c>
       <c r="K865" t="inlineStr">
         <is>
@@ -29711,7 +29085,7 @@
       </c>
       <c r="I866" t="inlineStr"/>
       <c r="J866" t="n">
-        <v>3.824</v>
+        <v>3.864</v>
       </c>
       <c r="K866" t="inlineStr">
         <is>
@@ -29750,7 +29124,7 @@
       </c>
       <c r="I867" t="inlineStr"/>
       <c r="J867" t="n">
-        <v>3.824</v>
+        <v>3.864</v>
       </c>
       <c r="K867" t="inlineStr">
         <is>
@@ -29789,7 +29163,7 @@
       </c>
       <c r="I868" t="inlineStr"/>
       <c r="J868" t="n">
-        <v>3.824</v>
+        <v>3.864</v>
       </c>
       <c r="K868" t="inlineStr">
         <is>
@@ -29828,7 +29202,7 @@
       </c>
       <c r="I869" t="inlineStr"/>
       <c r="J869" t="n">
-        <v>3.824</v>
+        <v>3.864</v>
       </c>
       <c r="K869" t="inlineStr">
         <is>
@@ -29867,7 +29241,7 @@
       </c>
       <c r="I870" t="inlineStr"/>
       <c r="J870" t="n">
-        <v>3.824</v>
+        <v>3.864</v>
       </c>
       <c r="K870" t="inlineStr">
         <is>
@@ -29906,7 +29280,7 @@
       </c>
       <c r="I871" t="inlineStr"/>
       <c r="J871" t="n">
-        <v>3.824</v>
+        <v>3.864</v>
       </c>
       <c r="K871" t="inlineStr">
         <is>
@@ -29945,7 +29319,7 @@
       </c>
       <c r="I872" t="inlineStr"/>
       <c r="J872" t="n">
-        <v>3.824</v>
+        <v>3.864</v>
       </c>
       <c r="K872" t="inlineStr">
         <is>
@@ -29984,7 +29358,7 @@
       </c>
       <c r="I873" t="inlineStr"/>
       <c r="J873" t="n">
-        <v>3.824</v>
+        <v>3.864</v>
       </c>
       <c r="K873" t="inlineStr">
         <is>
@@ -30023,7 +29397,7 @@
       </c>
       <c r="I874" t="inlineStr"/>
       <c r="J874" t="n">
-        <v>3.824</v>
+        <v>3.864</v>
       </c>
       <c r="K874" t="inlineStr">
         <is>
@@ -30062,7 +29436,7 @@
       </c>
       <c r="I875" t="inlineStr"/>
       <c r="J875" t="n">
-        <v>3.824</v>
+        <v>3.864</v>
       </c>
       <c r="K875" t="inlineStr">
         <is>
@@ -30101,7 +29475,7 @@
       </c>
       <c r="I876" t="inlineStr"/>
       <c r="J876" t="n">
-        <v>3.824</v>
+        <v>3.864</v>
       </c>
       <c r="K876" t="inlineStr">
         <is>
@@ -30140,7 +29514,7 @@
       </c>
       <c r="I877" t="inlineStr"/>
       <c r="J877" t="n">
-        <v>3.824</v>
+        <v>3.864</v>
       </c>
       <c r="K877" t="inlineStr">
         <is>
@@ -30179,7 +29553,7 @@
       </c>
       <c r="I878" t="inlineStr"/>
       <c r="J878" t="n">
-        <v>3.824</v>
+        <v>3.864</v>
       </c>
       <c r="K878" t="inlineStr">
         <is>
@@ -30218,7 +29592,7 @@
       </c>
       <c r="I879" t="inlineStr"/>
       <c r="J879" t="n">
-        <v>3.824</v>
+        <v>3.864</v>
       </c>
       <c r="K879" t="inlineStr">
         <is>
@@ -30257,7 +29631,7 @@
       </c>
       <c r="I880" t="inlineStr"/>
       <c r="J880" t="n">
-        <v>3.824</v>
+        <v>3.864</v>
       </c>
       <c r="K880" t="inlineStr">
         <is>
@@ -30296,7 +29670,7 @@
       </c>
       <c r="I881" t="inlineStr"/>
       <c r="J881" t="n">
-        <v>3.824</v>
+        <v>3.864</v>
       </c>
       <c r="K881" t="inlineStr">
         <is>
@@ -30331,11 +29705,13 @@
         <v>-26348073.11007383</v>
       </c>
       <c r="H882" t="n">
-        <v>0</v>
-      </c>
-      <c r="I882" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I882" t="n">
+        <v>3.873</v>
+      </c>
       <c r="J882" t="n">
-        <v>3.824</v>
+        <v>3.864</v>
       </c>
       <c r="K882" t="inlineStr">
         <is>
@@ -30374,7 +29750,7 @@
       </c>
       <c r="I883" t="inlineStr"/>
       <c r="J883" t="n">
-        <v>3.824</v>
+        <v>3.864</v>
       </c>
       <c r="K883" t="inlineStr">
         <is>
@@ -30413,7 +29789,7 @@
       </c>
       <c r="I884" t="inlineStr"/>
       <c r="J884" t="n">
-        <v>3.824</v>
+        <v>3.864</v>
       </c>
       <c r="K884" t="inlineStr">
         <is>
@@ -30452,7 +29828,7 @@
       </c>
       <c r="I885" t="inlineStr"/>
       <c r="J885" t="n">
-        <v>3.824</v>
+        <v>3.864</v>
       </c>
       <c r="K885" t="inlineStr">
         <is>
@@ -30491,7 +29867,7 @@
       </c>
       <c r="I886" t="inlineStr"/>
       <c r="J886" t="n">
-        <v>3.824</v>
+        <v>3.864</v>
       </c>
       <c r="K886" t="inlineStr">
         <is>
@@ -30530,7 +29906,7 @@
       </c>
       <c r="I887" t="inlineStr"/>
       <c r="J887" t="n">
-        <v>3.824</v>
+        <v>3.864</v>
       </c>
       <c r="K887" t="inlineStr">
         <is>
@@ -30569,7 +29945,7 @@
       </c>
       <c r="I888" t="inlineStr"/>
       <c r="J888" t="n">
-        <v>3.824</v>
+        <v>3.864</v>
       </c>
       <c r="K888" t="inlineStr">
         <is>
@@ -30608,7 +29984,7 @@
       </c>
       <c r="I889" t="inlineStr"/>
       <c r="J889" t="n">
-        <v>3.824</v>
+        <v>3.864</v>
       </c>
       <c r="K889" t="inlineStr">
         <is>
@@ -30647,7 +30023,7 @@
       </c>
       <c r="I890" t="inlineStr"/>
       <c r="J890" t="n">
-        <v>3.824</v>
+        <v>3.864</v>
       </c>
       <c r="K890" t="inlineStr">
         <is>
@@ -30686,7 +30062,7 @@
       </c>
       <c r="I891" t="inlineStr"/>
       <c r="J891" t="n">
-        <v>3.824</v>
+        <v>3.864</v>
       </c>
       <c r="K891" t="inlineStr">
         <is>
@@ -30725,7 +30101,7 @@
       </c>
       <c r="I892" t="inlineStr"/>
       <c r="J892" t="n">
-        <v>3.824</v>
+        <v>3.864</v>
       </c>
       <c r="K892" t="inlineStr">
         <is>
@@ -30764,7 +30140,7 @@
       </c>
       <c r="I893" t="inlineStr"/>
       <c r="J893" t="n">
-        <v>3.824</v>
+        <v>3.864</v>
       </c>
       <c r="K893" t="inlineStr">
         <is>
@@ -30803,7 +30179,7 @@
       </c>
       <c r="I894" t="inlineStr"/>
       <c r="J894" t="n">
-        <v>3.824</v>
+        <v>3.864</v>
       </c>
       <c r="K894" t="inlineStr">
         <is>
@@ -30842,7 +30218,7 @@
       </c>
       <c r="I895" t="inlineStr"/>
       <c r="J895" t="n">
-        <v>3.824</v>
+        <v>3.864</v>
       </c>
       <c r="K895" t="inlineStr">
         <is>
@@ -30881,7 +30257,7 @@
       </c>
       <c r="I896" t="inlineStr"/>
       <c r="J896" t="n">
-        <v>3.824</v>
+        <v>3.864</v>
       </c>
       <c r="K896" t="inlineStr">
         <is>
@@ -30920,7 +30296,7 @@
       </c>
       <c r="I897" t="inlineStr"/>
       <c r="J897" t="n">
-        <v>3.824</v>
+        <v>3.864</v>
       </c>
       <c r="K897" t="inlineStr">
         <is>
@@ -30959,7 +30335,7 @@
       </c>
       <c r="I898" t="inlineStr"/>
       <c r="J898" t="n">
-        <v>3.824</v>
+        <v>3.864</v>
       </c>
       <c r="K898" t="inlineStr">
         <is>
@@ -30998,7 +30374,7 @@
       </c>
       <c r="I899" t="inlineStr"/>
       <c r="J899" t="n">
-        <v>3.824</v>
+        <v>3.864</v>
       </c>
       <c r="K899" t="inlineStr">
         <is>
@@ -31037,7 +30413,7 @@
       </c>
       <c r="I900" t="inlineStr"/>
       <c r="J900" t="n">
-        <v>3.824</v>
+        <v>3.864</v>
       </c>
       <c r="K900" t="inlineStr">
         <is>
@@ -31076,7 +30452,7 @@
       </c>
       <c r="I901" t="inlineStr"/>
       <c r="J901" t="n">
-        <v>3.824</v>
+        <v>3.864</v>
       </c>
       <c r="K901" t="inlineStr">
         <is>
@@ -31115,7 +30491,7 @@
       </c>
       <c r="I902" t="inlineStr"/>
       <c r="J902" t="n">
-        <v>3.824</v>
+        <v>3.864</v>
       </c>
       <c r="K902" t="inlineStr">
         <is>
@@ -31154,7 +30530,7 @@
       </c>
       <c r="I903" t="inlineStr"/>
       <c r="J903" t="n">
-        <v>3.824</v>
+        <v>3.864</v>
       </c>
       <c r="K903" t="inlineStr">
         <is>
@@ -31193,7 +30569,7 @@
       </c>
       <c r="I904" t="inlineStr"/>
       <c r="J904" t="n">
-        <v>3.824</v>
+        <v>3.864</v>
       </c>
       <c r="K904" t="inlineStr">
         <is>
@@ -31232,7 +30608,7 @@
       </c>
       <c r="I905" t="inlineStr"/>
       <c r="J905" t="n">
-        <v>3.824</v>
+        <v>3.864</v>
       </c>
       <c r="K905" t="inlineStr">
         <is>
@@ -31271,7 +30647,7 @@
       </c>
       <c r="I906" t="inlineStr"/>
       <c r="J906" t="n">
-        <v>3.824</v>
+        <v>3.864</v>
       </c>
       <c r="K906" t="inlineStr">
         <is>
@@ -31310,7 +30686,7 @@
       </c>
       <c r="I907" t="inlineStr"/>
       <c r="J907" t="n">
-        <v>3.824</v>
+        <v>3.864</v>
       </c>
       <c r="K907" t="inlineStr">
         <is>
@@ -31349,7 +30725,7 @@
       </c>
       <c r="I908" t="inlineStr"/>
       <c r="J908" t="n">
-        <v>3.824</v>
+        <v>3.864</v>
       </c>
       <c r="K908" t="inlineStr">
         <is>
@@ -31388,7 +30764,7 @@
       </c>
       <c r="I909" t="inlineStr"/>
       <c r="J909" t="n">
-        <v>3.824</v>
+        <v>3.864</v>
       </c>
       <c r="K909" t="inlineStr">
         <is>
@@ -31427,7 +30803,7 @@
       </c>
       <c r="I910" t="inlineStr"/>
       <c r="J910" t="n">
-        <v>3.824</v>
+        <v>3.864</v>
       </c>
       <c r="K910" t="inlineStr">
         <is>
@@ -31466,7 +30842,7 @@
       </c>
       <c r="I911" t="inlineStr"/>
       <c r="J911" t="n">
-        <v>3.824</v>
+        <v>3.864</v>
       </c>
       <c r="K911" t="inlineStr">
         <is>
@@ -31505,7 +30881,7 @@
       </c>
       <c r="I912" t="inlineStr"/>
       <c r="J912" t="n">
-        <v>3.824</v>
+        <v>3.864</v>
       </c>
       <c r="K912" t="inlineStr">
         <is>
@@ -31544,7 +30920,7 @@
       </c>
       <c r="I913" t="inlineStr"/>
       <c r="J913" t="n">
-        <v>3.824</v>
+        <v>3.864</v>
       </c>
       <c r="K913" t="inlineStr">
         <is>
@@ -31583,7 +30959,7 @@
       </c>
       <c r="I914" t="inlineStr"/>
       <c r="J914" t="n">
-        <v>3.824</v>
+        <v>3.864</v>
       </c>
       <c r="K914" t="inlineStr">
         <is>
@@ -31622,7 +30998,7 @@
       </c>
       <c r="I915" t="inlineStr"/>
       <c r="J915" t="n">
-        <v>3.824</v>
+        <v>3.864</v>
       </c>
       <c r="K915" t="inlineStr">
         <is>
@@ -31661,7 +31037,7 @@
       </c>
       <c r="I916" t="inlineStr"/>
       <c r="J916" t="n">
-        <v>3.824</v>
+        <v>3.864</v>
       </c>
       <c r="K916" t="inlineStr">
         <is>
@@ -31700,7 +31076,7 @@
       </c>
       <c r="I917" t="inlineStr"/>
       <c r="J917" t="n">
-        <v>3.824</v>
+        <v>3.864</v>
       </c>
       <c r="K917" t="inlineStr">
         <is>
@@ -31739,7 +31115,7 @@
       </c>
       <c r="I918" t="inlineStr"/>
       <c r="J918" t="n">
-        <v>3.824</v>
+        <v>3.864</v>
       </c>
       <c r="K918" t="inlineStr">
         <is>
@@ -31778,7 +31154,7 @@
       </c>
       <c r="I919" t="inlineStr"/>
       <c r="J919" t="n">
-        <v>3.824</v>
+        <v>3.864</v>
       </c>
       <c r="K919" t="inlineStr">
         <is>
@@ -31817,7 +31193,7 @@
       </c>
       <c r="I920" t="inlineStr"/>
       <c r="J920" t="n">
-        <v>3.824</v>
+        <v>3.864</v>
       </c>
       <c r="K920" t="inlineStr">
         <is>
@@ -31856,7 +31232,7 @@
       </c>
       <c r="I921" t="inlineStr"/>
       <c r="J921" t="n">
-        <v>3.824</v>
+        <v>3.864</v>
       </c>
       <c r="K921" t="inlineStr">
         <is>
@@ -31895,7 +31271,7 @@
       </c>
       <c r="I922" t="inlineStr"/>
       <c r="J922" t="n">
-        <v>3.824</v>
+        <v>3.864</v>
       </c>
       <c r="K922" t="inlineStr">
         <is>
@@ -31934,7 +31310,7 @@
       </c>
       <c r="I923" t="inlineStr"/>
       <c r="J923" t="n">
-        <v>3.824</v>
+        <v>3.864</v>
       </c>
       <c r="K923" t="inlineStr">
         <is>
@@ -31973,7 +31349,7 @@
       </c>
       <c r="I924" t="inlineStr"/>
       <c r="J924" t="n">
-        <v>3.824</v>
+        <v>3.864</v>
       </c>
       <c r="K924" t="inlineStr">
         <is>
@@ -32012,7 +31388,7 @@
       </c>
       <c r="I925" t="inlineStr"/>
       <c r="J925" t="n">
-        <v>3.824</v>
+        <v>3.864</v>
       </c>
       <c r="K925" t="inlineStr">
         <is>
@@ -32051,7 +31427,7 @@
       </c>
       <c r="I926" t="inlineStr"/>
       <c r="J926" t="n">
-        <v>3.824</v>
+        <v>3.864</v>
       </c>
       <c r="K926" t="inlineStr">
         <is>
@@ -32090,7 +31466,7 @@
       </c>
       <c r="I927" t="inlineStr"/>
       <c r="J927" t="n">
-        <v>3.824</v>
+        <v>3.864</v>
       </c>
       <c r="K927" t="inlineStr">
         <is>
@@ -32129,7 +31505,7 @@
       </c>
       <c r="I928" t="inlineStr"/>
       <c r="J928" t="n">
-        <v>3.824</v>
+        <v>3.864</v>
       </c>
       <c r="K928" t="inlineStr">
         <is>
@@ -32168,7 +31544,7 @@
       </c>
       <c r="I929" t="inlineStr"/>
       <c r="J929" t="n">
-        <v>3.824</v>
+        <v>3.864</v>
       </c>
       <c r="K929" t="inlineStr">
         <is>
@@ -32207,7 +31583,7 @@
       </c>
       <c r="I930" t="inlineStr"/>
       <c r="J930" t="n">
-        <v>3.824</v>
+        <v>3.864</v>
       </c>
       <c r="K930" t="inlineStr">
         <is>
@@ -32246,7 +31622,7 @@
       </c>
       <c r="I931" t="inlineStr"/>
       <c r="J931" t="n">
-        <v>3.824</v>
+        <v>3.864</v>
       </c>
       <c r="K931" t="inlineStr">
         <is>
@@ -32285,7 +31661,7 @@
       </c>
       <c r="I932" t="inlineStr"/>
       <c r="J932" t="n">
-        <v>3.824</v>
+        <v>3.864</v>
       </c>
       <c r="K932" t="inlineStr">
         <is>
@@ -32324,7 +31700,7 @@
       </c>
       <c r="I933" t="inlineStr"/>
       <c r="J933" t="n">
-        <v>3.824</v>
+        <v>3.864</v>
       </c>
       <c r="K933" t="inlineStr">
         <is>
@@ -32363,7 +31739,7 @@
       </c>
       <c r="I934" t="inlineStr"/>
       <c r="J934" t="n">
-        <v>3.824</v>
+        <v>3.864</v>
       </c>
       <c r="K934" t="inlineStr">
         <is>
@@ -32402,7 +31778,7 @@
       </c>
       <c r="I935" t="inlineStr"/>
       <c r="J935" t="n">
-        <v>3.824</v>
+        <v>3.864</v>
       </c>
       <c r="K935" t="inlineStr">
         <is>
@@ -32441,7 +31817,7 @@
       </c>
       <c r="I936" t="inlineStr"/>
       <c r="J936" t="n">
-        <v>3.824</v>
+        <v>3.864</v>
       </c>
       <c r="K936" t="inlineStr">
         <is>
@@ -32480,7 +31856,7 @@
       </c>
       <c r="I937" t="inlineStr"/>
       <c r="J937" t="n">
-        <v>3.824</v>
+        <v>3.864</v>
       </c>
       <c r="K937" t="inlineStr">
         <is>
@@ -32519,7 +31895,7 @@
       </c>
       <c r="I938" t="inlineStr"/>
       <c r="J938" t="n">
-        <v>3.824</v>
+        <v>3.864</v>
       </c>
       <c r="K938" t="inlineStr">
         <is>
@@ -32558,7 +31934,7 @@
       </c>
       <c r="I939" t="inlineStr"/>
       <c r="J939" t="n">
-        <v>3.824</v>
+        <v>3.864</v>
       </c>
       <c r="K939" t="inlineStr">
         <is>
@@ -32597,7 +31973,7 @@
       </c>
       <c r="I940" t="inlineStr"/>
       <c r="J940" t="n">
-        <v>3.824</v>
+        <v>3.864</v>
       </c>
       <c r="K940" t="inlineStr">
         <is>
@@ -32636,7 +32012,7 @@
       </c>
       <c r="I941" t="inlineStr"/>
       <c r="J941" t="n">
-        <v>3.824</v>
+        <v>3.864</v>
       </c>
       <c r="K941" t="inlineStr">
         <is>
@@ -32675,7 +32051,7 @@
       </c>
       <c r="I942" t="inlineStr"/>
       <c r="J942" t="n">
-        <v>3.824</v>
+        <v>3.864</v>
       </c>
       <c r="K942" t="inlineStr">
         <is>
@@ -32714,7 +32090,7 @@
       </c>
       <c r="I943" t="inlineStr"/>
       <c r="J943" t="n">
-        <v>3.824</v>
+        <v>3.864</v>
       </c>
       <c r="K943" t="inlineStr">
         <is>
@@ -32753,7 +32129,7 @@
       </c>
       <c r="I944" t="inlineStr"/>
       <c r="J944" t="n">
-        <v>3.824</v>
+        <v>3.864</v>
       </c>
       <c r="K944" t="inlineStr">
         <is>
@@ -32792,7 +32168,7 @@
       </c>
       <c r="I945" t="inlineStr"/>
       <c r="J945" t="n">
-        <v>3.824</v>
+        <v>3.864</v>
       </c>
       <c r="K945" t="inlineStr">
         <is>
@@ -32831,7 +32207,7 @@
       </c>
       <c r="I946" t="inlineStr"/>
       <c r="J946" t="n">
-        <v>3.824</v>
+        <v>3.864</v>
       </c>
       <c r="K946" t="inlineStr">
         <is>
@@ -32870,7 +32246,7 @@
       </c>
       <c r="I947" t="inlineStr"/>
       <c r="J947" t="n">
-        <v>3.824</v>
+        <v>3.864</v>
       </c>
       <c r="K947" t="inlineStr">
         <is>
@@ -32909,7 +32285,7 @@
       </c>
       <c r="I948" t="inlineStr"/>
       <c r="J948" t="n">
-        <v>3.824</v>
+        <v>3.864</v>
       </c>
       <c r="K948" t="inlineStr">
         <is>
@@ -32948,7 +32324,7 @@
       </c>
       <c r="I949" t="inlineStr"/>
       <c r="J949" t="n">
-        <v>3.824</v>
+        <v>3.864</v>
       </c>
       <c r="K949" t="inlineStr">
         <is>
@@ -32987,7 +32363,7 @@
       </c>
       <c r="I950" t="inlineStr"/>
       <c r="J950" t="n">
-        <v>3.824</v>
+        <v>3.864</v>
       </c>
       <c r="K950" t="inlineStr">
         <is>
@@ -33026,7 +32402,7 @@
       </c>
       <c r="I951" t="inlineStr"/>
       <c r="J951" t="n">
-        <v>3.824</v>
+        <v>3.864</v>
       </c>
       <c r="K951" t="inlineStr">
         <is>
@@ -33065,7 +32441,7 @@
       </c>
       <c r="I952" t="inlineStr"/>
       <c r="J952" t="n">
-        <v>3.824</v>
+        <v>3.864</v>
       </c>
       <c r="K952" t="inlineStr">
         <is>
@@ -33104,7 +32480,7 @@
       </c>
       <c r="I953" t="inlineStr"/>
       <c r="J953" t="n">
-        <v>3.824</v>
+        <v>3.864</v>
       </c>
       <c r="K953" t="inlineStr">
         <is>
@@ -33143,7 +32519,7 @@
       </c>
       <c r="I954" t="inlineStr"/>
       <c r="J954" t="n">
-        <v>3.824</v>
+        <v>3.864</v>
       </c>
       <c r="K954" t="inlineStr">
         <is>
@@ -33182,7 +32558,7 @@
       </c>
       <c r="I955" t="inlineStr"/>
       <c r="J955" t="n">
-        <v>3.824</v>
+        <v>3.864</v>
       </c>
       <c r="K955" t="inlineStr">
         <is>
@@ -33221,7 +32597,7 @@
       </c>
       <c r="I956" t="inlineStr"/>
       <c r="J956" t="n">
-        <v>3.824</v>
+        <v>3.864</v>
       </c>
       <c r="K956" t="inlineStr">
         <is>
@@ -33260,7 +32636,7 @@
       </c>
       <c r="I957" t="inlineStr"/>
       <c r="J957" t="n">
-        <v>3.824</v>
+        <v>3.864</v>
       </c>
       <c r="K957" t="inlineStr">
         <is>
@@ -33299,7 +32675,7 @@
       </c>
       <c r="I958" t="inlineStr"/>
       <c r="J958" t="n">
-        <v>3.824</v>
+        <v>3.864</v>
       </c>
       <c r="K958" t="inlineStr">
         <is>
@@ -33338,7 +32714,7 @@
       </c>
       <c r="I959" t="inlineStr"/>
       <c r="J959" t="n">
-        <v>3.824</v>
+        <v>3.864</v>
       </c>
       <c r="K959" t="inlineStr">
         <is>
@@ -33351,6 +32727,6 @@
       <c r="M959" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-21 BackTest TMTG.xlsx
+++ b/BackTest/2020-01-21 BackTest TMTG.xlsx
@@ -12892,7 +12892,7 @@
         <v>1098232.191763425</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -13222,7 +13222,7 @@
         <v>1316654.379763426</v>
       </c>
       <c r="H389" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -13255,7 +13255,7 @@
         <v>960174.6967634256</v>
       </c>
       <c r="H390" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -13288,7 +13288,7 @@
         <v>928843.3927634256</v>
       </c>
       <c r="H391" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -13519,7 +13519,7 @@
         <v>836322.0827634255</v>
       </c>
       <c r="H398" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -13552,7 +13552,7 @@
         <v>1015105.263763426</v>
       </c>
       <c r="H399" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -13585,7 +13585,7 @@
         <v>1219771.392763426</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -13618,7 +13618,7 @@
         <v>1254895.786763426</v>
       </c>
       <c r="H401" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -13651,7 +13651,7 @@
         <v>1315278.002763426</v>
       </c>
       <c r="H402" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -13684,7 +13684,7 @@
         <v>1133151.304763426</v>
       </c>
       <c r="H403" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -13717,7 +13717,7 @@
         <v>994074.8057634255</v>
       </c>
       <c r="H404" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -13750,7 +13750,7 @@
         <v>1777831.133363425</v>
       </c>
       <c r="H405" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -13783,7 +13783,7 @@
         <v>1841438.261363426</v>
       </c>
       <c r="H406" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -13816,7 +13816,7 @@
         <v>1987012.071498949</v>
       </c>
       <c r="H407" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -13849,7 +13849,7 @@
         <v>1866340.515498949</v>
       </c>
       <c r="H408" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -13882,7 +13882,7 @@
         <v>2011141.890041043</v>
       </c>
       <c r="H409" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -13915,7 +13915,7 @@
         <v>1637066.178041043</v>
       </c>
       <c r="H410" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -13948,7 +13948,7 @@
         <v>1677220.568041043</v>
       </c>
       <c r="H411" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -13981,7 +13981,7 @@
         <v>1587833.715041043</v>
       </c>
       <c r="H412" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -14014,7 +14014,7 @@
         <v>1415831.179041043</v>
       </c>
       <c r="H413" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -14047,7 +14047,7 @@
         <v>1643448.972041043</v>
       </c>
       <c r="H414" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -14080,7 +14080,7 @@
         <v>1929475.501041043</v>
       </c>
       <c r="H415" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -14113,7 +14113,7 @@
         <v>1907881.862041043</v>
       </c>
       <c r="H416" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -14146,7 +14146,7 @@
         <v>1867664.704041043</v>
       </c>
       <c r="H417" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -14509,7 +14509,7 @@
         <v>4353317.492641043</v>
       </c>
       <c r="H428" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -14542,7 +14542,7 @@
         <v>3644826.428641043</v>
       </c>
       <c r="H429" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -14575,7 +14575,7 @@
         <v>3181953.050441043</v>
       </c>
       <c r="H430" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -14608,7 +14608,7 @@
         <v>3181953.050441043</v>
       </c>
       <c r="H431" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -14839,7 +14839,7 @@
         <v>3191700.597141042</v>
       </c>
       <c r="H438" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -14872,7 +14872,7 @@
         <v>3315943.902141042</v>
       </c>
       <c r="H439" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -14938,7 +14938,7 @@
         <v>3540056.540141042</v>
       </c>
       <c r="H441" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -14971,7 +14971,7 @@
         <v>3627812.129141042</v>
       </c>
       <c r="H442" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -15004,7 +15004,7 @@
         <v>3903532.346141042</v>
       </c>
       <c r="H443" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -15037,7 +15037,7 @@
         <v>3671568.586941042</v>
       </c>
       <c r="H444" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -15070,7 +15070,7 @@
         <v>3378115.349941042</v>
       </c>
       <c r="H445" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -21637,7 +21637,7 @@
         <v>-730494.0319497467</v>
       </c>
       <c r="H644" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
@@ -21670,7 +21670,7 @@
         <v>-735208.7699497467</v>
       </c>
       <c r="H645" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
@@ -21703,7 +21703,7 @@
         <v>-745064.4899497466</v>
       </c>
       <c r="H646" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
@@ -21736,7 +21736,7 @@
         <v>-729264.2119497466</v>
       </c>
       <c r="H647" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
@@ -21769,7 +21769,7 @@
         <v>-730626.9179497466</v>
       </c>
       <c r="H648" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
@@ -21802,7 +21802,7 @@
         <v>-410017.5841465398</v>
       </c>
       <c r="H649" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
@@ -21835,7 +21835,7 @@
         <v>-384225.9791465398</v>
       </c>
       <c r="H650" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr"/>
@@ -21868,7 +21868,7 @@
         <v>-418430.9431465398</v>
       </c>
       <c r="H651" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
@@ -21901,7 +21901,7 @@
         <v>-412602.2351465398</v>
       </c>
       <c r="H652" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
@@ -21934,7 +21934,7 @@
         <v>-428204.0111465398</v>
       </c>
       <c r="H653" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
@@ -21967,7 +21967,7 @@
         <v>-401844.3011465398</v>
       </c>
       <c r="H654" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
@@ -22000,7 +22000,7 @@
         <v>-404594.0381465398</v>
       </c>
       <c r="H655" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
@@ -22033,7 +22033,7 @@
         <v>-456113.9457433331</v>
       </c>
       <c r="H656" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
@@ -22066,7 +22066,7 @@
         <v>-463704.9287433331</v>
       </c>
       <c r="H657" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
@@ -22099,7 +22099,7 @@
         <v>-481431.8447433331</v>
       </c>
       <c r="H658" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
@@ -22132,7 +22132,7 @@
         <v>-460468.3257433331</v>
       </c>
       <c r="H659" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
@@ -22165,7 +22165,7 @@
         <v>-453510.1877433331</v>
       </c>
       <c r="H660" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
@@ -22198,7 +22198,7 @@
         <v>-466245.0137433331</v>
       </c>
       <c r="H661" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
@@ -22231,7 +22231,7 @@
         <v>-517165.2362433331</v>
       </c>
       <c r="H662" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
@@ -22264,7 +22264,7 @@
         <v>-519582.5672433331</v>
       </c>
       <c r="H663" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
@@ -22297,7 +22297,7 @@
         <v>-526568.3592433331</v>
       </c>
       <c r="H664" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
@@ -22330,7 +22330,7 @@
         <v>-512099.4772433331</v>
       </c>
       <c r="H665" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
@@ -22363,7 +22363,7 @@
         <v>-54851.1200433331</v>
       </c>
       <c r="H666" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
@@ -22396,7 +22396,7 @@
         <v>-48464.2740433331</v>
       </c>
       <c r="H667" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
@@ -22429,7 +22429,7 @@
         <v>-30208.4700433331</v>
       </c>
       <c r="H668" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
@@ -22462,7 +22462,7 @@
         <v>-5547.0850433331</v>
       </c>
       <c r="H669" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
@@ -22495,7 +22495,7 @@
         <v>-11461.8390433331</v>
       </c>
       <c r="H670" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
@@ -22528,7 +22528,7 @@
         <v>-52575.2696433331</v>
       </c>
       <c r="H671" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
@@ -22561,7 +22561,7 @@
         <v>-72188.61264333309</v>
       </c>
       <c r="H672" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
@@ -22594,7 +22594,7 @@
         <v>-104006.8216433331</v>
       </c>
       <c r="H673" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
@@ -22627,7 +22627,7 @@
         <v>-105532.9216433331</v>
       </c>
       <c r="H674" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
@@ -22660,7 +22660,7 @@
         <v>-94113.1826433331</v>
       </c>
       <c r="H675" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
@@ -22693,7 +22693,7 @@
         <v>-116521.7966433331</v>
       </c>
       <c r="H676" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
@@ -25036,7 +25036,7 @@
         <v>-26086494.22374334</v>
       </c>
       <c r="H747" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I747" t="inlineStr"/>
       <c r="J747" t="inlineStr"/>
@@ -25102,7 +25102,7 @@
         <v>-26080539.89974334</v>
       </c>
       <c r="H749" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I749" t="inlineStr"/>
       <c r="J749" t="inlineStr"/>
@@ -25135,10 +25135,14 @@
         <v>-26079828.25574334</v>
       </c>
       <c r="H750" t="n">
-        <v>2</v>
-      </c>
-      <c r="I750" t="inlineStr"/>
-      <c r="J750" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I750" t="n">
+        <v>3.831</v>
+      </c>
+      <c r="J750" t="n">
+        <v>3.831</v>
+      </c>
       <c r="K750" t="inlineStr"/>
       <c r="L750" t="n">
         <v>1</v>
@@ -25168,11 +25172,19 @@
         <v>-26082265.39874334</v>
       </c>
       <c r="H751" t="n">
-        <v>2</v>
-      </c>
-      <c r="I751" t="inlineStr"/>
-      <c r="J751" t="inlineStr"/>
-      <c r="K751" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I751" t="n">
+        <v>3.834</v>
+      </c>
+      <c r="J751" t="n">
+        <v>3.831</v>
+      </c>
+      <c r="K751" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L751" t="n">
         <v>1</v>
       </c>
@@ -25201,11 +25213,19 @@
         <v>-26078172.01174334</v>
       </c>
       <c r="H752" t="n">
-        <v>2</v>
-      </c>
-      <c r="I752" t="inlineStr"/>
-      <c r="J752" t="inlineStr"/>
-      <c r="K752" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I752" t="n">
+        <v>3.829</v>
+      </c>
+      <c r="J752" t="n">
+        <v>3.831</v>
+      </c>
+      <c r="K752" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L752" t="n">
         <v>1</v>
       </c>
@@ -25234,10 +25254,14 @@
         <v>-26078810.68674334</v>
       </c>
       <c r="H753" t="n">
-        <v>2</v>
-      </c>
-      <c r="I753" t="inlineStr"/>
-      <c r="J753" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I753" t="n">
+        <v>3.833</v>
+      </c>
+      <c r="J753" t="n">
+        <v>3.833</v>
+      </c>
       <c r="K753" t="inlineStr"/>
       <c r="L753" t="n">
         <v>1</v>
@@ -25267,11 +25291,19 @@
         <v>-26081215.58674334</v>
       </c>
       <c r="H754" t="n">
-        <v>2</v>
-      </c>
-      <c r="I754" t="inlineStr"/>
-      <c r="J754" t="inlineStr"/>
-      <c r="K754" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I754" t="n">
+        <v>3.829</v>
+      </c>
+      <c r="J754" t="n">
+        <v>3.833</v>
+      </c>
+      <c r="K754" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L754" t="n">
         <v>1</v>
       </c>
@@ -25300,11 +25332,19 @@
         <v>-26085237.10474334</v>
       </c>
       <c r="H755" t="n">
-        <v>0</v>
-      </c>
-      <c r="I755" t="inlineStr"/>
-      <c r="J755" t="inlineStr"/>
-      <c r="K755" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I755" t="n">
+        <v>3.824</v>
+      </c>
+      <c r="J755" t="n">
+        <v>3.833</v>
+      </c>
+      <c r="K755" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L755" t="n">
         <v>1</v>
       </c>
@@ -25333,10 +25373,14 @@
         <v>-26085237.10474334</v>
       </c>
       <c r="H756" t="n">
-        <v>0</v>
-      </c>
-      <c r="I756" t="inlineStr"/>
-      <c r="J756" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I756" t="n">
+        <v>3.821</v>
+      </c>
+      <c r="J756" t="n">
+        <v>3.821</v>
+      </c>
       <c r="K756" t="inlineStr"/>
       <c r="L756" t="n">
         <v>1</v>
@@ -25366,11 +25410,19 @@
         <v>-26082691.60174334</v>
       </c>
       <c r="H757" t="n">
-        <v>0</v>
-      </c>
-      <c r="I757" t="inlineStr"/>
-      <c r="J757" t="inlineStr"/>
-      <c r="K757" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I757" t="n">
+        <v>3.821</v>
+      </c>
+      <c r="J757" t="n">
+        <v>3.821</v>
+      </c>
+      <c r="K757" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L757" t="n">
         <v>1</v>
       </c>
@@ -25402,8 +25454,14 @@
         <v>0</v>
       </c>
       <c r="I758" t="inlineStr"/>
-      <c r="J758" t="inlineStr"/>
-      <c r="K758" t="inlineStr"/>
+      <c r="J758" t="n">
+        <v>3.821</v>
+      </c>
+      <c r="K758" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L758" t="n">
         <v>1</v>
       </c>
@@ -28303,14 +28361,10 @@
         <v>-26557945.94697383</v>
       </c>
       <c r="H846" t="n">
-        <v>1</v>
-      </c>
-      <c r="I846" t="n">
-        <v>3.864</v>
-      </c>
-      <c r="J846" t="n">
-        <v>3.864</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I846" t="inlineStr"/>
+      <c r="J846" t="inlineStr"/>
       <c r="K846" t="inlineStr"/>
       <c r="L846" t="n">
         <v>1</v>
@@ -28343,14 +28397,8 @@
         <v>0</v>
       </c>
       <c r="I847" t="inlineStr"/>
-      <c r="J847" t="n">
-        <v>3.864</v>
-      </c>
-      <c r="K847" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J847" t="inlineStr"/>
+      <c r="K847" t="inlineStr"/>
       <c r="L847" t="n">
         <v>1</v>
       </c>
@@ -28382,14 +28430,8 @@
         <v>0</v>
       </c>
       <c r="I848" t="inlineStr"/>
-      <c r="J848" t="n">
-        <v>3.864</v>
-      </c>
-      <c r="K848" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J848" t="inlineStr"/>
+      <c r="K848" t="inlineStr"/>
       <c r="L848" t="n">
         <v>1</v>
       </c>
@@ -28421,14 +28463,8 @@
         <v>0</v>
       </c>
       <c r="I849" t="inlineStr"/>
-      <c r="J849" t="n">
-        <v>3.864</v>
-      </c>
-      <c r="K849" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J849" t="inlineStr"/>
+      <c r="K849" t="inlineStr"/>
       <c r="L849" t="n">
         <v>1</v>
       </c>
@@ -28460,14 +28496,8 @@
         <v>0</v>
       </c>
       <c r="I850" t="inlineStr"/>
-      <c r="J850" t="n">
-        <v>3.864</v>
-      </c>
-      <c r="K850" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J850" t="inlineStr"/>
+      <c r="K850" t="inlineStr"/>
       <c r="L850" t="n">
         <v>1</v>
       </c>
@@ -28499,14 +28529,8 @@
         <v>0</v>
       </c>
       <c r="I851" t="inlineStr"/>
-      <c r="J851" t="n">
-        <v>3.864</v>
-      </c>
-      <c r="K851" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J851" t="inlineStr"/>
+      <c r="K851" t="inlineStr"/>
       <c r="L851" t="n">
         <v>1</v>
       </c>
@@ -28538,14 +28562,8 @@
         <v>0</v>
       </c>
       <c r="I852" t="inlineStr"/>
-      <c r="J852" t="n">
-        <v>3.864</v>
-      </c>
-      <c r="K852" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J852" t="inlineStr"/>
+      <c r="K852" t="inlineStr"/>
       <c r="L852" t="n">
         <v>1</v>
       </c>
@@ -28577,14 +28595,8 @@
         <v>0</v>
       </c>
       <c r="I853" t="inlineStr"/>
-      <c r="J853" t="n">
-        <v>3.864</v>
-      </c>
-      <c r="K853" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J853" t="inlineStr"/>
+      <c r="K853" t="inlineStr"/>
       <c r="L853" t="n">
         <v>1</v>
       </c>
@@ -28616,14 +28628,8 @@
         <v>0</v>
       </c>
       <c r="I854" t="inlineStr"/>
-      <c r="J854" t="n">
-        <v>3.864</v>
-      </c>
-      <c r="K854" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J854" t="inlineStr"/>
+      <c r="K854" t="inlineStr"/>
       <c r="L854" t="n">
         <v>1</v>
       </c>
@@ -28655,14 +28661,8 @@
         <v>0</v>
       </c>
       <c r="I855" t="inlineStr"/>
-      <c r="J855" t="n">
-        <v>3.864</v>
-      </c>
-      <c r="K855" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J855" t="inlineStr"/>
+      <c r="K855" t="inlineStr"/>
       <c r="L855" t="n">
         <v>1</v>
       </c>
@@ -28694,14 +28694,8 @@
         <v>0</v>
       </c>
       <c r="I856" t="inlineStr"/>
-      <c r="J856" t="n">
-        <v>3.864</v>
-      </c>
-      <c r="K856" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J856" t="inlineStr"/>
+      <c r="K856" t="inlineStr"/>
       <c r="L856" t="n">
         <v>1</v>
       </c>
@@ -28733,14 +28727,8 @@
         <v>0</v>
       </c>
       <c r="I857" t="inlineStr"/>
-      <c r="J857" t="n">
-        <v>3.864</v>
-      </c>
-      <c r="K857" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J857" t="inlineStr"/>
+      <c r="K857" t="inlineStr"/>
       <c r="L857" t="n">
         <v>1</v>
       </c>
@@ -28772,14 +28760,8 @@
         <v>0</v>
       </c>
       <c r="I858" t="inlineStr"/>
-      <c r="J858" t="n">
-        <v>3.864</v>
-      </c>
-      <c r="K858" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J858" t="inlineStr"/>
+      <c r="K858" t="inlineStr"/>
       <c r="L858" t="n">
         <v>1</v>
       </c>
@@ -28811,14 +28793,8 @@
         <v>0</v>
       </c>
       <c r="I859" t="inlineStr"/>
-      <c r="J859" t="n">
-        <v>3.864</v>
-      </c>
-      <c r="K859" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J859" t="inlineStr"/>
+      <c r="K859" t="inlineStr"/>
       <c r="L859" t="n">
         <v>1</v>
       </c>
@@ -28850,14 +28826,8 @@
         <v>0</v>
       </c>
       <c r="I860" t="inlineStr"/>
-      <c r="J860" t="n">
-        <v>3.864</v>
-      </c>
-      <c r="K860" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J860" t="inlineStr"/>
+      <c r="K860" t="inlineStr"/>
       <c r="L860" t="n">
         <v>1</v>
       </c>
@@ -28889,14 +28859,8 @@
         <v>0</v>
       </c>
       <c r="I861" t="inlineStr"/>
-      <c r="J861" t="n">
-        <v>3.864</v>
-      </c>
-      <c r="K861" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J861" t="inlineStr"/>
+      <c r="K861" t="inlineStr"/>
       <c r="L861" t="n">
         <v>1</v>
       </c>
@@ -28928,14 +28892,8 @@
         <v>0</v>
       </c>
       <c r="I862" t="inlineStr"/>
-      <c r="J862" t="n">
-        <v>3.864</v>
-      </c>
-      <c r="K862" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J862" t="inlineStr"/>
+      <c r="K862" t="inlineStr"/>
       <c r="L862" t="n">
         <v>1</v>
       </c>
@@ -28967,14 +28925,8 @@
         <v>0</v>
       </c>
       <c r="I863" t="inlineStr"/>
-      <c r="J863" t="n">
-        <v>3.864</v>
-      </c>
-      <c r="K863" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J863" t="inlineStr"/>
+      <c r="K863" t="inlineStr"/>
       <c r="L863" t="n">
         <v>1</v>
       </c>
@@ -29006,14 +28958,8 @@
         <v>0</v>
       </c>
       <c r="I864" t="inlineStr"/>
-      <c r="J864" t="n">
-        <v>3.864</v>
-      </c>
-      <c r="K864" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J864" t="inlineStr"/>
+      <c r="K864" t="inlineStr"/>
       <c r="L864" t="n">
         <v>1</v>
       </c>
@@ -29045,14 +28991,8 @@
         <v>0</v>
       </c>
       <c r="I865" t="inlineStr"/>
-      <c r="J865" t="n">
-        <v>3.864</v>
-      </c>
-      <c r="K865" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J865" t="inlineStr"/>
+      <c r="K865" t="inlineStr"/>
       <c r="L865" t="n">
         <v>1</v>
       </c>
@@ -29084,14 +29024,8 @@
         <v>0</v>
       </c>
       <c r="I866" t="inlineStr"/>
-      <c r="J866" t="n">
-        <v>3.864</v>
-      </c>
-      <c r="K866" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J866" t="inlineStr"/>
+      <c r="K866" t="inlineStr"/>
       <c r="L866" t="n">
         <v>1</v>
       </c>
@@ -29123,14 +29057,8 @@
         <v>0</v>
       </c>
       <c r="I867" t="inlineStr"/>
-      <c r="J867" t="n">
-        <v>3.864</v>
-      </c>
-      <c r="K867" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J867" t="inlineStr"/>
+      <c r="K867" t="inlineStr"/>
       <c r="L867" t="n">
         <v>1</v>
       </c>
@@ -29162,14 +29090,8 @@
         <v>0</v>
       </c>
       <c r="I868" t="inlineStr"/>
-      <c r="J868" t="n">
-        <v>3.864</v>
-      </c>
-      <c r="K868" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J868" t="inlineStr"/>
+      <c r="K868" t="inlineStr"/>
       <c r="L868" t="n">
         <v>1</v>
       </c>
@@ -29201,14 +29123,8 @@
         <v>0</v>
       </c>
       <c r="I869" t="inlineStr"/>
-      <c r="J869" t="n">
-        <v>3.864</v>
-      </c>
-      <c r="K869" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J869" t="inlineStr"/>
+      <c r="K869" t="inlineStr"/>
       <c r="L869" t="n">
         <v>1</v>
       </c>
@@ -29240,14 +29156,8 @@
         <v>0</v>
       </c>
       <c r="I870" t="inlineStr"/>
-      <c r="J870" t="n">
-        <v>3.864</v>
-      </c>
-      <c r="K870" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J870" t="inlineStr"/>
+      <c r="K870" t="inlineStr"/>
       <c r="L870" t="n">
         <v>1</v>
       </c>
@@ -29279,14 +29189,8 @@
         <v>0</v>
       </c>
       <c r="I871" t="inlineStr"/>
-      <c r="J871" t="n">
-        <v>3.864</v>
-      </c>
-      <c r="K871" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J871" t="inlineStr"/>
+      <c r="K871" t="inlineStr"/>
       <c r="L871" t="n">
         <v>1</v>
       </c>
@@ -29318,14 +29222,8 @@
         <v>0</v>
       </c>
       <c r="I872" t="inlineStr"/>
-      <c r="J872" t="n">
-        <v>3.864</v>
-      </c>
-      <c r="K872" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J872" t="inlineStr"/>
+      <c r="K872" t="inlineStr"/>
       <c r="L872" t="n">
         <v>1</v>
       </c>
@@ -29357,14 +29255,8 @@
         <v>0</v>
       </c>
       <c r="I873" t="inlineStr"/>
-      <c r="J873" t="n">
-        <v>3.864</v>
-      </c>
-      <c r="K873" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J873" t="inlineStr"/>
+      <c r="K873" t="inlineStr"/>
       <c r="L873" t="n">
         <v>1</v>
       </c>
@@ -29396,14 +29288,8 @@
         <v>0</v>
       </c>
       <c r="I874" t="inlineStr"/>
-      <c r="J874" t="n">
-        <v>3.864</v>
-      </c>
-      <c r="K874" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J874" t="inlineStr"/>
+      <c r="K874" t="inlineStr"/>
       <c r="L874" t="n">
         <v>1</v>
       </c>
@@ -29435,14 +29321,8 @@
         <v>0</v>
       </c>
       <c r="I875" t="inlineStr"/>
-      <c r="J875" t="n">
-        <v>3.864</v>
-      </c>
-      <c r="K875" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J875" t="inlineStr"/>
+      <c r="K875" t="inlineStr"/>
       <c r="L875" t="n">
         <v>1</v>
       </c>
@@ -29474,14 +29354,8 @@
         <v>0</v>
       </c>
       <c r="I876" t="inlineStr"/>
-      <c r="J876" t="n">
-        <v>3.864</v>
-      </c>
-      <c r="K876" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J876" t="inlineStr"/>
+      <c r="K876" t="inlineStr"/>
       <c r="L876" t="n">
         <v>1</v>
       </c>
@@ -29513,14 +29387,8 @@
         <v>0</v>
       </c>
       <c r="I877" t="inlineStr"/>
-      <c r="J877" t="n">
-        <v>3.864</v>
-      </c>
-      <c r="K877" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J877" t="inlineStr"/>
+      <c r="K877" t="inlineStr"/>
       <c r="L877" t="n">
         <v>1</v>
       </c>
@@ -29552,14 +29420,8 @@
         <v>0</v>
       </c>
       <c r="I878" t="inlineStr"/>
-      <c r="J878" t="n">
-        <v>3.864</v>
-      </c>
-      <c r="K878" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J878" t="inlineStr"/>
+      <c r="K878" t="inlineStr"/>
       <c r="L878" t="n">
         <v>1</v>
       </c>
@@ -29591,14 +29453,8 @@
         <v>0</v>
       </c>
       <c r="I879" t="inlineStr"/>
-      <c r="J879" t="n">
-        <v>3.864</v>
-      </c>
-      <c r="K879" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J879" t="inlineStr"/>
+      <c r="K879" t="inlineStr"/>
       <c r="L879" t="n">
         <v>1</v>
       </c>
@@ -29630,14 +29486,8 @@
         <v>0</v>
       </c>
       <c r="I880" t="inlineStr"/>
-      <c r="J880" t="n">
-        <v>3.864</v>
-      </c>
-      <c r="K880" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J880" t="inlineStr"/>
+      <c r="K880" t="inlineStr"/>
       <c r="L880" t="n">
         <v>1</v>
       </c>
@@ -29669,14 +29519,8 @@
         <v>0</v>
       </c>
       <c r="I881" t="inlineStr"/>
-      <c r="J881" t="n">
-        <v>3.864</v>
-      </c>
-      <c r="K881" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J881" t="inlineStr"/>
+      <c r="K881" t="inlineStr"/>
       <c r="L881" t="n">
         <v>1</v>
       </c>
@@ -29705,19 +29549,11 @@
         <v>-26348073.11007383</v>
       </c>
       <c r="H882" t="n">
-        <v>1</v>
-      </c>
-      <c r="I882" t="n">
-        <v>3.873</v>
-      </c>
-      <c r="J882" t="n">
-        <v>3.864</v>
-      </c>
-      <c r="K882" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I882" t="inlineStr"/>
+      <c r="J882" t="inlineStr"/>
+      <c r="K882" t="inlineStr"/>
       <c r="L882" t="n">
         <v>1</v>
       </c>
@@ -29749,14 +29585,8 @@
         <v>0</v>
       </c>
       <c r="I883" t="inlineStr"/>
-      <c r="J883" t="n">
-        <v>3.864</v>
-      </c>
-      <c r="K883" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J883" t="inlineStr"/>
+      <c r="K883" t="inlineStr"/>
       <c r="L883" t="n">
         <v>1</v>
       </c>
@@ -29788,14 +29618,8 @@
         <v>0</v>
       </c>
       <c r="I884" t="inlineStr"/>
-      <c r="J884" t="n">
-        <v>3.864</v>
-      </c>
-      <c r="K884" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J884" t="inlineStr"/>
+      <c r="K884" t="inlineStr"/>
       <c r="L884" t="n">
         <v>1</v>
       </c>
@@ -29827,14 +29651,8 @@
         <v>0</v>
       </c>
       <c r="I885" t="inlineStr"/>
-      <c r="J885" t="n">
-        <v>3.864</v>
-      </c>
-      <c r="K885" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J885" t="inlineStr"/>
+      <c r="K885" t="inlineStr"/>
       <c r="L885" t="n">
         <v>1</v>
       </c>
@@ -29866,14 +29684,8 @@
         <v>0</v>
       </c>
       <c r="I886" t="inlineStr"/>
-      <c r="J886" t="n">
-        <v>3.864</v>
-      </c>
-      <c r="K886" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J886" t="inlineStr"/>
+      <c r="K886" t="inlineStr"/>
       <c r="L886" t="n">
         <v>1</v>
       </c>
@@ -29905,14 +29717,8 @@
         <v>0</v>
       </c>
       <c r="I887" t="inlineStr"/>
-      <c r="J887" t="n">
-        <v>3.864</v>
-      </c>
-      <c r="K887" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J887" t="inlineStr"/>
+      <c r="K887" t="inlineStr"/>
       <c r="L887" t="n">
         <v>1</v>
       </c>
@@ -29944,14 +29750,8 @@
         <v>0</v>
       </c>
       <c r="I888" t="inlineStr"/>
-      <c r="J888" t="n">
-        <v>3.864</v>
-      </c>
-      <c r="K888" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J888" t="inlineStr"/>
+      <c r="K888" t="inlineStr"/>
       <c r="L888" t="n">
         <v>1</v>
       </c>
@@ -29983,14 +29783,8 @@
         <v>0</v>
       </c>
       <c r="I889" t="inlineStr"/>
-      <c r="J889" t="n">
-        <v>3.864</v>
-      </c>
-      <c r="K889" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J889" t="inlineStr"/>
+      <c r="K889" t="inlineStr"/>
       <c r="L889" t="n">
         <v>1</v>
       </c>
@@ -30022,14 +29816,8 @@
         <v>0</v>
       </c>
       <c r="I890" t="inlineStr"/>
-      <c r="J890" t="n">
-        <v>3.864</v>
-      </c>
-      <c r="K890" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J890" t="inlineStr"/>
+      <c r="K890" t="inlineStr"/>
       <c r="L890" t="n">
         <v>1</v>
       </c>
@@ -30061,14 +29849,8 @@
         <v>0</v>
       </c>
       <c r="I891" t="inlineStr"/>
-      <c r="J891" t="n">
-        <v>3.864</v>
-      </c>
-      <c r="K891" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J891" t="inlineStr"/>
+      <c r="K891" t="inlineStr"/>
       <c r="L891" t="n">
         <v>1</v>
       </c>
@@ -30100,14 +29882,8 @@
         <v>0</v>
       </c>
       <c r="I892" t="inlineStr"/>
-      <c r="J892" t="n">
-        <v>3.864</v>
-      </c>
-      <c r="K892" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J892" t="inlineStr"/>
+      <c r="K892" t="inlineStr"/>
       <c r="L892" t="n">
         <v>1</v>
       </c>
@@ -30139,14 +29915,8 @@
         <v>0</v>
       </c>
       <c r="I893" t="inlineStr"/>
-      <c r="J893" t="n">
-        <v>3.864</v>
-      </c>
-      <c r="K893" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J893" t="inlineStr"/>
+      <c r="K893" t="inlineStr"/>
       <c r="L893" t="n">
         <v>1</v>
       </c>
@@ -30178,14 +29948,8 @@
         <v>0</v>
       </c>
       <c r="I894" t="inlineStr"/>
-      <c r="J894" t="n">
-        <v>3.864</v>
-      </c>
-      <c r="K894" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J894" t="inlineStr"/>
+      <c r="K894" t="inlineStr"/>
       <c r="L894" t="n">
         <v>1</v>
       </c>
@@ -30217,14 +29981,8 @@
         <v>0</v>
       </c>
       <c r="I895" t="inlineStr"/>
-      <c r="J895" t="n">
-        <v>3.864</v>
-      </c>
-      <c r="K895" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J895" t="inlineStr"/>
+      <c r="K895" t="inlineStr"/>
       <c r="L895" t="n">
         <v>1</v>
       </c>
@@ -30256,14 +30014,8 @@
         <v>0</v>
       </c>
       <c r="I896" t="inlineStr"/>
-      <c r="J896" t="n">
-        <v>3.864</v>
-      </c>
-      <c r="K896" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J896" t="inlineStr"/>
+      <c r="K896" t="inlineStr"/>
       <c r="L896" t="n">
         <v>1</v>
       </c>
@@ -30295,14 +30047,8 @@
         <v>0</v>
       </c>
       <c r="I897" t="inlineStr"/>
-      <c r="J897" t="n">
-        <v>3.864</v>
-      </c>
-      <c r="K897" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J897" t="inlineStr"/>
+      <c r="K897" t="inlineStr"/>
       <c r="L897" t="n">
         <v>1</v>
       </c>
@@ -30334,14 +30080,8 @@
         <v>0</v>
       </c>
       <c r="I898" t="inlineStr"/>
-      <c r="J898" t="n">
-        <v>3.864</v>
-      </c>
-      <c r="K898" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J898" t="inlineStr"/>
+      <c r="K898" t="inlineStr"/>
       <c r="L898" t="n">
         <v>1</v>
       </c>
@@ -30373,14 +30113,8 @@
         <v>0</v>
       </c>
       <c r="I899" t="inlineStr"/>
-      <c r="J899" t="n">
-        <v>3.864</v>
-      </c>
-      <c r="K899" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J899" t="inlineStr"/>
+      <c r="K899" t="inlineStr"/>
       <c r="L899" t="n">
         <v>1</v>
       </c>
@@ -30412,14 +30146,8 @@
         <v>0</v>
       </c>
       <c r="I900" t="inlineStr"/>
-      <c r="J900" t="n">
-        <v>3.864</v>
-      </c>
-      <c r="K900" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J900" t="inlineStr"/>
+      <c r="K900" t="inlineStr"/>
       <c r="L900" t="n">
         <v>1</v>
       </c>
@@ -30451,14 +30179,8 @@
         <v>0</v>
       </c>
       <c r="I901" t="inlineStr"/>
-      <c r="J901" t="n">
-        <v>3.864</v>
-      </c>
-      <c r="K901" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J901" t="inlineStr"/>
+      <c r="K901" t="inlineStr"/>
       <c r="L901" t="n">
         <v>1</v>
       </c>
@@ -30490,14 +30212,8 @@
         <v>0</v>
       </c>
       <c r="I902" t="inlineStr"/>
-      <c r="J902" t="n">
-        <v>3.864</v>
-      </c>
-      <c r="K902" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J902" t="inlineStr"/>
+      <c r="K902" t="inlineStr"/>
       <c r="L902" t="n">
         <v>1</v>
       </c>
@@ -30529,14 +30245,8 @@
         <v>0</v>
       </c>
       <c r="I903" t="inlineStr"/>
-      <c r="J903" t="n">
-        <v>3.864</v>
-      </c>
-      <c r="K903" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J903" t="inlineStr"/>
+      <c r="K903" t="inlineStr"/>
       <c r="L903" t="n">
         <v>1</v>
       </c>
@@ -30568,14 +30278,8 @@
         <v>0</v>
       </c>
       <c r="I904" t="inlineStr"/>
-      <c r="J904" t="n">
-        <v>3.864</v>
-      </c>
-      <c r="K904" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J904" t="inlineStr"/>
+      <c r="K904" t="inlineStr"/>
       <c r="L904" t="n">
         <v>1</v>
       </c>
@@ -30607,14 +30311,8 @@
         <v>0</v>
       </c>
       <c r="I905" t="inlineStr"/>
-      <c r="J905" t="n">
-        <v>3.864</v>
-      </c>
-      <c r="K905" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J905" t="inlineStr"/>
+      <c r="K905" t="inlineStr"/>
       <c r="L905" t="n">
         <v>1</v>
       </c>
@@ -30646,14 +30344,8 @@
         <v>0</v>
       </c>
       <c r="I906" t="inlineStr"/>
-      <c r="J906" t="n">
-        <v>3.864</v>
-      </c>
-      <c r="K906" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J906" t="inlineStr"/>
+      <c r="K906" t="inlineStr"/>
       <c r="L906" t="n">
         <v>1</v>
       </c>
@@ -30685,14 +30377,8 @@
         <v>0</v>
       </c>
       <c r="I907" t="inlineStr"/>
-      <c r="J907" t="n">
-        <v>3.864</v>
-      </c>
-      <c r="K907" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J907" t="inlineStr"/>
+      <c r="K907" t="inlineStr"/>
       <c r="L907" t="n">
         <v>1</v>
       </c>
@@ -30724,14 +30410,8 @@
         <v>0</v>
       </c>
       <c r="I908" t="inlineStr"/>
-      <c r="J908" t="n">
-        <v>3.864</v>
-      </c>
-      <c r="K908" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J908" t="inlineStr"/>
+      <c r="K908" t="inlineStr"/>
       <c r="L908" t="n">
         <v>1</v>
       </c>
@@ -30763,14 +30443,8 @@
         <v>0</v>
       </c>
       <c r="I909" t="inlineStr"/>
-      <c r="J909" t="n">
-        <v>3.864</v>
-      </c>
-      <c r="K909" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J909" t="inlineStr"/>
+      <c r="K909" t="inlineStr"/>
       <c r="L909" t="n">
         <v>1</v>
       </c>
@@ -30802,14 +30476,8 @@
         <v>0</v>
       </c>
       <c r="I910" t="inlineStr"/>
-      <c r="J910" t="n">
-        <v>3.864</v>
-      </c>
-      <c r="K910" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J910" t="inlineStr"/>
+      <c r="K910" t="inlineStr"/>
       <c r="L910" t="n">
         <v>1</v>
       </c>
@@ -30841,14 +30509,8 @@
         <v>0</v>
       </c>
       <c r="I911" t="inlineStr"/>
-      <c r="J911" t="n">
-        <v>3.864</v>
-      </c>
-      <c r="K911" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J911" t="inlineStr"/>
+      <c r="K911" t="inlineStr"/>
       <c r="L911" t="n">
         <v>1</v>
       </c>
@@ -30880,14 +30542,8 @@
         <v>0</v>
       </c>
       <c r="I912" t="inlineStr"/>
-      <c r="J912" t="n">
-        <v>3.864</v>
-      </c>
-      <c r="K912" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J912" t="inlineStr"/>
+      <c r="K912" t="inlineStr"/>
       <c r="L912" t="n">
         <v>1</v>
       </c>
@@ -30919,14 +30575,8 @@
         <v>0</v>
       </c>
       <c r="I913" t="inlineStr"/>
-      <c r="J913" t="n">
-        <v>3.864</v>
-      </c>
-      <c r="K913" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J913" t="inlineStr"/>
+      <c r="K913" t="inlineStr"/>
       <c r="L913" t="n">
         <v>1</v>
       </c>
@@ -30958,14 +30608,8 @@
         <v>0</v>
       </c>
       <c r="I914" t="inlineStr"/>
-      <c r="J914" t="n">
-        <v>3.864</v>
-      </c>
-      <c r="K914" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J914" t="inlineStr"/>
+      <c r="K914" t="inlineStr"/>
       <c r="L914" t="n">
         <v>1</v>
       </c>
@@ -30997,14 +30641,8 @@
         <v>0</v>
       </c>
       <c r="I915" t="inlineStr"/>
-      <c r="J915" t="n">
-        <v>3.864</v>
-      </c>
-      <c r="K915" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J915" t="inlineStr"/>
+      <c r="K915" t="inlineStr"/>
       <c r="L915" t="n">
         <v>1</v>
       </c>
@@ -31036,14 +30674,8 @@
         <v>0</v>
       </c>
       <c r="I916" t="inlineStr"/>
-      <c r="J916" t="n">
-        <v>3.864</v>
-      </c>
-      <c r="K916" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J916" t="inlineStr"/>
+      <c r="K916" t="inlineStr"/>
       <c r="L916" t="n">
         <v>1</v>
       </c>
@@ -31075,14 +30707,8 @@
         <v>0</v>
       </c>
       <c r="I917" t="inlineStr"/>
-      <c r="J917" t="n">
-        <v>3.864</v>
-      </c>
-      <c r="K917" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J917" t="inlineStr"/>
+      <c r="K917" t="inlineStr"/>
       <c r="L917" t="n">
         <v>1</v>
       </c>
@@ -31114,14 +30740,8 @@
         <v>0</v>
       </c>
       <c r="I918" t="inlineStr"/>
-      <c r="J918" t="n">
-        <v>3.864</v>
-      </c>
-      <c r="K918" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J918" t="inlineStr"/>
+      <c r="K918" t="inlineStr"/>
       <c r="L918" t="n">
         <v>1</v>
       </c>
@@ -31153,14 +30773,8 @@
         <v>0</v>
       </c>
       <c r="I919" t="inlineStr"/>
-      <c r="J919" t="n">
-        <v>3.864</v>
-      </c>
-      <c r="K919" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J919" t="inlineStr"/>
+      <c r="K919" t="inlineStr"/>
       <c r="L919" t="n">
         <v>1</v>
       </c>
@@ -31192,14 +30806,8 @@
         <v>0</v>
       </c>
       <c r="I920" t="inlineStr"/>
-      <c r="J920" t="n">
-        <v>3.864</v>
-      </c>
-      <c r="K920" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J920" t="inlineStr"/>
+      <c r="K920" t="inlineStr"/>
       <c r="L920" t="n">
         <v>1</v>
       </c>
@@ -31231,14 +30839,8 @@
         <v>0</v>
       </c>
       <c r="I921" t="inlineStr"/>
-      <c r="J921" t="n">
-        <v>3.864</v>
-      </c>
-      <c r="K921" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J921" t="inlineStr"/>
+      <c r="K921" t="inlineStr"/>
       <c r="L921" t="n">
         <v>1</v>
       </c>
@@ -31270,14 +30872,8 @@
         <v>0</v>
       </c>
       <c r="I922" t="inlineStr"/>
-      <c r="J922" t="n">
-        <v>3.864</v>
-      </c>
-      <c r="K922" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J922" t="inlineStr"/>
+      <c r="K922" t="inlineStr"/>
       <c r="L922" t="n">
         <v>1</v>
       </c>
@@ -31309,14 +30905,8 @@
         <v>0</v>
       </c>
       <c r="I923" t="inlineStr"/>
-      <c r="J923" t="n">
-        <v>3.864</v>
-      </c>
-      <c r="K923" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J923" t="inlineStr"/>
+      <c r="K923" t="inlineStr"/>
       <c r="L923" t="n">
         <v>1</v>
       </c>
@@ -31348,14 +30938,8 @@
         <v>0</v>
       </c>
       <c r="I924" t="inlineStr"/>
-      <c r="J924" t="n">
-        <v>3.864</v>
-      </c>
-      <c r="K924" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J924" t="inlineStr"/>
+      <c r="K924" t="inlineStr"/>
       <c r="L924" t="n">
         <v>1</v>
       </c>
@@ -31387,14 +30971,8 @@
         <v>0</v>
       </c>
       <c r="I925" t="inlineStr"/>
-      <c r="J925" t="n">
-        <v>3.864</v>
-      </c>
-      <c r="K925" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J925" t="inlineStr"/>
+      <c r="K925" t="inlineStr"/>
       <c r="L925" t="n">
         <v>1</v>
       </c>
@@ -31426,14 +31004,8 @@
         <v>0</v>
       </c>
       <c r="I926" t="inlineStr"/>
-      <c r="J926" t="n">
-        <v>3.864</v>
-      </c>
-      <c r="K926" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J926" t="inlineStr"/>
+      <c r="K926" t="inlineStr"/>
       <c r="L926" t="n">
         <v>1</v>
       </c>
@@ -31465,14 +31037,8 @@
         <v>0</v>
       </c>
       <c r="I927" t="inlineStr"/>
-      <c r="J927" t="n">
-        <v>3.864</v>
-      </c>
-      <c r="K927" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J927" t="inlineStr"/>
+      <c r="K927" t="inlineStr"/>
       <c r="L927" t="n">
         <v>1</v>
       </c>
@@ -31504,14 +31070,8 @@
         <v>0</v>
       </c>
       <c r="I928" t="inlineStr"/>
-      <c r="J928" t="n">
-        <v>3.864</v>
-      </c>
-      <c r="K928" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J928" t="inlineStr"/>
+      <c r="K928" t="inlineStr"/>
       <c r="L928" t="n">
         <v>1</v>
       </c>
@@ -31543,14 +31103,8 @@
         <v>0</v>
       </c>
       <c r="I929" t="inlineStr"/>
-      <c r="J929" t="n">
-        <v>3.864</v>
-      </c>
-      <c r="K929" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J929" t="inlineStr"/>
+      <c r="K929" t="inlineStr"/>
       <c r="L929" t="n">
         <v>1</v>
       </c>
@@ -31582,14 +31136,8 @@
         <v>0</v>
       </c>
       <c r="I930" t="inlineStr"/>
-      <c r="J930" t="n">
-        <v>3.864</v>
-      </c>
-      <c r="K930" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J930" t="inlineStr"/>
+      <c r="K930" t="inlineStr"/>
       <c r="L930" t="n">
         <v>1</v>
       </c>
@@ -31621,14 +31169,8 @@
         <v>0</v>
       </c>
       <c r="I931" t="inlineStr"/>
-      <c r="J931" t="n">
-        <v>3.864</v>
-      </c>
-      <c r="K931" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J931" t="inlineStr"/>
+      <c r="K931" t="inlineStr"/>
       <c r="L931" t="n">
         <v>1</v>
       </c>
@@ -31660,14 +31202,8 @@
         <v>0</v>
       </c>
       <c r="I932" t="inlineStr"/>
-      <c r="J932" t="n">
-        <v>3.864</v>
-      </c>
-      <c r="K932" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J932" t="inlineStr"/>
+      <c r="K932" t="inlineStr"/>
       <c r="L932" t="n">
         <v>1</v>
       </c>
@@ -31699,14 +31235,8 @@
         <v>0</v>
       </c>
       <c r="I933" t="inlineStr"/>
-      <c r="J933" t="n">
-        <v>3.864</v>
-      </c>
-      <c r="K933" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J933" t="inlineStr"/>
+      <c r="K933" t="inlineStr"/>
       <c r="L933" t="n">
         <v>1</v>
       </c>
@@ -31738,14 +31268,8 @@
         <v>0</v>
       </c>
       <c r="I934" t="inlineStr"/>
-      <c r="J934" t="n">
-        <v>3.864</v>
-      </c>
-      <c r="K934" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J934" t="inlineStr"/>
+      <c r="K934" t="inlineStr"/>
       <c r="L934" t="n">
         <v>1</v>
       </c>
@@ -31777,14 +31301,8 @@
         <v>0</v>
       </c>
       <c r="I935" t="inlineStr"/>
-      <c r="J935" t="n">
-        <v>3.864</v>
-      </c>
-      <c r="K935" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J935" t="inlineStr"/>
+      <c r="K935" t="inlineStr"/>
       <c r="L935" t="n">
         <v>1</v>
       </c>
@@ -31816,14 +31334,8 @@
         <v>0</v>
       </c>
       <c r="I936" t="inlineStr"/>
-      <c r="J936" t="n">
-        <v>3.864</v>
-      </c>
-      <c r="K936" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J936" t="inlineStr"/>
+      <c r="K936" t="inlineStr"/>
       <c r="L936" t="n">
         <v>1</v>
       </c>
@@ -31855,14 +31367,8 @@
         <v>0</v>
       </c>
       <c r="I937" t="inlineStr"/>
-      <c r="J937" t="n">
-        <v>3.864</v>
-      </c>
-      <c r="K937" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J937" t="inlineStr"/>
+      <c r="K937" t="inlineStr"/>
       <c r="L937" t="n">
         <v>1</v>
       </c>
@@ -31894,14 +31400,8 @@
         <v>0</v>
       </c>
       <c r="I938" t="inlineStr"/>
-      <c r="J938" t="n">
-        <v>3.864</v>
-      </c>
-      <c r="K938" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J938" t="inlineStr"/>
+      <c r="K938" t="inlineStr"/>
       <c r="L938" t="n">
         <v>1</v>
       </c>
@@ -31933,14 +31433,8 @@
         <v>0</v>
       </c>
       <c r="I939" t="inlineStr"/>
-      <c r="J939" t="n">
-        <v>3.864</v>
-      </c>
-      <c r="K939" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J939" t="inlineStr"/>
+      <c r="K939" t="inlineStr"/>
       <c r="L939" t="n">
         <v>1</v>
       </c>
@@ -31972,14 +31466,8 @@
         <v>0</v>
       </c>
       <c r="I940" t="inlineStr"/>
-      <c r="J940" t="n">
-        <v>3.864</v>
-      </c>
-      <c r="K940" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J940" t="inlineStr"/>
+      <c r="K940" t="inlineStr"/>
       <c r="L940" t="n">
         <v>1</v>
       </c>
@@ -32011,14 +31499,8 @@
         <v>0</v>
       </c>
       <c r="I941" t="inlineStr"/>
-      <c r="J941" t="n">
-        <v>3.864</v>
-      </c>
-      <c r="K941" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J941" t="inlineStr"/>
+      <c r="K941" t="inlineStr"/>
       <c r="L941" t="n">
         <v>1</v>
       </c>
@@ -32050,14 +31532,8 @@
         <v>0</v>
       </c>
       <c r="I942" t="inlineStr"/>
-      <c r="J942" t="n">
-        <v>3.864</v>
-      </c>
-      <c r="K942" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J942" t="inlineStr"/>
+      <c r="K942" t="inlineStr"/>
       <c r="L942" t="n">
         <v>1</v>
       </c>
@@ -32089,14 +31565,8 @@
         <v>0</v>
       </c>
       <c r="I943" t="inlineStr"/>
-      <c r="J943" t="n">
-        <v>3.864</v>
-      </c>
-      <c r="K943" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J943" t="inlineStr"/>
+      <c r="K943" t="inlineStr"/>
       <c r="L943" t="n">
         <v>1</v>
       </c>
@@ -32128,14 +31598,8 @@
         <v>0</v>
       </c>
       <c r="I944" t="inlineStr"/>
-      <c r="J944" t="n">
-        <v>3.864</v>
-      </c>
-      <c r="K944" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J944" t="inlineStr"/>
+      <c r="K944" t="inlineStr"/>
       <c r="L944" t="n">
         <v>1</v>
       </c>
@@ -32167,14 +31631,8 @@
         <v>0</v>
       </c>
       <c r="I945" t="inlineStr"/>
-      <c r="J945" t="n">
-        <v>3.864</v>
-      </c>
-      <c r="K945" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J945" t="inlineStr"/>
+      <c r="K945" t="inlineStr"/>
       <c r="L945" t="n">
         <v>1</v>
       </c>
@@ -32206,14 +31664,8 @@
         <v>0</v>
       </c>
       <c r="I946" t="inlineStr"/>
-      <c r="J946" t="n">
-        <v>3.864</v>
-      </c>
-      <c r="K946" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J946" t="inlineStr"/>
+      <c r="K946" t="inlineStr"/>
       <c r="L946" t="n">
         <v>1</v>
       </c>
@@ -32245,14 +31697,8 @@
         <v>0</v>
       </c>
       <c r="I947" t="inlineStr"/>
-      <c r="J947" t="n">
-        <v>3.864</v>
-      </c>
-      <c r="K947" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J947" t="inlineStr"/>
+      <c r="K947" t="inlineStr"/>
       <c r="L947" t="n">
         <v>1</v>
       </c>
@@ -32284,14 +31730,8 @@
         <v>0</v>
       </c>
       <c r="I948" t="inlineStr"/>
-      <c r="J948" t="n">
-        <v>3.864</v>
-      </c>
-      <c r="K948" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J948" t="inlineStr"/>
+      <c r="K948" t="inlineStr"/>
       <c r="L948" t="n">
         <v>1</v>
       </c>
@@ -32323,14 +31763,8 @@
         <v>0</v>
       </c>
       <c r="I949" t="inlineStr"/>
-      <c r="J949" t="n">
-        <v>3.864</v>
-      </c>
-      <c r="K949" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J949" t="inlineStr"/>
+      <c r="K949" t="inlineStr"/>
       <c r="L949" t="n">
         <v>1</v>
       </c>
@@ -32362,14 +31796,8 @@
         <v>0</v>
       </c>
       <c r="I950" t="inlineStr"/>
-      <c r="J950" t="n">
-        <v>3.864</v>
-      </c>
-      <c r="K950" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J950" t="inlineStr"/>
+      <c r="K950" t="inlineStr"/>
       <c r="L950" t="n">
         <v>1</v>
       </c>
@@ -32401,14 +31829,8 @@
         <v>0</v>
       </c>
       <c r="I951" t="inlineStr"/>
-      <c r="J951" t="n">
-        <v>3.864</v>
-      </c>
-      <c r="K951" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J951" t="inlineStr"/>
+      <c r="K951" t="inlineStr"/>
       <c r="L951" t="n">
         <v>1</v>
       </c>
@@ -32440,14 +31862,8 @@
         <v>0</v>
       </c>
       <c r="I952" t="inlineStr"/>
-      <c r="J952" t="n">
-        <v>3.864</v>
-      </c>
-      <c r="K952" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J952" t="inlineStr"/>
+      <c r="K952" t="inlineStr"/>
       <c r="L952" t="n">
         <v>1</v>
       </c>
@@ -32479,14 +31895,8 @@
         <v>0</v>
       </c>
       <c r="I953" t="inlineStr"/>
-      <c r="J953" t="n">
-        <v>3.864</v>
-      </c>
-      <c r="K953" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J953" t="inlineStr"/>
+      <c r="K953" t="inlineStr"/>
       <c r="L953" t="n">
         <v>1</v>
       </c>
@@ -32518,14 +31928,8 @@
         <v>0</v>
       </c>
       <c r="I954" t="inlineStr"/>
-      <c r="J954" t="n">
-        <v>3.864</v>
-      </c>
-      <c r="K954" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J954" t="inlineStr"/>
+      <c r="K954" t="inlineStr"/>
       <c r="L954" t="n">
         <v>1</v>
       </c>
@@ -32557,14 +31961,8 @@
         <v>0</v>
       </c>
       <c r="I955" t="inlineStr"/>
-      <c r="J955" t="n">
-        <v>3.864</v>
-      </c>
-      <c r="K955" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J955" t="inlineStr"/>
+      <c r="K955" t="inlineStr"/>
       <c r="L955" t="n">
         <v>1</v>
       </c>
@@ -32596,14 +31994,8 @@
         <v>0</v>
       </c>
       <c r="I956" t="inlineStr"/>
-      <c r="J956" t="n">
-        <v>3.864</v>
-      </c>
-      <c r="K956" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J956" t="inlineStr"/>
+      <c r="K956" t="inlineStr"/>
       <c r="L956" t="n">
         <v>1</v>
       </c>
@@ -32635,14 +32027,8 @@
         <v>0</v>
       </c>
       <c r="I957" t="inlineStr"/>
-      <c r="J957" t="n">
-        <v>3.864</v>
-      </c>
-      <c r="K957" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J957" t="inlineStr"/>
+      <c r="K957" t="inlineStr"/>
       <c r="L957" t="n">
         <v>1</v>
       </c>
@@ -32674,14 +32060,8 @@
         <v>0</v>
       </c>
       <c r="I958" t="inlineStr"/>
-      <c r="J958" t="n">
-        <v>3.864</v>
-      </c>
-      <c r="K958" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J958" t="inlineStr"/>
+      <c r="K958" t="inlineStr"/>
       <c r="L958" t="n">
         <v>1</v>
       </c>
@@ -32713,14 +32093,8 @@
         <v>0</v>
       </c>
       <c r="I959" t="inlineStr"/>
-      <c r="J959" t="n">
-        <v>3.864</v>
-      </c>
-      <c r="K959" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J959" t="inlineStr"/>
+      <c r="K959" t="inlineStr"/>
       <c r="L959" t="n">
         <v>1</v>
       </c>
